--- a/Excel/RobotConfig.xlsx
+++ b/Excel/RobotConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0E2F53-373B-464A-AF33-A6C4080A5A3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AE2079-008C-4FB6-ABEE-804C2B796D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="990" yWindow="1680" windowWidth="27810" windowHeight="12315" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RobotConfig" sheetId="6" r:id="rId1"/>
@@ -28,8 +28,46 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{D4878324-19AE-4539-A1AF-0BE355AC08F2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1   任务机器人
+2   组队副本机器人
+3   战场机器人</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>cs</t>
   </si>
@@ -68,34 +106,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>新手机器人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>行为</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>组队副本1机器人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>组队副本2机器人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>组队副本3机器人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>组队副本4机器人</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>第一职业</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -104,23 +118,25 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>第二职业</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Behaviour</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>Occ</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二职业</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>OccTwo</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +171,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -185,13 +216,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -199,6 +229,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -476,11 +512,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -488,393 +524,453 @@
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="9.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="49.875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="23.625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="23.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="49.875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="5" customWidth="1"/>
     <col min="8" max="9" width="31.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="24.25" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="5"/>
+      <c r="C6" s="3">
+        <v>1001</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="5"/>
+      <c r="C7" s="3">
+        <v>2001</v>
+      </c>
+      <c r="D7" s="3">
+        <v>20</v>
+      </c>
+      <c r="E7" s="7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>101</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B8" s="5"/>
+      <c r="C8" s="3">
+        <v>2002</v>
+      </c>
+      <c r="D8" s="3">
+        <v>20</v>
+      </c>
+      <c r="E8" s="7">
+        <v>2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2</v>
+      </c>
+      <c r="G8" s="3">
+        <v>202</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B9" s="5"/>
+      <c r="C9" s="3">
+        <v>2003</v>
+      </c>
+      <c r="D9" s="3">
+        <v>35</v>
+      </c>
+      <c r="E9" s="7">
+        <v>2</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>101</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B10" s="5"/>
+      <c r="C10" s="3">
+        <v>2004</v>
+      </c>
+      <c r="D10" s="3">
+        <v>45</v>
+      </c>
+      <c r="E10" s="7">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>102</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B11" s="5"/>
+      <c r="C11" s="3">
+        <v>2005</v>
+      </c>
+      <c r="D11" s="3">
+        <v>55</v>
+      </c>
+      <c r="E11" s="7">
+        <v>2</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+      <c r="G11" s="3">
+        <v>203</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="5"/>
+      <c r="C12" s="3">
+        <v>3001</v>
+      </c>
+      <c r="D12" s="3">
+        <v>30</v>
+      </c>
+      <c r="E12" s="3">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
+      <c r="F12" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
+      <c r="G12" s="3">
+        <v>101</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B13" s="5"/>
+      <c r="C13" s="3">
+        <v>3002</v>
+      </c>
+      <c r="D13" s="3">
+        <v>30</v>
+      </c>
+      <c r="E13" s="3">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="2">
-        <v>1001</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C7" s="2">
-        <v>1002</v>
-      </c>
-      <c r="D7" s="2">
-        <v>20</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C8" s="2">
-        <v>1003</v>
-      </c>
-      <c r="D8" s="2">
-        <v>20</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C9" s="2">
-        <v>1004</v>
-      </c>
-      <c r="D9" s="2">
-        <v>35</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C10" s="2">
-        <v>1005</v>
-      </c>
-      <c r="D10" s="2">
-        <v>45</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C11" s="2">
-        <v>1006</v>
-      </c>
-      <c r="D11" s="2">
-        <v>55</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="3:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="3:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="3:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="3:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="3:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="3:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="3:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="3:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="3:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="3:9" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="3:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="G13" s="3">
+        <v>202</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B14" s="5"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B15" s="5"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B16" s="5"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B17" s="5"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="5"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B19" s="5"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B20" s="5"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B21" s="5"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B22" s="5"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B23" s="5"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B24" s="5"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B25" s="5"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B26" s="5"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="F27" s="6"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="3:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="F28" s="6"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="3:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="F29" s="6"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="3:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="6"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="3:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="F31" s="6"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="3:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
+      <c r="F32" s="6"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -883,7 +979,7 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="F33" s="6"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -892,7 +988,7 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="F34" s="6"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
@@ -901,7 +997,7 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
+      <c r="F35" s="6"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
@@ -910,7 +1006,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
+      <c r="F36" s="6"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
@@ -919,7 +1015,7 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
+      <c r="F37" s="6"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
@@ -928,7 +1024,7 @@
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
+      <c r="F38" s="6"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -937,5 +1033,6 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/RobotConfig.xlsx
+++ b/Excel/RobotConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AE2079-008C-4FB6-ABEE-804C2B796D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20311F1D-FE6B-40B7-A9E3-772A65D3B4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="990" yWindow="1680" windowWidth="27810" windowHeight="12315" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RobotConfig" sheetId="6" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>cs</t>
   </si>
@@ -130,6 +130,34 @@
   </si>
   <si>
     <t>OccTwo</t>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>组队副本机器人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>战场机器人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务机器人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -513,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -525,14 +553,15 @@
     <col min="3" max="3" width="9.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="49.875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="23.625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="23.5" style="5" customWidth="1"/>
-    <col min="8" max="9" width="31.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="24.25" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="14.25" style="5" customWidth="1"/>
+    <col min="7" max="7" width="23.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="23.5" style="5" customWidth="1"/>
+    <col min="9" max="10" width="31.375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.25" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -542,21 +571,25 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="2"/>
+      <c r="H1" s="3"/>
       <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="2"/>
+      <c r="H2" s="3"/>
       <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
@@ -569,19 +602,22 @@
         <v>10</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
@@ -594,19 +630,22 @@
         <v>14</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
@@ -619,19 +658,22 @@
         <v>12</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J5" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="5"/>
       <c r="C6" s="3">
         <v>1001</v>
@@ -642,16 +684,19 @@
       <c r="E6" s="7">
         <v>1</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>0</v>
       </c>
-      <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B7" s="5"/>
       <c r="C7" s="3">
         <v>2001</v>
@@ -662,16 +707,19 @@
       <c r="E7" s="7">
         <v>2</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="3">
         <v>1</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>101</v>
       </c>
-      <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-    </row>
-    <row r="8" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="5"/>
       <c r="C8" s="3">
         <v>2002</v>
@@ -682,16 +730,19 @@
       <c r="E8" s="7">
         <v>2</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="3">
         <v>2</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>202</v>
       </c>
-      <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-    </row>
-    <row r="9" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="5"/>
       <c r="C9" s="3">
         <v>2003</v>
@@ -702,16 +753,19 @@
       <c r="E9" s="7">
         <v>2</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="3">
         <v>1</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>101</v>
       </c>
-      <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B10" s="5"/>
       <c r="C10" s="3">
         <v>2004</v>
@@ -722,16 +776,19 @@
       <c r="E10" s="7">
         <v>2</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="3">
         <v>1</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>102</v>
       </c>
-      <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B11" s="5"/>
       <c r="C11" s="3">
         <v>2005</v>
@@ -742,16 +799,19 @@
       <c r="E11" s="7">
         <v>2</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="3">
         <v>2</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
         <v>203</v>
       </c>
-      <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B12" s="5"/>
       <c r="C12" s="3">
         <v>3001</v>
@@ -762,16 +822,19 @@
       <c r="E12" s="3">
         <v>3</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="3">
         <v>1</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>101</v>
       </c>
-      <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B13" s="5"/>
       <c r="C13" s="3">
         <v>3002</v>
@@ -782,16 +845,19 @@
       <c r="E13" s="3">
         <v>3</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="3">
         <v>2</v>
       </c>
-      <c r="G13" s="3">
+      <c r="H13" s="3">
         <v>202</v>
       </c>
-      <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B14" s="5"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -800,8 +866,9 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B15" s="5"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -810,8 +877,9 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B16" s="5"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -820,8 +888,9 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B17" s="5"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -830,8 +899,9 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="5"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -840,8 +910,9 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B19" s="5"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -850,8 +921,9 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B20" s="5"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -860,8 +932,9 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B21" s="5"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -870,8 +943,9 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B22" s="5"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -880,8 +954,9 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B23" s="5"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -890,8 +965,9 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B24" s="5"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -900,8 +976,9 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B25" s="5"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -910,8 +987,9 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="2:9" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B26" s="5"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -920,114 +998,127 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="6"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="6"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="6"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="6"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="6"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="2:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="6"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="3:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="3:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="6"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="3:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="3:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="6"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="3:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="3:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="6"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="3:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="3:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="6"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="3:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J36" s="2"/>
+    </row>
+    <row r="37" spans="3:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="6"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="3:9" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J37" s="2"/>
+    </row>
+    <row r="38" spans="3:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="6"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Excel/RobotConfig.xlsx
+++ b/Excel/RobotConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC256456-4A45-4619-B5F5-900879E9E391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456B5B53-527A-4C8F-AF37-FC6F8723B5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30420" yWindow="1260" windowWidth="27810" windowHeight="12315" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RobotConfig" sheetId="6" r:id="rId1"/>
@@ -94,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
   <si>
     <t>cs</t>
   </si>
@@ -192,6 +192,10 @@
   </si>
   <si>
     <t>14050001,14090003,14080003,15203006</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,10,0,0,0</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -582,7 +586,7 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -732,7 +736,9 @@
         <v>0</v>
       </c>
       <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="J6" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B7" s="5"/>

--- a/Excel/RobotConfig.xlsx
+++ b/Excel/RobotConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20311F1D-FE6B-40B7-A9E3-772A65D3B4C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC256456-4A45-4619-B5F5-900879E9E391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RobotConfig" sheetId="6" r:id="rId1"/>
@@ -32,6 +32,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Admin</author>
+    <author>Administrator</author>
   </authors>
   <commentList>
     <comment ref="E3" authorId="0" shapeId="0" xr:uid="{D4878324-19AE-4539-A1AF-0BE355AC08F2}">
@@ -62,12 +63,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{2EB17792-E93B-479A-A1DD-CA7DA7A18D18}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+跟显示一样的数据</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="26">
   <si>
     <t>cs</t>
   </si>
@@ -157,6 +184,14 @@
   </si>
   <si>
     <t>任务机器人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>50,50,50,50,50</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14050001,14090003,14080003,15203006</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -244,7 +279,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -262,7 +297,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -543,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -716,8 +754,12 @@
       <c r="H7" s="3">
         <v>101</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="I7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="5"/>
@@ -739,8 +781,12 @@
       <c r="H8" s="3">
         <v>202</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="I8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="5"/>
@@ -762,8 +808,12 @@
       <c r="H9" s="3">
         <v>101</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
+      <c r="I9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B10" s="5"/>
@@ -785,8 +835,12 @@
       <c r="H10" s="3">
         <v>102</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="I10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B11" s="5"/>
@@ -808,8 +862,12 @@
       <c r="H11" s="3">
         <v>203</v>
       </c>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
+      <c r="I11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B12" s="5"/>
@@ -831,8 +889,12 @@
       <c r="H12" s="3">
         <v>101</v>
       </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="I12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B13" s="5"/>
@@ -854,8 +916,12 @@
       <c r="H13" s="3">
         <v>202</v>
       </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="I13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B14" s="5"/>

--- a/Excel/RobotConfig.xlsx
+++ b/Excel/RobotConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456B5B53-527A-4C8F-AF37-FC6F8723B5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F13C4F-1A69-4E1A-A7F0-BE45F37BC682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30420" yWindow="1260" windowWidth="27810" windowHeight="12315" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RobotConfig" sheetId="6" r:id="rId1"/>
@@ -89,12 +89,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="K3" authorId="1" shapeId="0" xr:uid="{BB10CC29-0B8A-45E9-A1A7-BBD45FD3FBD6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+跟显示一样的数据</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
   <si>
     <t>cs</t>
   </si>
@@ -196,6 +222,22 @@
   </si>
   <si>
     <t>10,10,0,0,0</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AIParameter</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-9.96;0.34;-1.8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>70.6;0;50.8</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -203,7 +245,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,8 +295,15 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,13 +316,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -283,7 +351,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -305,6 +373,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -583,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -598,12 +675,11 @@
     <col min="6" max="6" width="14.25" style="5" customWidth="1"/>
     <col min="7" max="7" width="23.625" style="5" customWidth="1"/>
     <col min="8" max="8" width="23.5" style="5" customWidth="1"/>
-    <col min="9" max="10" width="31.375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.25" style="1" customWidth="1"/>
+    <col min="9" max="11" width="31.375" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -616,8 +692,9 @@
       <c r="H1" s="3"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -630,8 +707,9 @@
       <c r="H2" s="3"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
@@ -658,8 +736,11 @@
       <c r="J3" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K3" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
@@ -686,8 +767,11 @@
       <c r="J4" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K4" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
@@ -714,8 +798,11 @@
       <c r="J5" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K5" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="5"/>
       <c r="C6" s="3">
         <v>1001</v>
@@ -739,8 +826,9 @@
       <c r="J6" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B7" s="5"/>
       <c r="C7" s="3">
         <v>2001</v>
@@ -763,11 +851,14 @@
       <c r="I7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J7" s="11">
+        <v>100100100150150</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="5"/>
       <c r="C8" s="3">
         <v>2002</v>
@@ -793,8 +884,11 @@
       <c r="J8" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K8" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="5"/>
       <c r="C9" s="3">
         <v>2003</v>
@@ -820,8 +914,11 @@
       <c r="J9" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K9" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B10" s="5"/>
       <c r="C10" s="3">
         <v>2004</v>
@@ -847,8 +944,11 @@
       <c r="J10" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K10" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B11" s="5"/>
       <c r="C11" s="3">
         <v>2005</v>
@@ -874,8 +974,11 @@
       <c r="J11" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K11" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B12" s="5"/>
       <c r="C12" s="3">
         <v>3001</v>
@@ -901,8 +1004,11 @@
       <c r="J12" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K12" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B13" s="5"/>
       <c r="C13" s="3">
         <v>3002</v>
@@ -928,8 +1034,11 @@
       <c r="J13" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K13" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B14" s="5"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -938,9 +1047,8 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B15" s="5"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -949,9 +1057,8 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B16" s="5"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -960,9 +1067,8 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B17" s="5"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -971,9 +1077,8 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="5"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -982,9 +1087,8 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B19" s="5"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -993,9 +1097,8 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B20" s="5"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1004,9 +1107,8 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B21" s="5"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1015,9 +1117,8 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B22" s="5"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1026,9 +1127,8 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B23" s="5"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1037,9 +1137,8 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B24" s="5"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1048,9 +1147,8 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B25" s="5"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1059,9 +1157,8 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="2:10" ht="16.5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B26" s="5"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1070,9 +1167,8 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1080,9 +1176,8 @@
       <c r="G27" s="6"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1091,8 +1186,9 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -1101,8 +1197,9 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1111,8 +1208,9 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1121,8 +1219,9 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1131,8 +1230,9 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="3:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="3:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -1141,8 +1241,9 @@
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="3:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K33" s="2"/>
+    </row>
+    <row r="34" spans="3:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1151,8 +1252,9 @@
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="3:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K34" s="2"/>
+    </row>
+    <row r="35" spans="3:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
@@ -1161,8 +1263,9 @@
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-    </row>
-    <row r="36" spans="3:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K35" s="2"/>
+    </row>
+    <row r="36" spans="3:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1171,8 +1274,9 @@
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-    </row>
-    <row r="37" spans="3:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K36" s="2"/>
+    </row>
+    <row r="37" spans="3:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1181,8 +1285,9 @@
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-    </row>
-    <row r="38" spans="3:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K37" s="2"/>
+    </row>
+    <row r="38" spans="3:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -1191,6 +1296,7 @@
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Excel/RobotConfig.xlsx
+++ b/Excel/RobotConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F13C4F-1A69-4E1A-A7F0-BE45F37BC682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC0C993-6111-41D7-BB5F-67A3456EA07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,11 +31,37 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Administrator</author>
     <author>Admin</author>
-    <author>Administrator</author>
   </authors>
   <commentList>
-    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{D4878324-19AE-4539-A1AF-0BE355AC08F2}">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{2EB17792-E93B-479A-A1DD-CA7DA7A18D18}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+跟显示一样的数据</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{D4878324-19AE-4539-A1AF-0BE355AC08F2}">
       <text>
         <r>
           <rPr>
@@ -63,7 +89,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{2EB17792-E93B-479A-A1DD-CA7DA7A18D18}">
+    <comment ref="K3" authorId="1" shapeId="0" xr:uid="{781FAD26-B71D-4AB9-A665-E056C295A3A5}">
       <text>
         <r>
           <rPr>
@@ -74,7 +100,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>Administrator:</t>
+          <t>Admin:</t>
         </r>
         <r>
           <rPr>
@@ -85,11 +111,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-跟显示一样的数据</t>
+组队机器人： 副本ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="1" shapeId="0" xr:uid="{BB10CC29-0B8A-45E9-A1A7-BBD45FD3FBD6}">
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{BB10CC29-0B8A-45E9-A1A7-BBD45FD3FBD6}">
       <text>
         <r>
           <rPr>
@@ -120,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
   <si>
     <t>cs</t>
   </si>
@@ -233,11 +259,18 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>-9.96;0.34;-1.8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>70.6;0;50.8</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为ID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Behaviour</t>
+  </si>
+  <si>
+    <t>-9.96;0.34;-1.8;10</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -660,10 +693,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -671,15 +704,17 @@
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="9.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="49.875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="5" customWidth="1"/>
-    <col min="7" max="7" width="23.625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="23.5" style="5" customWidth="1"/>
-    <col min="9" max="11" width="31.375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
+    <col min="5" max="5" width="14.25" style="5" customWidth="1"/>
+    <col min="6" max="6" width="23.625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="23.5" style="5" customWidth="1"/>
+    <col min="8" max="9" width="31.375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="49.875" style="5" customWidth="1"/>
+    <col min="11" max="11" width="17.875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="31.375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -689,27 +724,29 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
+      <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="J1" s="3"/>
       <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L1" s="2"/>
+    </row>
+    <row r="2" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="J2" s="3"/>
       <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4" t="s">
@@ -719,28 +756,31 @@
         <v>3</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>8</v>
-      </c>
       <c r="K3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="4" t="s">
@@ -750,28 +790,31 @@
         <v>4</v>
       </c>
       <c r="E4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>9</v>
-      </c>
       <c r="K4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5" s="4" t="s">
@@ -781,28 +824,31 @@
         <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="K5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="5"/>
       <c r="C6" s="3">
         <v>1001</v>
@@ -810,25 +856,26 @@
       <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>23</v>
-      </c>
       <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="7">
         <v>1</v>
       </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K6" s="3"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B7" s="5"/>
       <c r="C7" s="3">
         <v>2001</v>
@@ -836,29 +883,32 @@
       <c r="D7" s="3">
         <v>20</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>101</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" s="11">
+        <v>100100100150150</v>
+      </c>
+      <c r="J7" s="7">
         <v>2</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
-        <v>101</v>
-      </c>
-      <c r="I7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="11">
-        <v>100100100150150</v>
-      </c>
-      <c r="K7" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K7" s="3">
+        <v>110001</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B8" s="5"/>
       <c r="C8" s="3">
         <v>2002</v>
@@ -866,29 +916,32 @@
       <c r="D8" s="3">
         <v>20</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="3">
         <v>2</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="G8" s="3">
+        <v>202</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="7">
         <v>2</v>
       </c>
-      <c r="H8" s="3">
-        <v>202</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K8" s="3">
+        <v>110001</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B9" s="5"/>
       <c r="C9" s="3">
         <v>2003</v>
@@ -896,29 +949,32 @@
       <c r="D9" s="3">
         <v>35</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>101</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="7">
         <v>2</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>101</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K9" s="3">
+        <v>110001</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B10" s="5"/>
       <c r="C10" s="3">
         <v>2004</v>
@@ -926,29 +982,32 @@
       <c r="D10" s="3">
         <v>45</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>102</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="7">
         <v>2</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="3">
-        <v>1</v>
-      </c>
-      <c r="H10" s="3">
-        <v>102</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K10" s="3">
+        <v>110001</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B11" s="5"/>
       <c r="C11" s="3">
         <v>2005</v>
@@ -956,29 +1015,32 @@
       <c r="D11" s="3">
         <v>55</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="3">
         <v>2</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="G11" s="3">
+        <v>203</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="7">
         <v>2</v>
       </c>
-      <c r="H11" s="3">
-        <v>203</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K11" s="3">
+        <v>110001</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B12" s="5"/>
       <c r="C12" s="3">
         <v>3001</v>
@@ -986,29 +1048,30 @@
       <c r="D12" s="3">
         <v>30</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>101</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="3">
         <v>3</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3">
-        <v>101</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K12" s="3"/>
+      <c r="L12" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B13" s="5"/>
       <c r="C13" s="3">
         <v>3002</v>
@@ -1016,29 +1079,30 @@
       <c r="D13" s="3">
         <v>30</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>202</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="3">
         <v>3</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="3">
-        <v>2</v>
-      </c>
-      <c r="H13" s="3">
-        <v>202</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K13" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="K13" s="3"/>
+      <c r="L13" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B14" s="5"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -1046,9 +1110,9 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B15" s="5"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
@@ -1056,9 +1120,9 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B16" s="5"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -1066,9 +1130,9 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B17" s="5"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -1076,9 +1140,9 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B18" s="5"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -1086,9 +1150,9 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B19" s="5"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -1096,9 +1160,9 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B20" s="5"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -1106,9 +1170,9 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B21" s="5"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -1116,9 +1180,9 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B22" s="5"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -1126,9 +1190,9 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B23" s="5"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -1136,9 +1200,9 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B24" s="5"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
@@ -1146,9 +1210,9 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B25" s="5"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
@@ -1156,9 +1220,9 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="2:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="2:12" ht="16.5" x14ac:dyDescent="0.15">
       <c r="B26" s="5"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1166,137 +1230,148 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-    </row>
-    <row r="32" spans="2:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="2:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="3:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-    </row>
-    <row r="34" spans="3:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-    </row>
-    <row r="35" spans="3:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-    </row>
-    <row r="36" spans="3:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="3:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-    </row>
-    <row r="38" spans="3:11" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="3:12" ht="16.5" x14ac:dyDescent="0.3">
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Excel/RobotConfig.xlsx
+++ b/Excel/RobotConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEC0C993-6111-41D7-BB5F-67A3456EA07A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE126D4D-CCD5-41DA-880B-6ABEBA16003D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -259,10 +259,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>70.6;0;50.8</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>行为ID</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -270,7 +266,11 @@
     <t>Behaviour</t>
   </si>
   <si>
-    <t>-9.96;0.34;-1.8;10</t>
+    <t>70.6;0;50.8;1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-9.96;0.34;-1.8;2</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -696,7 +696,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -774,7 +774,7 @@
         <v>10</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L3" s="4" t="s">
         <v>27</v>
@@ -808,7 +808,7 @@
         <v>14</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>28</v>
@@ -905,7 +905,7 @@
         <v>110001</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
@@ -938,7 +938,7 @@
         <v>110001</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
@@ -971,7 +971,7 @@
         <v>110001</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
@@ -1004,7 +1004,7 @@
         <v>110001</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
@@ -1037,7 +1037,7 @@
         <v>110001</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">

--- a/Excel/RobotConfig.xlsx
+++ b/Excel/RobotConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE126D4D-CCD5-41DA-880B-6ABEBA16003D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A358E6-8354-4CC3-88FD-6E005064A5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -263,14 +263,15 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>Behaviour</t>
-  </si>
-  <si>
     <t>70.6;0;50.8;1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>-9.96;0.34;-1.8;2</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>BehaviourID</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -696,7 +697,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -808,7 +809,7 @@
         <v>14</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>28</v>
@@ -905,7 +906,7 @@
         <v>110001</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
@@ -938,7 +939,7 @@
         <v>110001</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
@@ -971,7 +972,7 @@
         <v>110001</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
@@ -1004,7 +1005,7 @@
         <v>110001</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
@@ -1037,7 +1038,7 @@
         <v>110001</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
@@ -1068,7 +1069,7 @@
       </c>
       <c r="K12" s="3"/>
       <c r="L12" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">
@@ -1099,7 +1100,7 @@
       </c>
       <c r="K13" s="3"/>
       <c r="L13" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="16.5" x14ac:dyDescent="0.15">

--- a/Excel/RobotConfig.xlsx
+++ b/Excel/RobotConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18A358E6-8354-4CC3-88FD-6E005064A5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655F0A98-D629-43BA-83D7-88FEC540C323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="34">
   <si>
     <t>cs</t>
   </si>
@@ -272,6 +272,10 @@
   </si>
   <si>
     <t>BehaviourID</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,5,5,5,5</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -385,7 +389,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -413,9 +417,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -697,7 +698,7 @@
   <dimension ref="A1:L38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -896,8 +897,8 @@
       <c r="H7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="I7" s="11">
-        <v>100100100150150</v>
+      <c r="I7" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="J7" s="7">
         <v>2</v>

--- a/Excel/RobotConfig.xlsx
+++ b/Excel/RobotConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FAC38BB-3010-4E60-816A-2D225E09403E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906DFB59-9014-4ADA-A9EC-CBAFD101D60F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RobotConfig" sheetId="6" r:id="rId1"/>
@@ -271,42 +271,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>15201002;15202002;15203002;15203002;15204002;15205002;15206002;15207002;15208002;15209002;15210102;15211002</t>
-  </si>
-  <si>
-    <t>15201006;15202006;15203006;15203006;15204006;15205006;15206002;15207002;15208002;15209002;15210102;15211006</t>
-  </si>
-  <si>
-    <t>15201004;15202004;15203004;15203004;15204004;15205004;15206002;15207002;15208002;15209002;15210104;15211004</t>
-  </si>
-  <si>
-    <t>15501004;15502004;15503004;15503004;15504004;15505004;15506002;15507002;15508002;15509002;15510104;15511004</t>
-  </si>
-  <si>
-    <t>15501006;15502006;15503006;15503006;15504006;15505006;15506002;15507002;15508002;15509002;15510102;15511006</t>
-  </si>
-  <si>
-    <t>15501002;15502002;15503002;15503002;15504002;15505002;15506002;15507002;15508002;15509002;15510102;15511002</t>
-  </si>
-  <si>
-    <t>15401004;15402004;15403004;15403004;15404004;15405004;15406002;15407002;15408002;15409002;15410104;15411004</t>
-  </si>
-  <si>
-    <t>15401006;15402006;15403006;15403006;15404006;15405006;15406002;15407002;15408002;15409002;15410102;15411006</t>
-  </si>
-  <si>
-    <t>15401002;15402002;15403002;15403002;15404002;15405002;15406002;15407002;15408002;15409002;15410102;15411002</t>
-  </si>
-  <si>
-    <t>15301004;15302004;15303004;15303004;15304004;15305004;15306002;15307002;15308002;15309002;15310104;15311004</t>
-  </si>
-  <si>
-    <t>15301006;15302006;15303006;15303006;15304006;15305006;15306002;15307002;15308002;15309002;15310102;15311006</t>
-  </si>
-  <si>
-    <t>15301002;15302002;15303002;15303002;15304002;15305002;15306002;15307002;15308002;15309002;15310102;15311002</t>
-  </si>
-  <si>
     <t>90.81;0;66.18;1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -320,13 +284,49 @@
   </si>
   <si>
     <t>72.48;0;0.34;1</t>
+  </si>
+  <si>
+    <t>15201004,15202004,15203004,15203004,15204004,15205004,15206002,15207002,15208002,15209002,15210104,15211004</t>
+  </si>
+  <si>
+    <t>15201006,15202006,15203006,15203006,15204006,15205006,15206002,15207002,15208002,15209002,15210102,15211006</t>
+  </si>
+  <si>
+    <t>15201002,15202002,15203002,15203002,15204002,15205002,15206002,15207002,15208002,15209002,15210102,15211002</t>
+  </si>
+  <si>
+    <t>15301004,15302004,15303004,15303004,15304004,15305004,15306002,15307002,15308002,15309002,15310104,15311004</t>
+  </si>
+  <si>
+    <t>15301006,15302006,15303006,15303006,15304006,15305006,15306002,15307002,15308002,15309002,15310102,15311006</t>
+  </si>
+  <si>
+    <t>15301002,15302002,15303002,15303002,15304002,15305002,15306002,15307002,15308002,15309002,15310102,15311002</t>
+  </si>
+  <si>
+    <t>15401004,15402004,15403004,15403004,15404004,15405004,15406002,15407002,15408002,15409002,15410104,15411004</t>
+  </si>
+  <si>
+    <t>15401006,15402006,15403006,15403006,15404006,15405006,15406002,15407002,15408002,15409002,15410102,15411006</t>
+  </si>
+  <si>
+    <t>15401002,15402002,15403002,15403002,15404002,15405002,15406002,15407002,15408002,15409002,15410102,15411002</t>
+  </si>
+  <si>
+    <t>15501004,15502004,15503004,15503004,15504004,15505004,15506002,15507002,15508002,15509002,15510104,15511004</t>
+  </si>
+  <si>
+    <t>15501006,15502006,15503006,15503006,15504006,15505006,15506002,15507002,15508002,15509002,15510102,15511006</t>
+  </si>
+  <si>
+    <t>15501002,15502002,15503002,15503002,15504002,15505002,15506002,15507002,15508002,15509002,15510102,15511002</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -760,11 +760,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="E40" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="9.625" style="1" customWidth="1"/>
@@ -779,7 +779,7 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -795,7 +795,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -811,7 +811,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="8" t="s">
@@ -845,7 +845,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="8" t="s">
@@ -879,7 +879,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="8" t="s">
@@ -913,7 +913,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="9"/>
       <c r="C6" s="6">
         <v>1001</v>
@@ -940,7 +940,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="9"/>
       <c r="C7" s="6">
         <v>2101</v>
@@ -958,7 +958,7 @@
         <v>101</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>23</v>
@@ -970,10 +970,10 @@
         <v>110001</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="9"/>
       <c r="C8" s="6">
         <v>2102</v>
@@ -991,7 +991,7 @@
         <v>102</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>23</v>
@@ -1003,10 +1003,10 @@
         <v>110001</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="9"/>
       <c r="C9" s="6">
         <v>2103</v>
@@ -1024,7 +1024,7 @@
         <v>103</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>23</v>
@@ -1036,10 +1036,10 @@
         <v>110001</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="9"/>
       <c r="C10" s="6">
         <v>2104</v>
@@ -1057,7 +1057,7 @@
         <v>201</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>23</v>
@@ -1069,10 +1069,10 @@
         <v>110001</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="9"/>
       <c r="C11" s="6">
         <v>2105</v>
@@ -1090,7 +1090,7 @@
         <v>202</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>23</v>
@@ -1102,10 +1102,10 @@
         <v>110001</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="9"/>
       <c r="C12" s="6">
         <v>2106</v>
@@ -1123,7 +1123,7 @@
         <v>203</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>23</v>
@@ -1135,10 +1135,10 @@
         <v>110001</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="9"/>
       <c r="C13" s="6">
         <f>C7+100</f>
@@ -1157,7 +1157,7 @@
         <v>101</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I13" s="14">
         <v>100100100100100</v>
@@ -1169,10 +1169,10 @@
         <v>110002</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="6">
         <f t="shared" ref="C14:C30" si="0">C8+100</f>
@@ -1191,7 +1191,7 @@
         <v>102</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I14" s="14">
         <v>100100100100100</v>
@@ -1203,10 +1203,10 @@
         <v>110002</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="6">
         <f t="shared" si="0"/>
@@ -1225,7 +1225,7 @@
         <v>103</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I15" s="14">
         <v>100100100100100</v>
@@ -1237,10 +1237,10 @@
         <v>110002</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="9"/>
       <c r="C16" s="6">
         <f t="shared" si="0"/>
@@ -1259,7 +1259,7 @@
         <v>201</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I16" s="14">
         <v>100100100100100</v>
@@ -1271,10 +1271,10 @@
         <v>110002</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="9"/>
       <c r="C17" s="6">
         <f t="shared" si="0"/>
@@ -1293,7 +1293,7 @@
         <v>202</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I17" s="14">
         <v>100100100100100</v>
@@ -1305,10 +1305,10 @@
         <v>110002</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="9"/>
       <c r="C18" s="6">
         <f t="shared" si="0"/>
@@ -1327,7 +1327,7 @@
         <v>203</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I18" s="14">
         <v>100100100100100</v>
@@ -1339,10 +1339,10 @@
         <v>110002</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="9"/>
       <c r="C19" s="6">
         <f t="shared" si="0"/>
@@ -1361,7 +1361,7 @@
         <v>101</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I19" s="14">
         <v>150150150150150</v>
@@ -1373,10 +1373,10 @@
         <v>110003</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="9"/>
       <c r="C20" s="6">
         <f t="shared" si="0"/>
@@ -1395,7 +1395,7 @@
         <v>102</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="I20" s="14">
         <v>150150150150150</v>
@@ -1407,10 +1407,10 @@
         <v>110003</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="9"/>
       <c r="C21" s="6">
         <f t="shared" si="0"/>
@@ -1429,7 +1429,7 @@
         <v>103</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I21" s="14">
         <v>150150150150150</v>
@@ -1441,10 +1441,10 @@
         <v>110003</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="9"/>
       <c r="C22" s="6">
         <f t="shared" si="0"/>
@@ -1463,7 +1463,7 @@
         <v>201</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I22" s="14">
         <v>150150150150150</v>
@@ -1475,10 +1475,10 @@
         <v>110003</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="6">
         <f t="shared" si="0"/>
@@ -1497,7 +1497,7 @@
         <v>202</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="I23" s="14">
         <v>150150150150150</v>
@@ -1509,10 +1509,10 @@
         <v>110003</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="9"/>
       <c r="C24" s="6">
         <f t="shared" si="0"/>
@@ -1531,7 +1531,7 @@
         <v>203</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I24" s="14">
         <v>150150150150150</v>
@@ -1543,10 +1543,10 @@
         <v>110003</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="9"/>
       <c r="C25" s="6">
         <f t="shared" si="0"/>
@@ -1565,7 +1565,7 @@
         <v>101</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I25" s="14">
         <v>200200200200200</v>
@@ -1577,10 +1577,10 @@
         <v>110004</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B26" s="9"/>
       <c r="C26" s="6">
         <f t="shared" si="0"/>
@@ -1599,7 +1599,7 @@
         <v>102</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="I26" s="14">
         <v>200200200200200</v>
@@ -1611,10 +1611,10 @@
         <v>110004</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="9"/>
       <c r="C27" s="6">
         <f t="shared" si="0"/>
@@ -1633,7 +1633,7 @@
         <v>103</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I27" s="14">
         <v>200200200200200</v>
@@ -1645,10 +1645,10 @@
         <v>110004</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B28" s="9"/>
       <c r="C28" s="6">
         <f t="shared" si="0"/>
@@ -1667,7 +1667,7 @@
         <v>201</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I28" s="14">
         <v>200200200200200</v>
@@ -1679,10 +1679,10 @@
         <v>110004</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B29" s="9"/>
       <c r="C29" s="6">
         <f t="shared" si="0"/>
@@ -1701,7 +1701,7 @@
         <v>202</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I29" s="14">
         <v>200200200200200</v>
@@ -1713,10 +1713,10 @@
         <v>110004</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B30" s="9"/>
       <c r="C30" s="6">
         <f t="shared" si="0"/>
@@ -1735,7 +1735,7 @@
         <v>203</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I30" s="14">
         <v>200200200200200</v>
@@ -1747,10 +1747,10 @@
         <v>110004</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B31" s="9"/>
       <c r="C31" s="6">
         <v>3001</v>
@@ -1768,7 +1768,7 @@
         <v>101</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>23</v>
@@ -1781,7 +1781,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B32" s="9"/>
       <c r="C32" s="6">
         <v>3002</v>
@@ -1799,7 +1799,7 @@
         <v>102</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>23</v>
@@ -1812,7 +1812,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B33" s="9"/>
       <c r="C33" s="6">
         <v>3003</v>
@@ -1830,7 +1830,7 @@
         <v>103</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>23</v>
@@ -1843,7 +1843,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B34" s="9"/>
       <c r="C34" s="6">
         <v>3004</v>
@@ -1861,7 +1861,7 @@
         <v>201</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>23</v>
@@ -1874,7 +1874,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B35" s="9"/>
       <c r="C35" s="6">
         <v>3005</v>
@@ -1892,7 +1892,7 @@
         <v>202</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>23</v>
@@ -1905,7 +1905,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B36" s="9"/>
       <c r="C36" s="6">
         <v>3006</v>
@@ -1923,7 +1923,7 @@
         <v>203</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>23</v>
@@ -1936,7 +1936,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B37" s="9"/>
       <c r="C37" s="6">
         <v>3051</v>
@@ -1954,7 +1954,7 @@
         <v>101</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I37" s="14">
         <v>100100100100100</v>
@@ -1967,7 +1967,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B38" s="9"/>
       <c r="C38" s="6">
         <v>3052</v>
@@ -1985,7 +1985,7 @@
         <v>102</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I38" s="14">
         <v>100100100100100</v>
@@ -1998,7 +1998,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B39" s="9"/>
       <c r="C39" s="6">
         <v>3053</v>
@@ -2016,7 +2016,7 @@
         <v>103</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I39" s="14">
         <v>100100100100100</v>
@@ -2029,7 +2029,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B40" s="9"/>
       <c r="C40" s="6">
         <v>3054</v>
@@ -2047,7 +2047,7 @@
         <v>201</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I40" s="14">
         <v>100100100100100</v>
@@ -2060,7 +2060,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B41" s="9"/>
       <c r="C41" s="6">
         <v>3055</v>
@@ -2078,7 +2078,7 @@
         <v>202</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I41" s="14">
         <v>100100100100100</v>
@@ -2091,7 +2091,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B42" s="9"/>
       <c r="C42" s="6">
         <v>3056</v>
@@ -2109,7 +2109,7 @@
         <v>203</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I42" s="14">
         <v>100100100100100</v>
@@ -2122,7 +2122,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B43" s="9"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -2132,7 +2132,7 @@
       <c r="H43" s="6"/>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B44" s="9"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -2142,7 +2142,7 @@
       <c r="H44" s="6"/>
       <c r="J44" s="6"/>
     </row>
-    <row r="45" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B45" s="9"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -2157,7 +2157,7 @@
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
     </row>
-    <row r="46" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B46" s="9"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -2172,7 +2172,7 @@
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
     </row>
-    <row r="47" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B47" s="9"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -2187,7 +2187,7 @@
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
     </row>
-    <row r="48" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -2201,7 +2201,7 @@
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
     </row>
-    <row r="49" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -2215,7 +2215,7 @@
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
     </row>
-    <row r="50" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -2229,7 +2229,7 @@
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
     </row>
-    <row r="51" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -2243,7 +2243,7 @@
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
     </row>
-    <row r="52" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -2257,7 +2257,7 @@
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
     </row>
-    <row r="53" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -2271,7 +2271,7 @@
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
     </row>
-    <row r="54" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -2285,7 +2285,7 @@
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
     </row>
-    <row r="55" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -2299,7 +2299,7 @@
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
     </row>
-    <row r="56" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -2313,7 +2313,7 @@
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
     </row>
-    <row r="57" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -2327,7 +2327,7 @@
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
     </row>
-    <row r="58" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -2341,7 +2341,7 @@
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
     </row>
-    <row r="59" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -2355,16 +2355,16 @@
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
     </row>
-    <row r="60" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" spans="3:14" ht="20.100000000000001" customHeight="1"/>
+    <row r="61" spans="3:14" ht="20.100000000000001" customHeight="1"/>
+    <row r="62" spans="3:14" ht="20.100000000000001" customHeight="1"/>
+    <row r="63" spans="3:14" ht="20.100000000000001" customHeight="1"/>
+    <row r="64" spans="3:14" ht="20.100000000000001" customHeight="1"/>
+    <row r="65" ht="20.100000000000001" customHeight="1"/>
+    <row r="66" ht="20.100000000000001" customHeight="1"/>
+    <row r="67" ht="20.100000000000001" customHeight="1"/>
+    <row r="68" ht="20.100000000000001" customHeight="1"/>
+    <row r="69" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/RobotConfig.xlsx
+++ b/Excel/RobotConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{906DFB59-9014-4ADA-A9EC-CBAFD101D60F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B505EA76-3C36-49D1-BC71-24D691E90427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -760,7 +760,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E40" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>

--- a/Excel/RobotConfig.xlsx
+++ b/Excel/RobotConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B505EA76-3C36-49D1-BC71-24D691E90427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301D8A8E-C7A1-4904-9A0D-00EE3882764D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RobotConfig" sheetId="6" r:id="rId1"/>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="55">
   <si>
     <t>cs</t>
   </si>
@@ -286,47 +286,71 @@
     <t>72.48;0;0.34;1</t>
   </si>
   <si>
-    <t>15201004,15202004,15203004,15203004,15204004,15205004,15206002,15207002,15208002,15209002,15210104,15211004</t>
-  </si>
-  <si>
     <t>15201006,15202006,15203006,15203006,15204006,15205006,15206002,15207002,15208002,15209002,15210102,15211006</t>
   </si>
   <si>
     <t>15201002,15202002,15203002,15203002,15204002,15205002,15206002,15207002,15208002,15209002,15210102,15211002</t>
   </si>
   <si>
-    <t>15301004,15302004,15303004,15303004,15304004,15305004,15306002,15307002,15308002,15309002,15310104,15311004</t>
-  </si>
-  <si>
     <t>15301006,15302006,15303006,15303006,15304006,15305006,15306002,15307002,15308002,15309002,15310102,15311006</t>
   </si>
   <si>
     <t>15301002,15302002,15303002,15303002,15304002,15305002,15306002,15307002,15308002,15309002,15310102,15311002</t>
   </si>
   <si>
-    <t>15401004,15402004,15403004,15403004,15404004,15405004,15406002,15407002,15408002,15409002,15410104,15411004</t>
-  </si>
-  <si>
     <t>15401006,15402006,15403006,15403006,15404006,15405006,15406002,15407002,15408002,15409002,15410102,15411006</t>
   </si>
   <si>
     <t>15401002,15402002,15403002,15403002,15404002,15405002,15406002,15407002,15408002,15409002,15410102,15411002</t>
   </si>
   <si>
-    <t>15501004,15502004,15503004,15503004,15504004,15505004,15506002,15507002,15508002,15509002,15510104,15511004</t>
-  </si>
-  <si>
     <t>15501006,15502006,15503006,15503006,15504006,15505006,15506002,15507002,15508002,15509002,15510102,15511006</t>
   </si>
   <si>
     <t>15501002,15502002,15503002,15503002,15504002,15505002,15506002,15507002,15508002,15509002,15510102,15511002</t>
+  </si>
+  <si>
+    <t>15201004,15202004,15203004,15203004,15204004,15205004,15206002,15207002,15208002,15209002,152101004,15211004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15201004,15202004,15203004,15203004,15204004,15205004,15206002,15207002,15208002,15209002,15210004,15211004</t>
+  </si>
+  <si>
+    <t>15201004,15202004,15203004,15203004,15204004,15205004,15206002,15207002,15208002,15209002,15210004,15211004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15201006,15202006,15203006,15203006,15204006,15205006,15206002,15207002,15208002,15209002,15210002,15211006</t>
+  </si>
+  <si>
+    <t>15201006,15202006,15203006,15203006,15204006,15205006,15206002,15207002,15208002,15209002,15210002,15211006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15301004,15302004,15303004,15303004,15304004,15305004,15306002,15307002,15308002,15309002,15310004,15311004</t>
+  </si>
+  <si>
+    <t>15301006,15302006,15303006,15303006,15304006,15305006,15306002,15307002,15308002,15309002,15310002,15311006</t>
+  </si>
+  <si>
+    <t>15401004,15402004,15403004,15403004,15404004,15405004,15406002,15407002,15408002,15409002,15410004,15411004</t>
+  </si>
+  <si>
+    <t>15401006,15402006,15403006,15403006,15404006,15405006,15406002,15407002,15408002,15409002,15410002,15411006</t>
+  </si>
+  <si>
+    <t>15501004,15502004,15503004,15503004,15504004,15505004,15506002,15507002,15508002,15509002,15510004,15511004</t>
+  </si>
+  <si>
+    <t>15501006,15502006,15503006,15503006,15504006,15505006,15506002,15507002,15508002,15509002,15510002,15511006</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -760,11 +784,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="9.625" style="1" customWidth="1"/>
@@ -779,7 +803,7 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -795,7 +819,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -811,7 +835,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="8" t="s">
@@ -845,7 +869,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="8" t="s">
@@ -879,7 +903,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="8" t="s">
@@ -913,7 +937,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="6">
         <v>1001</v>
@@ -940,7 +964,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="6">
         <v>2101</v>
@@ -958,7 +982,7 @@
         <v>101</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>23</v>
@@ -973,7 +997,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="6">
         <v>2102</v>
@@ -991,7 +1015,7 @@
         <v>102</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>23</v>
@@ -1006,7 +1030,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="6">
         <v>2103</v>
@@ -1024,7 +1048,7 @@
         <v>103</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>23</v>
@@ -1039,7 +1063,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="6">
         <v>2104</v>
@@ -1057,7 +1081,7 @@
         <v>201</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>23</v>
@@ -1072,7 +1096,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9"/>
       <c r="C11" s="6">
         <v>2105</v>
@@ -1090,7 +1114,7 @@
         <v>202</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I11" s="6" t="s">
         <v>23</v>
@@ -1105,7 +1129,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9"/>
       <c r="C12" s="6">
         <v>2106</v>
@@ -1123,7 +1147,7 @@
         <v>203</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>23</v>
@@ -1138,7 +1162,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9"/>
       <c r="C13" s="6">
         <f>C7+100</f>
@@ -1157,7 +1181,7 @@
         <v>101</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I13" s="14">
         <v>100100100100100</v>
@@ -1172,7 +1196,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="9"/>
       <c r="C14" s="6">
         <f t="shared" ref="C14:C30" si="0">C8+100</f>
@@ -1191,7 +1215,7 @@
         <v>102</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I14" s="14">
         <v>100100100100100</v>
@@ -1206,7 +1230,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="9"/>
       <c r="C15" s="6">
         <f t="shared" si="0"/>
@@ -1225,7 +1249,7 @@
         <v>103</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I15" s="14">
         <v>100100100100100</v>
@@ -1240,7 +1264,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="9"/>
       <c r="C16" s="6">
         <f t="shared" si="0"/>
@@ -1259,7 +1283,7 @@
         <v>201</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I16" s="14">
         <v>100100100100100</v>
@@ -1274,7 +1298,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9"/>
       <c r="C17" s="6">
         <f t="shared" si="0"/>
@@ -1293,7 +1317,7 @@
         <v>202</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I17" s="14">
         <v>100100100100100</v>
@@ -1308,7 +1332,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="9"/>
       <c r="C18" s="6">
         <f t="shared" si="0"/>
@@ -1327,7 +1351,7 @@
         <v>203</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I18" s="14">
         <v>100100100100100</v>
@@ -1342,7 +1366,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="9"/>
       <c r="C19" s="6">
         <f t="shared" si="0"/>
@@ -1361,7 +1385,7 @@
         <v>101</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I19" s="14">
         <v>150150150150150</v>
@@ -1376,7 +1400,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="9"/>
       <c r="C20" s="6">
         <f t="shared" si="0"/>
@@ -1395,7 +1419,7 @@
         <v>102</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I20" s="14">
         <v>150150150150150</v>
@@ -1410,7 +1434,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="9"/>
       <c r="C21" s="6">
         <f t="shared" si="0"/>
@@ -1429,7 +1453,7 @@
         <v>103</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I21" s="14">
         <v>150150150150150</v>
@@ -1444,7 +1468,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="9"/>
       <c r="C22" s="6">
         <f t="shared" si="0"/>
@@ -1463,7 +1487,7 @@
         <v>201</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I22" s="14">
         <v>150150150150150</v>
@@ -1478,7 +1502,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="9"/>
       <c r="C23" s="6">
         <f t="shared" si="0"/>
@@ -1497,7 +1521,7 @@
         <v>202</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I23" s="14">
         <v>150150150150150</v>
@@ -1512,7 +1536,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="9"/>
       <c r="C24" s="6">
         <f t="shared" si="0"/>
@@ -1531,7 +1555,7 @@
         <v>203</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="I24" s="14">
         <v>150150150150150</v>
@@ -1546,7 +1570,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="9"/>
       <c r="C25" s="6">
         <f t="shared" si="0"/>
@@ -1565,7 +1589,7 @@
         <v>101</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I25" s="14">
         <v>200200200200200</v>
@@ -1580,7 +1604,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="9"/>
       <c r="C26" s="6">
         <f t="shared" si="0"/>
@@ -1599,7 +1623,7 @@
         <v>102</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I26" s="14">
         <v>200200200200200</v>
@@ -1614,7 +1638,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="9"/>
       <c r="C27" s="6">
         <f t="shared" si="0"/>
@@ -1633,7 +1657,7 @@
         <v>103</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I27" s="14">
         <v>200200200200200</v>
@@ -1648,7 +1672,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="9"/>
       <c r="C28" s="6">
         <f t="shared" si="0"/>
@@ -1667,7 +1691,7 @@
         <v>201</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I28" s="14">
         <v>200200200200200</v>
@@ -1682,7 +1706,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="9"/>
       <c r="C29" s="6">
         <f t="shared" si="0"/>
@@ -1701,7 +1725,7 @@
         <v>202</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I29" s="14">
         <v>200200200200200</v>
@@ -1716,7 +1740,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="9"/>
       <c r="C30" s="6">
         <f t="shared" si="0"/>
@@ -1735,7 +1759,7 @@
         <v>203</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="I30" s="14">
         <v>200200200200200</v>
@@ -1750,7 +1774,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="9"/>
       <c r="C31" s="6">
         <v>3001</v>
@@ -1768,7 +1792,7 @@
         <v>101</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>23</v>
@@ -1781,7 +1805,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="9"/>
       <c r="C32" s="6">
         <v>3002</v>
@@ -1799,7 +1823,7 @@
         <v>102</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>23</v>
@@ -1812,7 +1836,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="9"/>
       <c r="C33" s="6">
         <v>3003</v>
@@ -1830,7 +1854,7 @@
         <v>103</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>23</v>
@@ -1843,7 +1867,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="9"/>
       <c r="C34" s="6">
         <v>3004</v>
@@ -1861,7 +1885,7 @@
         <v>201</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>23</v>
@@ -1874,7 +1898,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="9"/>
       <c r="C35" s="6">
         <v>3005</v>
@@ -1892,7 +1916,7 @@
         <v>202</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>23</v>
@@ -1905,7 +1929,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="9"/>
       <c r="C36" s="6">
         <v>3006</v>
@@ -1923,7 +1947,7 @@
         <v>203</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>23</v>
@@ -1936,7 +1960,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="9"/>
       <c r="C37" s="6">
         <v>3051</v>
@@ -1954,7 +1978,7 @@
         <v>101</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I37" s="14">
         <v>100100100100100</v>
@@ -1967,7 +1991,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="9"/>
       <c r="C38" s="6">
         <v>3052</v>
@@ -1985,7 +2009,7 @@
         <v>102</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="I38" s="14">
         <v>100100100100100</v>
@@ -1998,7 +2022,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="9"/>
       <c r="C39" s="6">
         <v>3053</v>
@@ -2016,7 +2040,7 @@
         <v>103</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I39" s="14">
         <v>100100100100100</v>
@@ -2029,7 +2053,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="9"/>
       <c r="C40" s="6">
         <v>3054</v>
@@ -2047,7 +2071,7 @@
         <v>201</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I40" s="14">
         <v>100100100100100</v>
@@ -2060,7 +2084,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="9"/>
       <c r="C41" s="6">
         <v>3055</v>
@@ -2078,7 +2102,7 @@
         <v>202</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I41" s="14">
         <v>100100100100100</v>
@@ -2091,7 +2115,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="9"/>
       <c r="C42" s="6">
         <v>3056</v>
@@ -2109,7 +2133,7 @@
         <v>203</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I42" s="14">
         <v>100100100100100</v>
@@ -2122,7 +2146,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="9"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -2132,7 +2156,7 @@
       <c r="H43" s="6"/>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="9"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -2142,7 +2166,7 @@
       <c r="H44" s="6"/>
       <c r="J44" s="6"/>
     </row>
-    <row r="45" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="9"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -2157,7 +2181,7 @@
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
     </row>
-    <row r="46" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="9"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -2172,7 +2196,7 @@
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
     </row>
-    <row r="47" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="9"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -2187,7 +2211,7 @@
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
     </row>
-    <row r="48" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -2201,7 +2225,7 @@
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
     </row>
-    <row r="49" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="49" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -2215,7 +2239,7 @@
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
     </row>
-    <row r="50" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="50" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -2229,7 +2253,7 @@
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
     </row>
-    <row r="51" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -2243,7 +2267,7 @@
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
     </row>
-    <row r="52" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="52" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -2257,7 +2281,7 @@
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
     </row>
-    <row r="53" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="53" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -2271,7 +2295,7 @@
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
     </row>
-    <row r="54" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="54" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -2285,7 +2309,7 @@
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
     </row>
-    <row r="55" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="55" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -2299,7 +2323,7 @@
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
     </row>
-    <row r="56" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="56" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -2313,7 +2337,7 @@
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
     </row>
-    <row r="57" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="57" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -2327,7 +2351,7 @@
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
     </row>
-    <row r="58" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="58" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -2341,7 +2365,7 @@
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
     </row>
-    <row r="59" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="59" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -2355,16 +2379,16 @@
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
     </row>
-    <row r="60" spans="3:14" ht="20.100000000000001" customHeight="1"/>
-    <row r="61" spans="3:14" ht="20.100000000000001" customHeight="1"/>
-    <row r="62" spans="3:14" ht="20.100000000000001" customHeight="1"/>
-    <row r="63" spans="3:14" ht="20.100000000000001" customHeight="1"/>
-    <row r="64" spans="3:14" ht="20.100000000000001" customHeight="1"/>
-    <row r="65" ht="20.100000000000001" customHeight="1"/>
-    <row r="66" ht="20.100000000000001" customHeight="1"/>
-    <row r="67" ht="20.100000000000001" customHeight="1"/>
-    <row r="68" ht="20.100000000000001" customHeight="1"/>
-    <row r="69" ht="20.100000000000001" customHeight="1"/>
+    <row r="60" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/RobotConfig.xlsx
+++ b/Excel/RobotConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301D8A8E-C7A1-4904-9A0D-00EE3882764D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5743FA97-63F1-4649-9A7F-D52734DE6293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RobotConfig" sheetId="6" r:id="rId1"/>
@@ -350,7 +350,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -784,11 +784,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="9.625" style="1" customWidth="1"/>
@@ -803,7 +803,7 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -819,7 +819,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -835,7 +835,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="8" t="s">
@@ -869,7 +869,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="8" t="s">
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="8" t="s">
@@ -937,7 +937,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="9"/>
       <c r="C6" s="6">
         <v>1001</v>
@@ -964,7 +964,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="9"/>
       <c r="C7" s="6">
         <v>2101</v>
@@ -997,7 +997,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="9"/>
       <c r="C8" s="6">
         <v>2102</v>
@@ -1030,7 +1030,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="9"/>
       <c r="C9" s="6">
         <v>2103</v>
@@ -1063,7 +1063,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="9"/>
       <c r="C10" s="6">
         <v>2104</v>
@@ -1096,7 +1096,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="9"/>
       <c r="C11" s="6">
         <v>2105</v>
@@ -1129,7 +1129,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="9"/>
       <c r="C12" s="6">
         <v>2106</v>
@@ -1162,14 +1162,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="9"/>
       <c r="C13" s="6">
         <f>C7+100</f>
         <v>2201</v>
       </c>
       <c r="D13" s="6">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>18</v>
@@ -1196,14 +1196,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="6">
         <f t="shared" ref="C14:C30" si="0">C8+100</f>
         <v>2202</v>
       </c>
       <c r="D14" s="6">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>18</v>
@@ -1230,14 +1230,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="6">
         <f t="shared" si="0"/>
         <v>2203</v>
       </c>
       <c r="D15" s="6">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>18</v>
@@ -1264,14 +1264,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="9"/>
       <c r="C16" s="6">
         <f t="shared" si="0"/>
         <v>2204</v>
       </c>
       <c r="D16" s="6">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>18</v>
@@ -1298,14 +1298,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="9"/>
       <c r="C17" s="6">
         <f t="shared" si="0"/>
         <v>2205</v>
       </c>
       <c r="D17" s="6">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>18</v>
@@ -1332,14 +1332,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="9"/>
       <c r="C18" s="6">
         <f t="shared" si="0"/>
         <v>2206</v>
       </c>
       <c r="D18" s="6">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>18</v>
@@ -1366,14 +1366,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="9"/>
       <c r="C19" s="6">
         <f t="shared" si="0"/>
         <v>2301</v>
       </c>
       <c r="D19" s="6">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>18</v>
@@ -1400,14 +1400,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="9"/>
       <c r="C20" s="6">
         <f t="shared" si="0"/>
         <v>2302</v>
       </c>
       <c r="D20" s="6">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>18</v>
@@ -1434,14 +1434,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="9"/>
       <c r="C21" s="6">
         <f t="shared" si="0"/>
         <v>2303</v>
       </c>
       <c r="D21" s="6">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>18</v>
@@ -1468,14 +1468,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="9"/>
       <c r="C22" s="6">
         <f t="shared" si="0"/>
         <v>2304</v>
       </c>
       <c r="D22" s="6">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>18</v>
@@ -1502,14 +1502,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="6">
         <f t="shared" si="0"/>
         <v>2305</v>
       </c>
       <c r="D23" s="6">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>18</v>
@@ -1536,14 +1536,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="9"/>
       <c r="C24" s="6">
         <f t="shared" si="0"/>
         <v>2306</v>
       </c>
       <c r="D24" s="6">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>18</v>
@@ -1570,14 +1570,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="9"/>
       <c r="C25" s="6">
         <f t="shared" si="0"/>
         <v>2401</v>
       </c>
       <c r="D25" s="6">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>18</v>
@@ -1604,14 +1604,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B26" s="9"/>
       <c r="C26" s="6">
         <f t="shared" si="0"/>
         <v>2402</v>
       </c>
       <c r="D26" s="6">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>18</v>
@@ -1638,14 +1638,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="9"/>
       <c r="C27" s="6">
         <f t="shared" si="0"/>
         <v>2403</v>
       </c>
       <c r="D27" s="6">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>18</v>
@@ -1672,14 +1672,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B28" s="9"/>
       <c r="C28" s="6">
         <f t="shared" si="0"/>
         <v>2404</v>
       </c>
       <c r="D28" s="6">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>18</v>
@@ -1706,14 +1706,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B29" s="9"/>
       <c r="C29" s="6">
         <f t="shared" si="0"/>
         <v>2405</v>
       </c>
       <c r="D29" s="6">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>18</v>
@@ -1740,14 +1740,14 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B30" s="9"/>
       <c r="C30" s="6">
         <f t="shared" si="0"/>
         <v>2406</v>
       </c>
       <c r="D30" s="6">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>18</v>
@@ -1774,7 +1774,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B31" s="9"/>
       <c r="C31" s="6">
         <v>3001</v>
@@ -1805,7 +1805,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B32" s="9"/>
       <c r="C32" s="6">
         <v>3002</v>
@@ -1836,7 +1836,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B33" s="9"/>
       <c r="C33" s="6">
         <v>3003</v>
@@ -1867,7 +1867,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B34" s="9"/>
       <c r="C34" s="6">
         <v>3004</v>
@@ -1898,7 +1898,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B35" s="9"/>
       <c r="C35" s="6">
         <v>3005</v>
@@ -1929,7 +1929,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B36" s="9"/>
       <c r="C36" s="6">
         <v>3006</v>
@@ -1960,7 +1960,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B37" s="9"/>
       <c r="C37" s="6">
         <v>3051</v>
@@ -1991,7 +1991,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B38" s="9"/>
       <c r="C38" s="6">
         <v>3052</v>
@@ -2022,7 +2022,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B39" s="9"/>
       <c r="C39" s="6">
         <v>3053</v>
@@ -2053,7 +2053,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B40" s="9"/>
       <c r="C40" s="6">
         <v>3054</v>
@@ -2084,7 +2084,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B41" s="9"/>
       <c r="C41" s="6">
         <v>3055</v>
@@ -2115,7 +2115,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B42" s="9"/>
       <c r="C42" s="6">
         <v>3056</v>
@@ -2146,7 +2146,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B43" s="9"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -2156,7 +2156,7 @@
       <c r="H43" s="6"/>
       <c r="J43" s="6"/>
     </row>
-    <row r="44" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B44" s="9"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -2166,7 +2166,7 @@
       <c r="H44" s="6"/>
       <c r="J44" s="6"/>
     </row>
-    <row r="45" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B45" s="9"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
@@ -2181,7 +2181,7 @@
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
     </row>
-    <row r="46" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B46" s="9"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
@@ -2196,7 +2196,7 @@
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
     </row>
-    <row r="47" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B47" s="9"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
@@ -2211,7 +2211,7 @@
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
     </row>
-    <row r="48" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -2225,7 +2225,7 @@
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
     </row>
-    <row r="49" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -2239,7 +2239,7 @@
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
     </row>
-    <row r="50" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -2253,7 +2253,7 @@
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
     </row>
-    <row r="51" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -2267,7 +2267,7 @@
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
     </row>
-    <row r="52" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -2281,7 +2281,7 @@
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
     </row>
-    <row r="53" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -2295,7 +2295,7 @@
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
     </row>
-    <row r="54" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -2309,7 +2309,7 @@
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
     </row>
-    <row r="55" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -2323,7 +2323,7 @@
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
     </row>
-    <row r="56" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -2337,7 +2337,7 @@
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
     </row>
-    <row r="57" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -2351,7 +2351,7 @@
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
     </row>
-    <row r="58" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -2365,7 +2365,7 @@
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
     </row>
-    <row r="59" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -2379,16 +2379,16 @@
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
     </row>
-    <row r="60" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" spans="3:14" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" spans="3:14" ht="20.100000000000001" customHeight="1"/>
+    <row r="61" spans="3:14" ht="20.100000000000001" customHeight="1"/>
+    <row r="62" spans="3:14" ht="20.100000000000001" customHeight="1"/>
+    <row r="63" spans="3:14" ht="20.100000000000001" customHeight="1"/>
+    <row r="64" spans="3:14" ht="20.100000000000001" customHeight="1"/>
+    <row r="65" ht="20.100000000000001" customHeight="1"/>
+    <row r="66" ht="20.100000000000001" customHeight="1"/>
+    <row r="67" ht="20.100000000000001" customHeight="1"/>
+    <row r="68" ht="20.100000000000001" customHeight="1"/>
+    <row r="69" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/RobotConfig.xlsx
+++ b/Excel/RobotConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5743FA97-63F1-4649-9A7F-D52734DE6293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA99892-E162-47B5-8ED7-1C476DE2782A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -146,7 +146,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="56">
   <si>
     <t>cs</t>
   </si>
@@ -310,10 +310,6 @@
     <t>15501002,15502002,15503002,15503002,15504002,15505002,15506002,15507002,15508002,15509002,15510102,15511002</t>
   </si>
   <si>
-    <t>15201004,15202004,15203004,15203004,15204004,15205004,15206002,15207002,15208002,15209002,152101004,15211004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>15201004,15202004,15203004,15203004,15204004,15205004,15206002,15207002,15208002,15209002,15210004,15211004</t>
   </si>
   <si>
@@ -344,6 +340,14 @@
   </si>
   <si>
     <t>15501006,15502006,15503006,15503006,15504006,15505006,15506002,15507002,15508002,15509002,15510002,15511006</t>
+  </si>
+  <si>
+    <t>15201006,15202006,15203006,15203006,15204006,15205006,15206002,15207002,15208002,15209002,15210102,15211006</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15201004,15202004,15203004,15203004,15204004,15205004,15206002,15207002,15208002,15209002,15211004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -784,8 +788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -982,7 +986,7 @@
         <v>101</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>23</v>
@@ -1015,7 +1019,7 @@
         <v>102</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>23</v>
@@ -1048,7 +1052,7 @@
         <v>103</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>23</v>
@@ -1147,7 +1151,7 @@
         <v>203</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="I12" s="6" t="s">
         <v>23</v>
@@ -1181,7 +1185,7 @@
         <v>101</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I13" s="14">
         <v>100100100100100</v>
@@ -1215,7 +1219,7 @@
         <v>102</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I14" s="14">
         <v>100100100100100</v>
@@ -1249,7 +1253,7 @@
         <v>103</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="14">
         <v>100100100100100</v>
@@ -1385,7 +1389,7 @@
         <v>101</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I19" s="14">
         <v>150150150150150</v>
@@ -1419,7 +1423,7 @@
         <v>102</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I20" s="14">
         <v>150150150150150</v>
@@ -1453,7 +1457,7 @@
         <v>103</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I21" s="14">
         <v>150150150150150</v>
@@ -1589,7 +1593,7 @@
         <v>101</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I25" s="14">
         <v>200200200200200</v>
@@ -1623,7 +1627,7 @@
         <v>102</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I26" s="14">
         <v>200200200200200</v>
@@ -1657,7 +1661,7 @@
         <v>103</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I27" s="14">
         <v>200200200200200</v>
@@ -1792,7 +1796,7 @@
         <v>101</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>23</v>
@@ -1823,7 +1827,7 @@
         <v>102</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>23</v>
@@ -1854,7 +1858,7 @@
         <v>103</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>23</v>
@@ -1978,7 +1982,7 @@
         <v>101</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I37" s="14">
         <v>100100100100100</v>
@@ -2009,7 +2013,7 @@
         <v>102</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I38" s="14">
         <v>100100100100100</v>
@@ -2040,7 +2044,7 @@
         <v>103</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I39" s="14">
         <v>100100100100100</v>

--- a/Excel/RobotConfig.xlsx
+++ b/Excel/RobotConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BA99892-E162-47B5-8ED7-1C476DE2782A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBB9C7F-946E-46D9-B0C4-4B4CB78D0D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,7 +85,8 @@
           <t xml:space="preserve">
 1   任务机器人
 2   组队副本机器人
-3   战场机器人</t>
+3   战场机器人
+4   世界boos机器人</t>
         </r>
       </text>
     </comment>
@@ -146,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="57">
   <si>
     <t>cs</t>
   </si>
@@ -347,6 +348,10 @@
   </si>
   <si>
     <t>15201004,15202004,15203004,15203004,15204004,15205004,15206002,15207002,15208002,15209002,15211004</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>世界boss机器人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -788,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2152,13 +2157,32 @@
     </row>
     <row r="43" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B43" s="9"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
-      <c r="J43" s="6"/>
+      <c r="C43" s="6">
+        <v>4001</v>
+      </c>
+      <c r="D43" s="6">
+        <v>30</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" s="6">
+        <v>2</v>
+      </c>
+      <c r="G43" s="6">
+        <v>203</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I43" s="14">
+        <v>100100100100100</v>
+      </c>
+      <c r="J43" s="6">
+        <v>4</v>
+      </c>
+      <c r="K43" s="6"/>
+      <c r="L43" s="4"/>
     </row>
     <row r="44" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B44" s="9"/>

--- a/Excel/RobotConfig.xlsx
+++ b/Excel/RobotConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF89E46-0D7B-4BF2-A406-23011B27E3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671848DB-FE12-49CC-8AEE-85A3BAF21448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="57">
   <si>
     <t>cs</t>
   </si>
@@ -351,7 +351,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>世界boss机器人</t>
+    <t>世界BOSS机器人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -791,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L69"/>
+  <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2158,57 +2158,59 @@
     <row r="43" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="9"/>
       <c r="C43" s="6">
-        <v>4001</v>
+        <v>5101</v>
       </c>
       <c r="D43" s="6">
-        <v>30</v>
-      </c>
-      <c r="E43" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>56</v>
       </c>
       <c r="F43" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G43" s="6">
-        <v>203</v>
+        <v>101</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="13">
-        <v>100100100100100</v>
+        <v>55</v>
+      </c>
+      <c r="I43" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="J43" s="6">
         <v>4</v>
       </c>
-      <c r="K43" s="6"/>
-      <c r="L43" s="4"/>
+      <c r="K43" s="14">
+        <v>72000002</v>
+      </c>
+      <c r="L43" s="3"/>
     </row>
     <row r="44" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="9"/>
       <c r="C44" s="6">
-        <v>5101</v>
+        <v>5102</v>
       </c>
       <c r="D44" s="6">
         <v>20</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F44" s="6">
         <v>1</v>
       </c>
       <c r="G44" s="6">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="I44" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J44" s="10">
-        <v>2</v>
+      <c r="J44" s="6">
+        <v>4</v>
       </c>
       <c r="K44" s="14">
         <v>72000002</v>
@@ -2218,28 +2220,28 @@
     <row r="45" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="9"/>
       <c r="C45" s="6">
-        <v>5102</v>
+        <v>5103</v>
       </c>
       <c r="D45" s="6">
         <v>20</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F45" s="6">
         <v>1</v>
       </c>
       <c r="G45" s="6">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I45" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J45" s="10">
-        <v>2</v>
+      <c r="J45" s="6">
+        <v>4</v>
       </c>
       <c r="K45" s="14">
         <v>72000002</v>
@@ -2249,28 +2251,28 @@
     <row r="46" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="9"/>
       <c r="C46" s="6">
-        <v>5103</v>
+        <v>5104</v>
       </c>
       <c r="D46" s="6">
         <v>20</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F46" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G46" s="6">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="I46" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J46" s="10">
-        <v>2</v>
+      <c r="J46" s="6">
+        <v>4</v>
       </c>
       <c r="K46" s="14">
         <v>72000002</v>
@@ -2280,19 +2282,19 @@
     <row r="47" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="9"/>
       <c r="C47" s="6">
-        <v>5104</v>
+        <v>5105</v>
       </c>
       <c r="D47" s="6">
         <v>20</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F47" s="6">
         <v>2</v>
       </c>
       <c r="G47" s="6">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H47" s="12" t="s">
         <v>37</v>
@@ -2300,8 +2302,8 @@
       <c r="I47" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J47" s="10">
-        <v>2</v>
+      <c r="J47" s="6">
+        <v>4</v>
       </c>
       <c r="K47" s="14">
         <v>72000002</v>
@@ -2311,28 +2313,28 @@
     <row r="48" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="9"/>
       <c r="C48" s="6">
-        <v>5105</v>
+        <v>5106</v>
       </c>
       <c r="D48" s="6">
         <v>20</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F48" s="6">
         <v>2</v>
       </c>
       <c r="G48" s="6">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="I48" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J48" s="10">
-        <v>2</v>
+      <c r="J48" s="6">
+        <v>4</v>
       </c>
       <c r="K48" s="14">
         <v>72000002</v>
@@ -2342,50 +2344,50 @@
     <row r="49" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="9"/>
       <c r="C49" s="6">
-        <v>5106</v>
+        <v>5201</v>
       </c>
       <c r="D49" s="6">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F49" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49" s="6">
-        <v>203</v>
+        <v>101</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J49" s="10">
-        <v>2</v>
+        <v>48</v>
+      </c>
+      <c r="I49" s="13">
+        <v>100100100100100</v>
+      </c>
+      <c r="J49" s="6">
+        <v>4</v>
       </c>
       <c r="K49" s="14">
-        <v>72000002</v>
+        <v>72000003</v>
       </c>
       <c r="L49" s="3"/>
     </row>
     <row r="50" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="9"/>
       <c r="C50" s="6">
-        <v>5201</v>
+        <v>5202</v>
       </c>
       <c r="D50" s="6">
         <v>35</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F50" s="6">
         <v>1</v>
       </c>
       <c r="G50" s="6">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H50" s="12" t="s">
         <v>48</v>
@@ -2393,8 +2395,8 @@
       <c r="I50" s="13">
         <v>100100100100100</v>
       </c>
-      <c r="J50" s="10">
-        <v>2</v>
+      <c r="J50" s="6">
+        <v>4</v>
       </c>
       <c r="K50" s="14">
         <v>72000003</v>
@@ -2404,28 +2406,28 @@
     <row r="51" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="9"/>
       <c r="C51" s="6">
-        <v>5202</v>
+        <v>5203</v>
       </c>
       <c r="D51" s="6">
         <v>35</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F51" s="6">
         <v>1</v>
       </c>
       <c r="G51" s="6">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I51" s="13">
         <v>100100100100100</v>
       </c>
-      <c r="J51" s="10">
-        <v>2</v>
+      <c r="J51" s="6">
+        <v>4</v>
       </c>
       <c r="K51" s="14">
         <v>72000003</v>
@@ -2435,28 +2437,28 @@
     <row r="52" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="9"/>
       <c r="C52" s="6">
-        <v>5203</v>
+        <v>5204</v>
       </c>
       <c r="D52" s="6">
         <v>35</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F52" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G52" s="6">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="I52" s="13">
         <v>100100100100100</v>
       </c>
-      <c r="J52" s="10">
-        <v>2</v>
+      <c r="J52" s="6">
+        <v>4</v>
       </c>
       <c r="K52" s="14">
         <v>72000003</v>
@@ -2466,19 +2468,19 @@
     <row r="53" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="9"/>
       <c r="C53" s="6">
-        <v>5204</v>
+        <v>5205</v>
       </c>
       <c r="D53" s="6">
         <v>35</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F53" s="6">
         <v>2</v>
       </c>
       <c r="G53" s="6">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H53" s="12" t="s">
         <v>39</v>
@@ -2486,8 +2488,8 @@
       <c r="I53" s="13">
         <v>100100100100100</v>
       </c>
-      <c r="J53" s="10">
-        <v>2</v>
+      <c r="J53" s="6">
+        <v>4</v>
       </c>
       <c r="K53" s="14">
         <v>72000003</v>
@@ -2497,28 +2499,28 @@
     <row r="54" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="9"/>
       <c r="C54" s="6">
-        <v>5205</v>
+        <v>5206</v>
       </c>
       <c r="D54" s="6">
         <v>35</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F54" s="6">
         <v>2</v>
       </c>
       <c r="G54" s="6">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I54" s="13">
         <v>100100100100100</v>
       </c>
-      <c r="J54" s="10">
-        <v>2</v>
+      <c r="J54" s="6">
+        <v>4</v>
       </c>
       <c r="K54" s="14">
         <v>72000003</v>
@@ -2528,50 +2530,50 @@
     <row r="55" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="9"/>
       <c r="C55" s="6">
-        <v>5206</v>
+        <v>5301</v>
       </c>
       <c r="D55" s="6">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F55" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55" s="6">
-        <v>203</v>
+        <v>101</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I55" s="13">
-        <v>100100100100100</v>
-      </c>
-      <c r="J55" s="10">
-        <v>2</v>
+        <v>150150150150150</v>
+      </c>
+      <c r="J55" s="6">
+        <v>4</v>
       </c>
       <c r="K55" s="14">
-        <v>72000003</v>
+        <v>72000004</v>
       </c>
       <c r="L55" s="3"/>
     </row>
     <row r="56" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="9"/>
       <c r="C56" s="6">
-        <v>5301</v>
+        <v>5302</v>
       </c>
       <c r="D56" s="6">
         <v>45</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F56" s="6">
         <v>1</v>
       </c>
       <c r="G56" s="6">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H56" s="12" t="s">
         <v>50</v>
@@ -2579,8 +2581,8 @@
       <c r="I56" s="13">
         <v>150150150150150</v>
       </c>
-      <c r="J56" s="10">
-        <v>2</v>
+      <c r="J56" s="6">
+        <v>4</v>
       </c>
       <c r="K56" s="14">
         <v>72000004</v>
@@ -2590,28 +2592,28 @@
     <row r="57" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="9"/>
       <c r="C57" s="6">
-        <v>5302</v>
+        <v>5303</v>
       </c>
       <c r="D57" s="6">
         <v>45</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F57" s="6">
         <v>1</v>
       </c>
       <c r="G57" s="6">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I57" s="13">
         <v>150150150150150</v>
       </c>
-      <c r="J57" s="10">
-        <v>2</v>
+      <c r="J57" s="6">
+        <v>4</v>
       </c>
       <c r="K57" s="14">
         <v>72000004</v>
@@ -2621,28 +2623,28 @@
     <row r="58" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="9"/>
       <c r="C58" s="6">
-        <v>5303</v>
+        <v>5304</v>
       </c>
       <c r="D58" s="6">
         <v>45</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F58" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G58" s="6">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I58" s="13">
         <v>150150150150150</v>
       </c>
-      <c r="J58" s="10">
-        <v>2</v>
+      <c r="J58" s="6">
+        <v>4</v>
       </c>
       <c r="K58" s="14">
         <v>72000004</v>
@@ -2652,19 +2654,19 @@
     <row r="59" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="9"/>
       <c r="C59" s="6">
-        <v>5304</v>
+        <v>5305</v>
       </c>
       <c r="D59" s="6">
         <v>45</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F59" s="6">
         <v>2</v>
       </c>
       <c r="G59" s="6">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H59" s="12" t="s">
         <v>41</v>
@@ -2672,8 +2674,8 @@
       <c r="I59" s="13">
         <v>150150150150150</v>
       </c>
-      <c r="J59" s="10">
-        <v>2</v>
+      <c r="J59" s="6">
+        <v>4</v>
       </c>
       <c r="K59" s="14">
         <v>72000004</v>
@@ -2683,28 +2685,28 @@
     <row r="60" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="9"/>
       <c r="C60" s="6">
-        <v>5305</v>
+        <v>5306</v>
       </c>
       <c r="D60" s="6">
         <v>45</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F60" s="6">
         <v>2</v>
       </c>
       <c r="G60" s="6">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I60" s="13">
         <v>150150150150150</v>
       </c>
-      <c r="J60" s="10">
-        <v>2</v>
+      <c r="J60" s="6">
+        <v>4</v>
       </c>
       <c r="K60" s="14">
         <v>72000004</v>
@@ -2714,50 +2716,50 @@
     <row r="61" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="9"/>
       <c r="C61" s="6">
-        <v>5306</v>
+        <v>5401</v>
       </c>
       <c r="D61" s="6">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F61" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G61" s="6">
-        <v>203</v>
+        <v>101</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="I61" s="13">
-        <v>150150150150150</v>
-      </c>
-      <c r="J61" s="10">
-        <v>2</v>
+        <v>200200200200200</v>
+      </c>
+      <c r="J61" s="6">
+        <v>4</v>
       </c>
       <c r="K61" s="14">
-        <v>72000004</v>
+        <v>72000005</v>
       </c>
       <c r="L61" s="3"/>
     </row>
     <row r="62" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="9"/>
       <c r="C62" s="6">
-        <v>5401</v>
+        <v>5402</v>
       </c>
       <c r="D62" s="6">
         <v>55</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F62" s="6">
         <v>1</v>
       </c>
       <c r="G62" s="6">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H62" s="12" t="s">
         <v>52</v>
@@ -2765,8 +2767,8 @@
       <c r="I62" s="13">
         <v>200200200200200</v>
       </c>
-      <c r="J62" s="10">
-        <v>2</v>
+      <c r="J62" s="6">
+        <v>4</v>
       </c>
       <c r="K62" s="14">
         <v>72000005</v>
@@ -2776,28 +2778,28 @@
     <row r="63" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="9"/>
       <c r="C63" s="6">
-        <v>5402</v>
+        <v>5403</v>
       </c>
       <c r="D63" s="6">
         <v>55</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F63" s="6">
         <v>1</v>
       </c>
       <c r="G63" s="6">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I63" s="13">
         <v>200200200200200</v>
       </c>
-      <c r="J63" s="10">
-        <v>2</v>
+      <c r="J63" s="6">
+        <v>4</v>
       </c>
       <c r="K63" s="14">
         <v>72000005</v>
@@ -2807,28 +2809,28 @@
     <row r="64" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="9"/>
       <c r="C64" s="6">
-        <v>5403</v>
+        <v>5404</v>
       </c>
       <c r="D64" s="6">
         <v>55</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F64" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G64" s="6">
-        <v>103</v>
+        <v>201</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="I64" s="13">
         <v>200200200200200</v>
       </c>
-      <c r="J64" s="10">
-        <v>2</v>
+      <c r="J64" s="6">
+        <v>4</v>
       </c>
       <c r="K64" s="14">
         <v>72000005</v>
@@ -2838,19 +2840,19 @@
     <row r="65" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="9"/>
       <c r="C65" s="6">
-        <v>5404</v>
+        <v>5405</v>
       </c>
       <c r="D65" s="6">
         <v>55</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F65" s="6">
         <v>2</v>
       </c>
       <c r="G65" s="6">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H65" s="12" t="s">
         <v>43</v>
@@ -2858,8 +2860,8 @@
       <c r="I65" s="13">
         <v>200200200200200</v>
       </c>
-      <c r="J65" s="10">
-        <v>2</v>
+      <c r="J65" s="6">
+        <v>4</v>
       </c>
       <c r="K65" s="14">
         <v>72000005</v>
@@ -2869,67 +2871,36 @@
     <row r="66" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="9"/>
       <c r="C66" s="6">
-        <v>5405</v>
+        <v>5406</v>
       </c>
       <c r="D66" s="6">
         <v>55</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="F66" s="6">
         <v>2</v>
       </c>
       <c r="G66" s="6">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I66" s="13">
         <v>200200200200200</v>
       </c>
-      <c r="J66" s="10">
-        <v>2</v>
+      <c r="J66" s="6">
+        <v>4</v>
       </c>
       <c r="K66" s="14">
         <v>72000005</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="9"/>
-      <c r="C67" s="6">
-        <v>5406</v>
-      </c>
-      <c r="D67" s="6">
-        <v>55</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="F67" s="6">
-        <v>2</v>
-      </c>
-      <c r="G67" s="6">
-        <v>203</v>
-      </c>
-      <c r="H67" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I67" s="13">
-        <v>200200200200200</v>
-      </c>
-      <c r="J67" s="10">
-        <v>2</v>
-      </c>
-      <c r="K67" s="14">
-        <v>72000005</v>
-      </c>
-      <c r="L67" s="3"/>
-    </row>
+    <row r="67" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="68" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/RobotConfig.xlsx
+++ b/Excel/RobotConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFBB9C7F-946E-46D9-B0C4-4B4CB78D0D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF89E46-0D7B-4BF2-A406-23011B27E3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -147,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="57">
   <si>
     <t>cs</t>
   </si>
@@ -359,7 +359,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -508,10 +508,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -791,13 +791,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N69"/>
+  <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G43" sqref="A43:XFD43"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="9.625" style="1" customWidth="1"/>
@@ -812,7 +812,7 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -828,7 +828,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -844,7 +844,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="8" t="s">
@@ -878,7 +878,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="8" t="s">
@@ -912,7 +912,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="8" t="s">
@@ -946,7 +946,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="6">
         <v>1001</v>
@@ -973,7 +973,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="6">
         <v>2101</v>
@@ -1006,7 +1006,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="6">
         <v>2102</v>
@@ -1039,7 +1039,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="6">
         <v>2103</v>
@@ -1072,7 +1072,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="6">
         <v>2104</v>
@@ -1105,7 +1105,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9"/>
       <c r="C11" s="6">
         <v>2105</v>
@@ -1138,7 +1138,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9"/>
       <c r="C12" s="6">
         <v>2106</v>
@@ -1171,7 +1171,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9"/>
       <c r="C13" s="6">
         <f>C7+100</f>
@@ -1192,7 +1192,7 @@
       <c r="H13" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="13">
         <v>100100100100100</v>
       </c>
       <c r="J13" s="10">
@@ -1205,7 +1205,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="9"/>
       <c r="C14" s="6">
         <f t="shared" ref="C14:C30" si="0">C8+100</f>
@@ -1226,7 +1226,7 @@
       <c r="H14" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="13">
         <v>100100100100100</v>
       </c>
       <c r="J14" s="10">
@@ -1239,7 +1239,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="9"/>
       <c r="C15" s="6">
         <f t="shared" si="0"/>
@@ -1260,7 +1260,7 @@
       <c r="H15" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="13">
         <v>100100100100100</v>
       </c>
       <c r="J15" s="10">
@@ -1273,7 +1273,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="9"/>
       <c r="C16" s="6">
         <f t="shared" si="0"/>
@@ -1294,7 +1294,7 @@
       <c r="H16" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="13">
         <v>100100100100100</v>
       </c>
       <c r="J16" s="10">
@@ -1307,7 +1307,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9"/>
       <c r="C17" s="6">
         <f t="shared" si="0"/>
@@ -1328,7 +1328,7 @@
       <c r="H17" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="13">
         <v>100100100100100</v>
       </c>
       <c r="J17" s="10">
@@ -1341,7 +1341,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="9"/>
       <c r="C18" s="6">
         <f t="shared" si="0"/>
@@ -1362,7 +1362,7 @@
       <c r="H18" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="13">
         <v>100100100100100</v>
       </c>
       <c r="J18" s="10">
@@ -1375,7 +1375,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="9"/>
       <c r="C19" s="6">
         <f t="shared" si="0"/>
@@ -1396,7 +1396,7 @@
       <c r="H19" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="14">
+      <c r="I19" s="13">
         <v>150150150150150</v>
       </c>
       <c r="J19" s="10">
@@ -1409,7 +1409,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="9"/>
       <c r="C20" s="6">
         <f t="shared" si="0"/>
@@ -1430,7 +1430,7 @@
       <c r="H20" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="13">
         <v>150150150150150</v>
       </c>
       <c r="J20" s="10">
@@ -1443,7 +1443,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="9"/>
       <c r="C21" s="6">
         <f t="shared" si="0"/>
@@ -1464,7 +1464,7 @@
       <c r="H21" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="13">
         <v>150150150150150</v>
       </c>
       <c r="J21" s="10">
@@ -1477,7 +1477,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="9"/>
       <c r="C22" s="6">
         <f t="shared" si="0"/>
@@ -1498,7 +1498,7 @@
       <c r="H22" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="13">
         <v>150150150150150</v>
       </c>
       <c r="J22" s="10">
@@ -1511,7 +1511,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="9"/>
       <c r="C23" s="6">
         <f t="shared" si="0"/>
@@ -1532,7 +1532,7 @@
       <c r="H23" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="13">
         <v>150150150150150</v>
       </c>
       <c r="J23" s="10">
@@ -1545,7 +1545,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="9"/>
       <c r="C24" s="6">
         <f t="shared" si="0"/>
@@ -1566,7 +1566,7 @@
       <c r="H24" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="13">
         <v>150150150150150</v>
       </c>
       <c r="J24" s="10">
@@ -1579,7 +1579,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="9"/>
       <c r="C25" s="6">
         <f t="shared" si="0"/>
@@ -1600,7 +1600,7 @@
       <c r="H25" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25" s="13">
         <v>200200200200200</v>
       </c>
       <c r="J25" s="10">
@@ -1613,7 +1613,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="9"/>
       <c r="C26" s="6">
         <f t="shared" si="0"/>
@@ -1634,7 +1634,7 @@
       <c r="H26" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="13">
         <v>200200200200200</v>
       </c>
       <c r="J26" s="10">
@@ -1647,7 +1647,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="9"/>
       <c r="C27" s="6">
         <f t="shared" si="0"/>
@@ -1668,7 +1668,7 @@
       <c r="H27" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I27" s="14">
+      <c r="I27" s="13">
         <v>200200200200200</v>
       </c>
       <c r="J27" s="10">
@@ -1681,7 +1681,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="9"/>
       <c r="C28" s="6">
         <f t="shared" si="0"/>
@@ -1702,7 +1702,7 @@
       <c r="H28" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28" s="13">
         <v>200200200200200</v>
       </c>
       <c r="J28" s="10">
@@ -1715,7 +1715,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="9"/>
       <c r="C29" s="6">
         <f t="shared" si="0"/>
@@ -1736,7 +1736,7 @@
       <c r="H29" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="13">
         <v>200200200200200</v>
       </c>
       <c r="J29" s="10">
@@ -1749,7 +1749,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="9"/>
       <c r="C30" s="6">
         <f t="shared" si="0"/>
@@ -1770,7 +1770,7 @@
       <c r="H30" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I30" s="13">
         <v>200200200200200</v>
       </c>
       <c r="J30" s="10">
@@ -1783,7 +1783,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="9"/>
       <c r="C31" s="6">
         <v>3001</v>
@@ -1814,7 +1814,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="9"/>
       <c r="C32" s="6">
         <v>3002</v>
@@ -1845,7 +1845,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="9"/>
       <c r="C33" s="6">
         <v>3003</v>
@@ -1876,7 +1876,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="9"/>
       <c r="C34" s="6">
         <v>3004</v>
@@ -1907,7 +1907,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="9"/>
       <c r="C35" s="6">
         <v>3005</v>
@@ -1938,7 +1938,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="9"/>
       <c r="C36" s="6">
         <v>3006</v>
@@ -1969,7 +1969,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="9"/>
       <c r="C37" s="6">
         <v>3051</v>
@@ -1989,7 +1989,7 @@
       <c r="H37" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I37" s="14">
+      <c r="I37" s="13">
         <v>100100100100100</v>
       </c>
       <c r="J37" s="6">
@@ -2000,7 +2000,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="9"/>
       <c r="C38" s="6">
         <v>3052</v>
@@ -2020,7 +2020,7 @@
       <c r="H38" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I38" s="14">
+      <c r="I38" s="13">
         <v>100100100100100</v>
       </c>
       <c r="J38" s="6">
@@ -2031,7 +2031,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="9"/>
       <c r="C39" s="6">
         <v>3053</v>
@@ -2051,7 +2051,7 @@
       <c r="H39" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I39" s="14">
+      <c r="I39" s="13">
         <v>100100100100100</v>
       </c>
       <c r="J39" s="6">
@@ -2062,7 +2062,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="9"/>
       <c r="C40" s="6">
         <v>3054</v>
@@ -2082,7 +2082,7 @@
       <c r="H40" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="I40" s="14">
+      <c r="I40" s="13">
         <v>100100100100100</v>
       </c>
       <c r="J40" s="6">
@@ -2093,7 +2093,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="9"/>
       <c r="C41" s="6">
         <v>3055</v>
@@ -2113,7 +2113,7 @@
       <c r="H41" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="I41" s="14">
+      <c r="I41" s="13">
         <v>100100100100100</v>
       </c>
       <c r="J41" s="6">
@@ -2124,7 +2124,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="9"/>
       <c r="C42" s="6">
         <v>3056</v>
@@ -2144,7 +2144,7 @@
       <c r="H42" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I42" s="14">
+      <c r="I42" s="13">
         <v>100100100100100</v>
       </c>
       <c r="J42" s="6">
@@ -2155,7 +2155,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="9"/>
       <c r="C43" s="6">
         <v>4001</v>
@@ -2175,7 +2175,7 @@
       <c r="H43" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I43" s="14">
+      <c r="I43" s="13">
         <v>100100100100100</v>
       </c>
       <c r="J43" s="6">
@@ -2184,239 +2184,752 @@
       <c r="K43" s="6"/>
       <c r="L43" s="4"/>
     </row>
-    <row r="44" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="9"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="J44" s="6"/>
-    </row>
-    <row r="45" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C44" s="6">
+        <v>5101</v>
+      </c>
+      <c r="D44" s="6">
+        <v>20</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" s="6">
+        <v>1</v>
+      </c>
+      <c r="G44" s="6">
+        <v>101</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J44" s="10">
+        <v>2</v>
+      </c>
+      <c r="K44" s="14">
+        <v>72000002</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="9"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-    </row>
-    <row r="46" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C45" s="6">
+        <v>5102</v>
+      </c>
+      <c r="D45" s="6">
+        <v>20</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" s="6">
+        <v>1</v>
+      </c>
+      <c r="G45" s="6">
+        <v>102</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I45" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J45" s="10">
+        <v>2</v>
+      </c>
+      <c r="K45" s="14">
+        <v>72000002</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="9"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-      <c r="I46" s="6"/>
-      <c r="J46" s="6"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-    </row>
-    <row r="47" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="C46" s="6">
+        <v>5103</v>
+      </c>
+      <c r="D46" s="6">
+        <v>20</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" s="6">
+        <v>1</v>
+      </c>
+      <c r="G46" s="6">
+        <v>103</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J46" s="10">
+        <v>2</v>
+      </c>
+      <c r="K46" s="14">
+        <v>72000002</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="9"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-    </row>
-    <row r="48" spans="2:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="6"/>
-    </row>
-    <row r="49" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-      <c r="N49" s="6"/>
-    </row>
-    <row r="50" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-      <c r="N50" s="6"/>
-    </row>
-    <row r="51" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="13"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="6"/>
-      <c r="L51" s="6"/>
-      <c r="M51" s="6"/>
-      <c r="N51" s="6"/>
-    </row>
-    <row r="52" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-      <c r="I52" s="6"/>
-      <c r="J52" s="6"/>
-      <c r="K52" s="6"/>
-      <c r="L52" s="6"/>
-      <c r="M52" s="6"/>
-      <c r="N52" s="6"/>
-    </row>
-    <row r="53" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C53" s="5"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
-      <c r="L53" s="6"/>
-      <c r="M53" s="6"/>
-      <c r="N53" s="6"/>
-    </row>
-    <row r="54" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-    </row>
-    <row r="55" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="6"/>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
-      <c r="L55" s="6"/>
-      <c r="M55" s="6"/>
-      <c r="N55" s="6"/>
-    </row>
-    <row r="56" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="6"/>
-      <c r="H56" s="6"/>
-      <c r="I56" s="6"/>
-      <c r="J56" s="6"/>
-      <c r="K56" s="6"/>
-      <c r="L56" s="6"/>
-      <c r="M56" s="6"/>
-      <c r="N56" s="6"/>
-    </row>
-    <row r="57" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="13"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="N57" s="6"/>
-    </row>
-    <row r="58" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="13"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-    </row>
-    <row r="59" spans="3:14" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="13"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="6"/>
-      <c r="J59" s="6"/>
-      <c r="K59" s="6"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="N59" s="6"/>
-    </row>
-    <row r="60" spans="3:14" ht="20.100000000000001" customHeight="1"/>
-    <row r="61" spans="3:14" ht="20.100000000000001" customHeight="1"/>
-    <row r="62" spans="3:14" ht="20.100000000000001" customHeight="1"/>
-    <row r="63" spans="3:14" ht="20.100000000000001" customHeight="1"/>
-    <row r="64" spans="3:14" ht="20.100000000000001" customHeight="1"/>
-    <row r="65" ht="20.100000000000001" customHeight="1"/>
-    <row r="66" ht="20.100000000000001" customHeight="1"/>
-    <row r="67" ht="20.100000000000001" customHeight="1"/>
-    <row r="68" ht="20.100000000000001" customHeight="1"/>
-    <row r="69" ht="20.100000000000001" customHeight="1"/>
+      <c r="C47" s="6">
+        <v>5104</v>
+      </c>
+      <c r="D47" s="6">
+        <v>20</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" s="6">
+        <v>2</v>
+      </c>
+      <c r="G47" s="6">
+        <v>201</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I47" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J47" s="10">
+        <v>2</v>
+      </c>
+      <c r="K47" s="14">
+        <v>72000002</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="9"/>
+      <c r="C48" s="6">
+        <v>5105</v>
+      </c>
+      <c r="D48" s="6">
+        <v>20</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" s="6">
+        <v>2</v>
+      </c>
+      <c r="G48" s="6">
+        <v>202</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J48" s="10">
+        <v>2</v>
+      </c>
+      <c r="K48" s="14">
+        <v>72000002</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B49" s="9"/>
+      <c r="C49" s="6">
+        <v>5106</v>
+      </c>
+      <c r="D49" s="6">
+        <v>20</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" s="6">
+        <v>2</v>
+      </c>
+      <c r="G49" s="6">
+        <v>203</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J49" s="10">
+        <v>2</v>
+      </c>
+      <c r="K49" s="14">
+        <v>72000002</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="9"/>
+      <c r="C50" s="6">
+        <v>5201</v>
+      </c>
+      <c r="D50" s="6">
+        <v>35</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F50" s="6">
+        <v>1</v>
+      </c>
+      <c r="G50" s="6">
+        <v>101</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I50" s="13">
+        <v>100100100100100</v>
+      </c>
+      <c r="J50" s="10">
+        <v>2</v>
+      </c>
+      <c r="K50" s="14">
+        <v>72000003</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="9"/>
+      <c r="C51" s="6">
+        <v>5202</v>
+      </c>
+      <c r="D51" s="6">
+        <v>35</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="6">
+        <v>1</v>
+      </c>
+      <c r="G51" s="6">
+        <v>102</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="I51" s="13">
+        <v>100100100100100</v>
+      </c>
+      <c r="J51" s="10">
+        <v>2</v>
+      </c>
+      <c r="K51" s="14">
+        <v>72000003</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="9"/>
+      <c r="C52" s="6">
+        <v>5203</v>
+      </c>
+      <c r="D52" s="6">
+        <v>35</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" s="6">
+        <v>1</v>
+      </c>
+      <c r="G52" s="6">
+        <v>103</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="I52" s="13">
+        <v>100100100100100</v>
+      </c>
+      <c r="J52" s="10">
+        <v>2</v>
+      </c>
+      <c r="K52" s="14">
+        <v>72000003</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="9"/>
+      <c r="C53" s="6">
+        <v>5204</v>
+      </c>
+      <c r="D53" s="6">
+        <v>35</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" s="6">
+        <v>2</v>
+      </c>
+      <c r="G53" s="6">
+        <v>201</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I53" s="13">
+        <v>100100100100100</v>
+      </c>
+      <c r="J53" s="10">
+        <v>2</v>
+      </c>
+      <c r="K53" s="14">
+        <v>72000003</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="9"/>
+      <c r="C54" s="6">
+        <v>5205</v>
+      </c>
+      <c r="D54" s="6">
+        <v>35</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" s="6">
+        <v>2</v>
+      </c>
+      <c r="G54" s="6">
+        <v>202</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I54" s="13">
+        <v>100100100100100</v>
+      </c>
+      <c r="J54" s="10">
+        <v>2</v>
+      </c>
+      <c r="K54" s="14">
+        <v>72000003</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="9"/>
+      <c r="C55" s="6">
+        <v>5206</v>
+      </c>
+      <c r="D55" s="6">
+        <v>35</v>
+      </c>
+      <c r="E55" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" s="6">
+        <v>2</v>
+      </c>
+      <c r="G55" s="6">
+        <v>203</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I55" s="13">
+        <v>100100100100100</v>
+      </c>
+      <c r="J55" s="10">
+        <v>2</v>
+      </c>
+      <c r="K55" s="14">
+        <v>72000003</v>
+      </c>
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B56" s="9"/>
+      <c r="C56" s="6">
+        <v>5301</v>
+      </c>
+      <c r="D56" s="6">
+        <v>45</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" s="6">
+        <v>1</v>
+      </c>
+      <c r="G56" s="6">
+        <v>101</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I56" s="13">
+        <v>150150150150150</v>
+      </c>
+      <c r="J56" s="10">
+        <v>2</v>
+      </c>
+      <c r="K56" s="14">
+        <v>72000004</v>
+      </c>
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="9"/>
+      <c r="C57" s="6">
+        <v>5302</v>
+      </c>
+      <c r="D57" s="6">
+        <v>45</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" s="6">
+        <v>1</v>
+      </c>
+      <c r="G57" s="6">
+        <v>102</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I57" s="13">
+        <v>150150150150150</v>
+      </c>
+      <c r="J57" s="10">
+        <v>2</v>
+      </c>
+      <c r="K57" s="14">
+        <v>72000004</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="9"/>
+      <c r="C58" s="6">
+        <v>5303</v>
+      </c>
+      <c r="D58" s="6">
+        <v>45</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" s="6">
+        <v>1</v>
+      </c>
+      <c r="G58" s="6">
+        <v>103</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="I58" s="13">
+        <v>150150150150150</v>
+      </c>
+      <c r="J58" s="10">
+        <v>2</v>
+      </c>
+      <c r="K58" s="14">
+        <v>72000004</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="9"/>
+      <c r="C59" s="6">
+        <v>5304</v>
+      </c>
+      <c r="D59" s="6">
+        <v>45</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" s="6">
+        <v>2</v>
+      </c>
+      <c r="G59" s="6">
+        <v>201</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I59" s="13">
+        <v>150150150150150</v>
+      </c>
+      <c r="J59" s="10">
+        <v>2</v>
+      </c>
+      <c r="K59" s="14">
+        <v>72000004</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="9"/>
+      <c r="C60" s="6">
+        <v>5305</v>
+      </c>
+      <c r="D60" s="6">
+        <v>45</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" s="6">
+        <v>2</v>
+      </c>
+      <c r="G60" s="6">
+        <v>202</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I60" s="13">
+        <v>150150150150150</v>
+      </c>
+      <c r="J60" s="10">
+        <v>2</v>
+      </c>
+      <c r="K60" s="14">
+        <v>72000004</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B61" s="9"/>
+      <c r="C61" s="6">
+        <v>5306</v>
+      </c>
+      <c r="D61" s="6">
+        <v>45</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" s="6">
+        <v>2</v>
+      </c>
+      <c r="G61" s="6">
+        <v>203</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I61" s="13">
+        <v>150150150150150</v>
+      </c>
+      <c r="J61" s="10">
+        <v>2</v>
+      </c>
+      <c r="K61" s="14">
+        <v>72000004</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B62" s="9"/>
+      <c r="C62" s="6">
+        <v>5401</v>
+      </c>
+      <c r="D62" s="6">
+        <v>55</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" s="6">
+        <v>1</v>
+      </c>
+      <c r="G62" s="6">
+        <v>101</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I62" s="13">
+        <v>200200200200200</v>
+      </c>
+      <c r="J62" s="10">
+        <v>2</v>
+      </c>
+      <c r="K62" s="14">
+        <v>72000005</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B63" s="9"/>
+      <c r="C63" s="6">
+        <v>5402</v>
+      </c>
+      <c r="D63" s="6">
+        <v>55</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" s="6">
+        <v>1</v>
+      </c>
+      <c r="G63" s="6">
+        <v>102</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I63" s="13">
+        <v>200200200200200</v>
+      </c>
+      <c r="J63" s="10">
+        <v>2</v>
+      </c>
+      <c r="K63" s="14">
+        <v>72000005</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B64" s="9"/>
+      <c r="C64" s="6">
+        <v>5403</v>
+      </c>
+      <c r="D64" s="6">
+        <v>55</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" s="6">
+        <v>1</v>
+      </c>
+      <c r="G64" s="6">
+        <v>103</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I64" s="13">
+        <v>200200200200200</v>
+      </c>
+      <c r="J64" s="10">
+        <v>2</v>
+      </c>
+      <c r="K64" s="14">
+        <v>72000005</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B65" s="9"/>
+      <c r="C65" s="6">
+        <v>5404</v>
+      </c>
+      <c r="D65" s="6">
+        <v>55</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" s="6">
+        <v>2</v>
+      </c>
+      <c r="G65" s="6">
+        <v>201</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I65" s="13">
+        <v>200200200200200</v>
+      </c>
+      <c r="J65" s="10">
+        <v>2</v>
+      </c>
+      <c r="K65" s="14">
+        <v>72000005</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B66" s="9"/>
+      <c r="C66" s="6">
+        <v>5405</v>
+      </c>
+      <c r="D66" s="6">
+        <v>55</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" s="6">
+        <v>2</v>
+      </c>
+      <c r="G66" s="6">
+        <v>202</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I66" s="13">
+        <v>200200200200200</v>
+      </c>
+      <c r="J66" s="10">
+        <v>2</v>
+      </c>
+      <c r="K66" s="14">
+        <v>72000005</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="9"/>
+      <c r="C67" s="6">
+        <v>5406</v>
+      </c>
+      <c r="D67" s="6">
+        <v>55</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" s="6">
+        <v>2</v>
+      </c>
+      <c r="G67" s="6">
+        <v>203</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I67" s="13">
+        <v>200200200200200</v>
+      </c>
+      <c r="J67" s="10">
+        <v>2</v>
+      </c>
+      <c r="K67" s="14">
+        <v>72000005</v>
+      </c>
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/RobotConfig.xlsx
+++ b/Excel/RobotConfig.xlsx
@@ -1,30 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671848DB-FE12-49CC-8AEE-85A3BAF21448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B013232-AD6B-4C8E-9DF0-E432B1A9DF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RobotConfig" sheetId="6" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -86,7 +77,8 @@
 1   任务机器人
 2   组队副本机器人
 3   战场机器人
-4   世界boos机器人</t>
+4   世界boos机器人
+5   角斗场机器人</t>
         </r>
       </text>
     </comment>
@@ -147,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="58">
   <si>
     <t>cs</t>
   </si>
@@ -352,6 +344,10 @@
   </si>
   <si>
     <t>世界BOSS机器人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角斗场</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -359,7 +355,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -793,11 +789,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="F52" workbookViewId="0">
+      <selection activeCell="F67" sqref="A67:XFD67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="9.625" style="1" customWidth="1"/>
@@ -812,7 +808,7 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -828,7 +824,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -844,7 +840,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="8" t="s">
@@ -878,7 +874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="8" t="s">
@@ -912,7 +908,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="8" t="s">
@@ -946,7 +942,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="9"/>
       <c r="C6" s="6">
         <v>1001</v>
@@ -973,7 +969,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="9"/>
       <c r="C7" s="6">
         <v>2101</v>
@@ -1006,7 +1002,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="9"/>
       <c r="C8" s="6">
         <v>2102</v>
@@ -1039,7 +1035,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="9"/>
       <c r="C9" s="6">
         <v>2103</v>
@@ -1072,7 +1068,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="9"/>
       <c r="C10" s="6">
         <v>2104</v>
@@ -1105,7 +1101,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="9"/>
       <c r="C11" s="6">
         <v>2105</v>
@@ -1138,7 +1134,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="9"/>
       <c r="C12" s="6">
         <v>2106</v>
@@ -1171,7 +1167,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="9"/>
       <c r="C13" s="6">
         <f>C7+100</f>
@@ -1205,7 +1201,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="6">
         <f t="shared" ref="C14:C30" si="0">C8+100</f>
@@ -1239,7 +1235,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="6">
         <f t="shared" si="0"/>
@@ -1273,7 +1269,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="9"/>
       <c r="C16" s="6">
         <f t="shared" si="0"/>
@@ -1307,7 +1303,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="9"/>
       <c r="C17" s="6">
         <f t="shared" si="0"/>
@@ -1341,7 +1337,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="9"/>
       <c r="C18" s="6">
         <f t="shared" si="0"/>
@@ -1375,7 +1371,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="9"/>
       <c r="C19" s="6">
         <f t="shared" si="0"/>
@@ -1409,7 +1405,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="9"/>
       <c r="C20" s="6">
         <f t="shared" si="0"/>
@@ -1443,7 +1439,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="9"/>
       <c r="C21" s="6">
         <f t="shared" si="0"/>
@@ -1477,7 +1473,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="9"/>
       <c r="C22" s="6">
         <f t="shared" si="0"/>
@@ -1511,7 +1507,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="6">
         <f t="shared" si="0"/>
@@ -1545,7 +1541,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="9"/>
       <c r="C24" s="6">
         <f t="shared" si="0"/>
@@ -1579,7 +1575,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="9"/>
       <c r="C25" s="6">
         <f t="shared" si="0"/>
@@ -1613,7 +1609,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B26" s="9"/>
       <c r="C26" s="6">
         <f t="shared" si="0"/>
@@ -1647,7 +1643,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="9"/>
       <c r="C27" s="6">
         <f t="shared" si="0"/>
@@ -1681,7 +1677,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B28" s="9"/>
       <c r="C28" s="6">
         <f t="shared" si="0"/>
@@ -1715,7 +1711,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B29" s="9"/>
       <c r="C29" s="6">
         <f t="shared" si="0"/>
@@ -1749,7 +1745,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B30" s="9"/>
       <c r="C30" s="6">
         <f t="shared" si="0"/>
@@ -1783,7 +1779,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B31" s="9"/>
       <c r="C31" s="6">
         <v>3001</v>
@@ -1814,7 +1810,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B32" s="9"/>
       <c r="C32" s="6">
         <v>3002</v>
@@ -1845,7 +1841,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B33" s="9"/>
       <c r="C33" s="6">
         <v>3003</v>
@@ -1876,7 +1872,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B34" s="9"/>
       <c r="C34" s="6">
         <v>3004</v>
@@ -1907,7 +1903,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B35" s="9"/>
       <c r="C35" s="6">
         <v>3005</v>
@@ -1938,7 +1934,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="36" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B36" s="9"/>
       <c r="C36" s="6">
         <v>3006</v>
@@ -1969,7 +1965,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B37" s="9"/>
       <c r="C37" s="6">
         <v>3051</v>
@@ -2000,7 +1996,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B38" s="9"/>
       <c r="C38" s="6">
         <v>3052</v>
@@ -2031,7 +2027,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B39" s="9"/>
       <c r="C39" s="6">
         <v>3053</v>
@@ -2062,7 +2058,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B40" s="9"/>
       <c r="C40" s="6">
         <v>3054</v>
@@ -2093,7 +2089,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B41" s="9"/>
       <c r="C41" s="6">
         <v>3055</v>
@@ -2124,7 +2120,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B42" s="9"/>
       <c r="C42" s="6">
         <v>3056</v>
@@ -2155,7 +2151,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B43" s="9"/>
       <c r="C43" s="6">
         <v>5101</v>
@@ -2186,7 +2182,7 @@
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B44" s="9"/>
       <c r="C44" s="6">
         <v>5102</v>
@@ -2217,7 +2213,7 @@
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B45" s="9"/>
       <c r="C45" s="6">
         <v>5103</v>
@@ -2248,7 +2244,7 @@
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B46" s="9"/>
       <c r="C46" s="6">
         <v>5104</v>
@@ -2279,7 +2275,7 @@
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B47" s="9"/>
       <c r="C47" s="6">
         <v>5105</v>
@@ -2310,7 +2306,7 @@
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B48" s="9"/>
       <c r="C48" s="6">
         <v>5106</v>
@@ -2341,7 +2337,7 @@
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B49" s="9"/>
       <c r="C49" s="6">
         <v>5201</v>
@@ -2372,7 +2368,7 @@
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B50" s="9"/>
       <c r="C50" s="6">
         <v>5202</v>
@@ -2403,7 +2399,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B51" s="9"/>
       <c r="C51" s="6">
         <v>5203</v>
@@ -2434,7 +2430,7 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B52" s="9"/>
       <c r="C52" s="6">
         <v>5204</v>
@@ -2465,7 +2461,7 @@
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B53" s="9"/>
       <c r="C53" s="6">
         <v>5205</v>
@@ -2496,7 +2492,7 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B54" s="9"/>
       <c r="C54" s="6">
         <v>5206</v>
@@ -2527,7 +2523,7 @@
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B55" s="9"/>
       <c r="C55" s="6">
         <v>5301</v>
@@ -2558,7 +2554,7 @@
       </c>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B56" s="9"/>
       <c r="C56" s="6">
         <v>5302</v>
@@ -2589,7 +2585,7 @@
       </c>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B57" s="9"/>
       <c r="C57" s="6">
         <v>5303</v>
@@ -2620,7 +2616,7 @@
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B58" s="9"/>
       <c r="C58" s="6">
         <v>5304</v>
@@ -2651,7 +2647,7 @@
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B59" s="9"/>
       <c r="C59" s="6">
         <v>5305</v>
@@ -2682,7 +2678,7 @@
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B60" s="9"/>
       <c r="C60" s="6">
         <v>5306</v>
@@ -2713,7 +2709,7 @@
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B61" s="9"/>
       <c r="C61" s="6">
         <v>5401</v>
@@ -2744,7 +2740,7 @@
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B62" s="9"/>
       <c r="C62" s="6">
         <v>5402</v>
@@ -2775,7 +2771,7 @@
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B63" s="9"/>
       <c r="C63" s="6">
         <v>5403</v>
@@ -2806,7 +2802,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B64" s="9"/>
       <c r="C64" s="6">
         <v>5404</v>
@@ -2837,7 +2833,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B65" s="9"/>
       <c r="C65" s="6">
         <v>5405</v>
@@ -2868,7 +2864,7 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B66" s="9"/>
       <c r="C66" s="6">
         <v>5406</v>
@@ -2899,8 +2895,38 @@
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B67" s="9"/>
+      <c r="C67" s="6">
+        <v>5001</v>
+      </c>
+      <c r="D67" s="6">
+        <v>30</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F67" s="6">
+        <v>2</v>
+      </c>
+      <c r="G67" s="6">
+        <v>203</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I67" s="13">
+        <v>100100100100100</v>
+      </c>
+      <c r="J67" s="6">
+        <v>3</v>
+      </c>
+      <c r="K67" s="6"/>
+      <c r="L67" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/RobotConfig.xlsx
+++ b/Excel/RobotConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B013232-AD6B-4C8E-9DF0-E432B1A9DF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5697B5-C559-4E75-8964-BFDE7030F863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -790,7 +790,7 @@
   <dimension ref="A1:L68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F52" workbookViewId="0">
-      <selection activeCell="F67" sqref="A67:XFD67"/>
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2919,7 +2919,7 @@
         <v>100100100100100</v>
       </c>
       <c r="J67" s="6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K67" s="6"/>
       <c r="L67" s="4" t="s">

--- a/Excel/RobotConfig.xlsx
+++ b/Excel/RobotConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5697B5-C559-4E75-8964-BFDE7030F863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3C742C-EEF0-4F1B-8CAD-A8C14C2723E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="58">
   <si>
     <t>cs</t>
   </si>
@@ -355,7 +355,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -787,13 +787,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L68"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F52" workbookViewId="0">
-      <selection activeCell="J74" sqref="J74"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="9.625" style="1" customWidth="1"/>
@@ -808,7 +808,7 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -824,7 +824,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -840,7 +840,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="8" t="s">
@@ -874,7 +874,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="8" t="s">
@@ -908,7 +908,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="8" t="s">
@@ -942,7 +942,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="6">
         <v>1001</v>
@@ -969,7 +969,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="6">
         <v>2101</v>
@@ -1002,7 +1002,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="6">
         <v>2102</v>
@@ -1035,7 +1035,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="6">
         <v>2103</v>
@@ -1068,7 +1068,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="6">
         <v>2104</v>
@@ -1101,7 +1101,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9"/>
       <c r="C11" s="6">
         <v>2105</v>
@@ -1134,7 +1134,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9"/>
       <c r="C12" s="6">
         <v>2106</v>
@@ -1167,7 +1167,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9"/>
       <c r="C13" s="6">
         <f>C7+100</f>
@@ -1201,10 +1201,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="9"/>
       <c r="C14" s="6">
-        <f t="shared" ref="C14:C30" si="0">C8+100</f>
+        <f t="shared" ref="C14:C36" si="0">C8+100</f>
         <v>2202</v>
       </c>
       <c r="D14" s="6">
@@ -1235,7 +1235,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="9"/>
       <c r="C15" s="6">
         <f t="shared" si="0"/>
@@ -1269,7 +1269,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="9"/>
       <c r="C16" s="6">
         <f t="shared" si="0"/>
@@ -1303,7 +1303,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9"/>
       <c r="C17" s="6">
         <f t="shared" si="0"/>
@@ -1337,7 +1337,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="9"/>
       <c r="C18" s="6">
         <f t="shared" si="0"/>
@@ -1371,7 +1371,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="9"/>
       <c r="C19" s="6">
         <f t="shared" si="0"/>
@@ -1405,7 +1405,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="9"/>
       <c r="C20" s="6">
         <f t="shared" si="0"/>
@@ -1439,7 +1439,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="9"/>
       <c r="C21" s="6">
         <f t="shared" si="0"/>
@@ -1473,7 +1473,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="9"/>
       <c r="C22" s="6">
         <f t="shared" si="0"/>
@@ -1507,7 +1507,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="9"/>
       <c r="C23" s="6">
         <f t="shared" si="0"/>
@@ -1541,7 +1541,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="9"/>
       <c r="C24" s="6">
         <f t="shared" si="0"/>
@@ -1575,7 +1575,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="9"/>
       <c r="C25" s="6">
         <f t="shared" si="0"/>
@@ -1609,7 +1609,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="9"/>
       <c r="C26" s="6">
         <f t="shared" si="0"/>
@@ -1643,7 +1643,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="9"/>
       <c r="C27" s="6">
         <f t="shared" si="0"/>
@@ -1677,7 +1677,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="9"/>
       <c r="C28" s="6">
         <f t="shared" si="0"/>
@@ -1711,7 +1711,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="9"/>
       <c r="C29" s="6">
         <f t="shared" si="0"/>
@@ -1745,7 +1745,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="9"/>
       <c r="C30" s="6">
         <f t="shared" si="0"/>
@@ -1779,16 +1779,17 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="9"/>
       <c r="C31" s="6">
-        <v>3001</v>
+        <f t="shared" si="0"/>
+        <v>2501</v>
       </c>
       <c r="D31" s="6">
-        <v>20</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="F31" s="6">
         <v>1</v>
@@ -1797,29 +1798,32 @@
         <v>101</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J31" s="6">
-        <v>3</v>
-      </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>52</v>
+      </c>
+      <c r="I31" s="13">
+        <v>200200200200200</v>
+      </c>
+      <c r="J31" s="10">
+        <v>2</v>
+      </c>
+      <c r="K31" s="6">
+        <v>110005</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="9"/>
       <c r="C32" s="6">
-        <v>3002</v>
+        <f t="shared" si="0"/>
+        <v>2502</v>
       </c>
       <c r="D32" s="6">
-        <v>20</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="F32" s="6">
         <v>1</v>
@@ -1828,29 +1832,32 @@
         <v>102</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I32" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J32" s="6">
-        <v>3</v>
-      </c>
-      <c r="K32" s="6"/>
-      <c r="L32" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>52</v>
+      </c>
+      <c r="I32" s="13">
+        <v>200200200200200</v>
+      </c>
+      <c r="J32" s="10">
+        <v>2</v>
+      </c>
+      <c r="K32" s="6">
+        <v>110005</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="9"/>
       <c r="C33" s="6">
-        <v>3003</v>
+        <f t="shared" si="0"/>
+        <v>2503</v>
       </c>
       <c r="D33" s="6">
-        <v>20</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="F33" s="6">
         <v>1</v>
@@ -1859,29 +1866,32 @@
         <v>103</v>
       </c>
       <c r="H33" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="I33" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J33" s="6">
-        <v>3</v>
-      </c>
-      <c r="K33" s="6"/>
-      <c r="L33" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>53</v>
+      </c>
+      <c r="I33" s="13">
+        <v>200200200200200</v>
+      </c>
+      <c r="J33" s="10">
+        <v>2</v>
+      </c>
+      <c r="K33" s="6">
+        <v>110005</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="9"/>
       <c r="C34" s="6">
-        <v>3004</v>
+        <f t="shared" si="0"/>
+        <v>2504</v>
       </c>
       <c r="D34" s="6">
-        <v>20</v>
-      </c>
-      <c r="E34" s="6" t="s">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="F34" s="6">
         <v>2</v>
@@ -1890,29 +1900,32 @@
         <v>201</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I34" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J34" s="6">
-        <v>3</v>
-      </c>
-      <c r="K34" s="6"/>
-      <c r="L34" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>43</v>
+      </c>
+      <c r="I34" s="13">
+        <v>200200200200200</v>
+      </c>
+      <c r="J34" s="10">
+        <v>2</v>
+      </c>
+      <c r="K34" s="6">
+        <v>110005</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="9"/>
       <c r="C35" s="6">
-        <v>3005</v>
+        <f t="shared" si="0"/>
+        <v>2505</v>
       </c>
       <c r="D35" s="6">
-        <v>20</v>
-      </c>
-      <c r="E35" s="6" t="s">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="F35" s="6">
         <v>2</v>
@@ -1921,29 +1934,32 @@
         <v>202</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J35" s="6">
-        <v>3</v>
-      </c>
-      <c r="K35" s="6"/>
-      <c r="L35" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>43</v>
+      </c>
+      <c r="I35" s="13">
+        <v>200200200200200</v>
+      </c>
+      <c r="J35" s="10">
+        <v>2</v>
+      </c>
+      <c r="K35" s="6">
+        <v>110005</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="9"/>
       <c r="C36" s="6">
-        <v>3006</v>
+        <f t="shared" si="0"/>
+        <v>2506</v>
       </c>
       <c r="D36" s="6">
-        <v>20</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>30</v>
+        <v>60</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="F36" s="6">
         <v>2</v>
@@ -1952,29 +1968,31 @@
         <v>203</v>
       </c>
       <c r="H36" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I36" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J36" s="6">
-        <v>3</v>
-      </c>
-      <c r="K36" s="6"/>
-      <c r="L36" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>42</v>
+      </c>
+      <c r="I36" s="13">
+        <v>200200200200200</v>
+      </c>
+      <c r="J36" s="10">
+        <v>2</v>
+      </c>
+      <c r="K36" s="6">
+        <v>110005</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="9"/>
       <c r="C37" s="6">
-        <v>3051</v>
+        <v>3001</v>
       </c>
       <c r="D37" s="6">
+        <v>20</v>
+      </c>
+      <c r="E37" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="F37" s="6">
         <v>1</v>
@@ -1983,10 +2001,10 @@
         <v>101</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I37" s="13">
-        <v>100100100100100</v>
+        <v>44</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="J37" s="6">
         <v>3</v>
@@ -1996,16 +2014,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="9"/>
       <c r="C38" s="6">
-        <v>3052</v>
+        <v>3002</v>
       </c>
       <c r="D38" s="6">
+        <v>20</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="F38" s="6">
         <v>1</v>
@@ -2014,10 +2032,10 @@
         <v>102</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I38" s="13">
-        <v>100100100100100</v>
+        <v>44</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="J38" s="6">
         <v>3</v>
@@ -2027,16 +2045,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="9"/>
       <c r="C39" s="6">
-        <v>3053</v>
+        <v>3003</v>
       </c>
       <c r="D39" s="6">
+        <v>20</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="F39" s="6">
         <v>1</v>
@@ -2045,10 +2063,10 @@
         <v>103</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I39" s="13">
-        <v>100100100100100</v>
+        <v>46</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="J39" s="6">
         <v>3</v>
@@ -2058,16 +2076,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="9"/>
       <c r="C40" s="6">
-        <v>3054</v>
+        <v>3004</v>
       </c>
       <c r="D40" s="6">
+        <v>20</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="F40" s="6">
         <v>2</v>
@@ -2076,10 +2094,10 @@
         <v>201</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I40" s="13">
-        <v>100100100100100</v>
+        <v>37</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="J40" s="6">
         <v>3</v>
@@ -2089,16 +2107,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="9"/>
       <c r="C41" s="6">
-        <v>3055</v>
+        <v>3005</v>
       </c>
       <c r="D41" s="6">
+        <v>20</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="F41" s="6">
         <v>2</v>
@@ -2107,10 +2125,10 @@
         <v>202</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I41" s="13">
-        <v>100100100100100</v>
+        <v>37</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="J41" s="6">
         <v>3</v>
@@ -2120,16 +2138,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="9"/>
       <c r="C42" s="6">
-        <v>3056</v>
+        <v>3006</v>
       </c>
       <c r="D42" s="6">
+        <v>20</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="F42" s="6">
         <v>2</v>
@@ -2138,10 +2156,10 @@
         <v>203</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I42" s="13">
-        <v>100100100100100</v>
+        <v>36</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="J42" s="6">
         <v>3</v>
@@ -2151,16 +2169,16 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="9"/>
       <c r="C43" s="6">
-        <v>5101</v>
+        <v>3051</v>
       </c>
       <c r="D43" s="6">
-        <v>20</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>56</v>
+        <v>30</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="F43" s="6">
         <v>1</v>
@@ -2169,29 +2187,29 @@
         <v>101</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="I43" s="13">
+        <v>100100100100100</v>
       </c>
       <c r="J43" s="6">
-        <v>4</v>
-      </c>
-      <c r="K43" s="14">
-        <v>72000002</v>
-      </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="K43" s="6"/>
+      <c r="L43" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="9"/>
       <c r="C44" s="6">
-        <v>5102</v>
+        <v>3052</v>
       </c>
       <c r="D44" s="6">
-        <v>20</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>56</v>
+        <v>30</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="F44" s="6">
         <v>1</v>
@@ -2200,29 +2218,29 @@
         <v>102</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I44" s="6" t="s">
-        <v>23</v>
+        <v>48</v>
+      </c>
+      <c r="I44" s="13">
+        <v>100100100100100</v>
       </c>
       <c r="J44" s="6">
-        <v>4</v>
-      </c>
-      <c r="K44" s="14">
-        <v>72000002</v>
-      </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="K44" s="6"/>
+      <c r="L44" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="9"/>
       <c r="C45" s="6">
-        <v>5103</v>
+        <v>3053</v>
       </c>
       <c r="D45" s="6">
-        <v>20</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>56</v>
+        <v>30</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="F45" s="6">
         <v>1</v>
@@ -2231,29 +2249,29 @@
         <v>103</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I45" s="6" t="s">
-        <v>23</v>
+        <v>49</v>
+      </c>
+      <c r="I45" s="13">
+        <v>100100100100100</v>
       </c>
       <c r="J45" s="6">
-        <v>4</v>
-      </c>
-      <c r="K45" s="14">
-        <v>72000002</v>
-      </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="K45" s="6"/>
+      <c r="L45" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="9"/>
       <c r="C46" s="6">
-        <v>5104</v>
+        <v>3054</v>
       </c>
       <c r="D46" s="6">
-        <v>20</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>56</v>
+        <v>30</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="F46" s="6">
         <v>2</v>
@@ -2262,29 +2280,29 @@
         <v>201</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I46" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
+      </c>
+      <c r="I46" s="13">
+        <v>100100100100100</v>
       </c>
       <c r="J46" s="6">
-        <v>4</v>
-      </c>
-      <c r="K46" s="14">
-        <v>72000002</v>
-      </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="K46" s="6"/>
+      <c r="L46" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="9"/>
       <c r="C47" s="6">
-        <v>5105</v>
+        <v>3055</v>
       </c>
       <c r="D47" s="6">
-        <v>20</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>56</v>
+        <v>30</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="F47" s="6">
         <v>2</v>
@@ -2293,29 +2311,29 @@
         <v>202</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I47" s="6" t="s">
-        <v>23</v>
+        <v>39</v>
+      </c>
+      <c r="I47" s="13">
+        <v>100100100100100</v>
       </c>
       <c r="J47" s="6">
-        <v>4</v>
-      </c>
-      <c r="K47" s="14">
-        <v>72000002</v>
-      </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="K47" s="6"/>
+      <c r="L47" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="9"/>
       <c r="C48" s="6">
-        <v>5106</v>
+        <v>3056</v>
       </c>
       <c r="D48" s="6">
-        <v>20</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>56</v>
+        <v>30</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="F48" s="6">
         <v>2</v>
@@ -2324,26 +2342,26 @@
         <v>203</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="I48" s="13">
+        <v>100100100100100</v>
       </c>
       <c r="J48" s="6">
-        <v>4</v>
-      </c>
-      <c r="K48" s="14">
-        <v>72000002</v>
-      </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+        <v>3</v>
+      </c>
+      <c r="K48" s="6"/>
+      <c r="L48" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="9"/>
       <c r="C49" s="6">
-        <v>5201</v>
+        <v>5101</v>
       </c>
       <c r="D49" s="6">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>56</v>
@@ -2355,26 +2373,26 @@
         <v>101</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I49" s="13">
-        <v>100100100100100</v>
+        <v>55</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="J49" s="6">
         <v>4</v>
       </c>
       <c r="K49" s="14">
-        <v>72000003</v>
+        <v>72000002</v>
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="50" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="9"/>
       <c r="C50" s="6">
-        <v>5202</v>
+        <v>5102</v>
       </c>
       <c r="D50" s="6">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>56</v>
@@ -2386,26 +2404,26 @@
         <v>102</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I50" s="13">
-        <v>100100100100100</v>
+        <v>45</v>
+      </c>
+      <c r="I50" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="J50" s="6">
         <v>4</v>
       </c>
       <c r="K50" s="14">
-        <v>72000003</v>
+        <v>72000002</v>
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="9"/>
       <c r="C51" s="6">
-        <v>5203</v>
+        <v>5103</v>
       </c>
       <c r="D51" s="6">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>56</v>
@@ -2417,26 +2435,26 @@
         <v>103</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I51" s="13">
-        <v>100100100100100</v>
+        <v>47</v>
+      </c>
+      <c r="I51" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="J51" s="6">
         <v>4</v>
       </c>
       <c r="K51" s="14">
-        <v>72000003</v>
+        <v>72000002</v>
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="52" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="9"/>
       <c r="C52" s="6">
-        <v>5204</v>
+        <v>5104</v>
       </c>
       <c r="D52" s="6">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>56</v>
@@ -2448,26 +2466,26 @@
         <v>201</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I52" s="13">
-        <v>100100100100100</v>
+        <v>37</v>
+      </c>
+      <c r="I52" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="J52" s="6">
         <v>4</v>
       </c>
       <c r="K52" s="14">
-        <v>72000003</v>
+        <v>72000002</v>
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="53" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="9"/>
       <c r="C53" s="6">
-        <v>5205</v>
+        <v>5105</v>
       </c>
       <c r="D53" s="6">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>56</v>
@@ -2479,26 +2497,26 @@
         <v>202</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I53" s="13">
-        <v>100100100100100</v>
+        <v>37</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="J53" s="6">
         <v>4</v>
       </c>
       <c r="K53" s="14">
-        <v>72000003</v>
+        <v>72000002</v>
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="54" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="9"/>
       <c r="C54" s="6">
-        <v>5206</v>
+        <v>5106</v>
       </c>
       <c r="D54" s="6">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>56</v>
@@ -2510,26 +2528,26 @@
         <v>203</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I54" s="13">
-        <v>100100100100100</v>
+        <v>54</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>23</v>
       </c>
       <c r="J54" s="6">
         <v>4</v>
       </c>
       <c r="K54" s="14">
-        <v>72000003</v>
+        <v>72000002</v>
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="55" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="9"/>
       <c r="C55" s="6">
-        <v>5301</v>
+        <v>5201</v>
       </c>
       <c r="D55" s="6">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>56</v>
@@ -2541,26 +2559,26 @@
         <v>101</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I55" s="13">
-        <v>150150150150150</v>
+        <v>100100100100100</v>
       </c>
       <c r="J55" s="6">
         <v>4</v>
       </c>
       <c r="K55" s="14">
-        <v>72000004</v>
+        <v>72000003</v>
       </c>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="56" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="9"/>
       <c r="C56" s="6">
-        <v>5302</v>
+        <v>5202</v>
       </c>
       <c r="D56" s="6">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>56</v>
@@ -2572,26 +2590,26 @@
         <v>102</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I56" s="13">
-        <v>150150150150150</v>
+        <v>100100100100100</v>
       </c>
       <c r="J56" s="6">
         <v>4</v>
       </c>
       <c r="K56" s="14">
-        <v>72000004</v>
+        <v>72000003</v>
       </c>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="57" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="9"/>
       <c r="C57" s="6">
-        <v>5303</v>
+        <v>5203</v>
       </c>
       <c r="D57" s="6">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>56</v>
@@ -2603,26 +2621,26 @@
         <v>103</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I57" s="13">
-        <v>150150150150150</v>
+        <v>100100100100100</v>
       </c>
       <c r="J57" s="6">
         <v>4</v>
       </c>
       <c r="K57" s="14">
-        <v>72000004</v>
+        <v>72000003</v>
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="58" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="9"/>
       <c r="C58" s="6">
-        <v>5304</v>
+        <v>5204</v>
       </c>
       <c r="D58" s="6">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>56</v>
@@ -2634,26 +2652,26 @@
         <v>201</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I58" s="13">
-        <v>150150150150150</v>
+        <v>100100100100100</v>
       </c>
       <c r="J58" s="6">
         <v>4</v>
       </c>
       <c r="K58" s="14">
-        <v>72000004</v>
+        <v>72000003</v>
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="59" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="9"/>
       <c r="C59" s="6">
-        <v>5305</v>
+        <v>5205</v>
       </c>
       <c r="D59" s="6">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>56</v>
@@ -2665,26 +2683,26 @@
         <v>202</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I59" s="13">
-        <v>150150150150150</v>
+        <v>100100100100100</v>
       </c>
       <c r="J59" s="6">
         <v>4</v>
       </c>
       <c r="K59" s="14">
-        <v>72000004</v>
+        <v>72000003</v>
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="60" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="9"/>
       <c r="C60" s="6">
-        <v>5306</v>
+        <v>5206</v>
       </c>
       <c r="D60" s="6">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>56</v>
@@ -2696,26 +2714,26 @@
         <v>203</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I60" s="13">
-        <v>150150150150150</v>
+        <v>100100100100100</v>
       </c>
       <c r="J60" s="6">
         <v>4</v>
       </c>
       <c r="K60" s="14">
-        <v>72000004</v>
+        <v>72000003</v>
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="61" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="9"/>
       <c r="C61" s="6">
-        <v>5401</v>
+        <v>5301</v>
       </c>
       <c r="D61" s="6">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>56</v>
@@ -2727,26 +2745,26 @@
         <v>101</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I61" s="13">
-        <v>200200200200200</v>
+        <v>150150150150150</v>
       </c>
       <c r="J61" s="6">
         <v>4</v>
       </c>
       <c r="K61" s="14">
-        <v>72000005</v>
+        <v>72000004</v>
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="62" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="9"/>
       <c r="C62" s="6">
-        <v>5402</v>
+        <v>5302</v>
       </c>
       <c r="D62" s="6">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>56</v>
@@ -2758,26 +2776,26 @@
         <v>102</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I62" s="13">
-        <v>200200200200200</v>
+        <v>150150150150150</v>
       </c>
       <c r="J62" s="6">
         <v>4</v>
       </c>
       <c r="K62" s="14">
-        <v>72000005</v>
+        <v>72000004</v>
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="63" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="9"/>
       <c r="C63" s="6">
-        <v>5403</v>
+        <v>5303</v>
       </c>
       <c r="D63" s="6">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>56</v>
@@ -2789,26 +2807,26 @@
         <v>103</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I63" s="13">
-        <v>200200200200200</v>
+        <v>150150150150150</v>
       </c>
       <c r="J63" s="6">
         <v>4</v>
       </c>
       <c r="K63" s="14">
-        <v>72000005</v>
+        <v>72000004</v>
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="64" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="9"/>
       <c r="C64" s="6">
-        <v>5404</v>
+        <v>5304</v>
       </c>
       <c r="D64" s="6">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>56</v>
@@ -2820,26 +2838,26 @@
         <v>201</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I64" s="13">
-        <v>200200200200200</v>
+        <v>150150150150150</v>
       </c>
       <c r="J64" s="6">
         <v>4</v>
       </c>
       <c r="K64" s="14">
-        <v>72000005</v>
+        <v>72000004</v>
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="65" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="9"/>
       <c r="C65" s="6">
-        <v>5405</v>
+        <v>5305</v>
       </c>
       <c r="D65" s="6">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>56</v>
@@ -2851,26 +2869,26 @@
         <v>202</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I65" s="13">
-        <v>200200200200200</v>
+        <v>150150150150150</v>
       </c>
       <c r="J65" s="6">
         <v>4</v>
       </c>
       <c r="K65" s="14">
-        <v>72000005</v>
+        <v>72000004</v>
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="66" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="9"/>
       <c r="C66" s="6">
-        <v>5406</v>
+        <v>5306</v>
       </c>
       <c r="D66" s="6">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>56</v>
@@ -2882,51 +2900,237 @@
         <v>203</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I66" s="13">
-        <v>200200200200200</v>
+        <v>150150150150150</v>
       </c>
       <c r="J66" s="6">
         <v>4</v>
       </c>
       <c r="K66" s="14">
-        <v>72000005</v>
+        <v>72000004</v>
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="67" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="9"/>
       <c r="C67" s="6">
+        <v>5401</v>
+      </c>
+      <c r="D67" s="6">
+        <v>55</v>
+      </c>
+      <c r="E67" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F67" s="6">
+        <v>1</v>
+      </c>
+      <c r="G67" s="6">
+        <v>101</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I67" s="13">
+        <v>200200200200200</v>
+      </c>
+      <c r="J67" s="6">
+        <v>4</v>
+      </c>
+      <c r="K67" s="14">
+        <v>72000005</v>
+      </c>
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="9"/>
+      <c r="C68" s="6">
+        <v>5402</v>
+      </c>
+      <c r="D68" s="6">
+        <v>55</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F68" s="6">
+        <v>1</v>
+      </c>
+      <c r="G68" s="6">
+        <v>102</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="I68" s="13">
+        <v>200200200200200</v>
+      </c>
+      <c r="J68" s="6">
+        <v>4</v>
+      </c>
+      <c r="K68" s="14">
+        <v>72000005</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B69" s="9"/>
+      <c r="C69" s="6">
+        <v>5403</v>
+      </c>
+      <c r="D69" s="6">
+        <v>55</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F69" s="6">
+        <v>1</v>
+      </c>
+      <c r="G69" s="6">
+        <v>103</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I69" s="13">
+        <v>200200200200200</v>
+      </c>
+      <c r="J69" s="6">
+        <v>4</v>
+      </c>
+      <c r="K69" s="14">
+        <v>72000005</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B70" s="9"/>
+      <c r="C70" s="6">
+        <v>5404</v>
+      </c>
+      <c r="D70" s="6">
+        <v>55</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F70" s="6">
+        <v>2</v>
+      </c>
+      <c r="G70" s="6">
+        <v>201</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I70" s="13">
+        <v>200200200200200</v>
+      </c>
+      <c r="J70" s="6">
+        <v>4</v>
+      </c>
+      <c r="K70" s="14">
+        <v>72000005</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="9"/>
+      <c r="C71" s="6">
+        <v>5405</v>
+      </c>
+      <c r="D71" s="6">
+        <v>55</v>
+      </c>
+      <c r="E71" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F71" s="6">
+        <v>2</v>
+      </c>
+      <c r="G71" s="6">
+        <v>202</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I71" s="13">
+        <v>200200200200200</v>
+      </c>
+      <c r="J71" s="6">
+        <v>4</v>
+      </c>
+      <c r="K71" s="14">
+        <v>72000005</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="9"/>
+      <c r="C72" s="6">
+        <v>5406</v>
+      </c>
+      <c r="D72" s="6">
+        <v>55</v>
+      </c>
+      <c r="E72" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F72" s="6">
+        <v>2</v>
+      </c>
+      <c r="G72" s="6">
+        <v>203</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I72" s="13">
+        <v>200200200200200</v>
+      </c>
+      <c r="J72" s="6">
+        <v>4</v>
+      </c>
+      <c r="K72" s="14">
+        <v>72000005</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B73" s="9"/>
+      <c r="C73" s="6">
         <v>5001</v>
       </c>
-      <c r="D67" s="6">
+      <c r="D73" s="6">
         <v>30</v>
       </c>
-      <c r="E67" s="6" t="s">
+      <c r="E73" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="F67" s="6">
-        <v>2</v>
-      </c>
-      <c r="G67" s="6">
+      <c r="F73" s="6">
+        <v>2</v>
+      </c>
+      <c r="G73" s="6">
         <v>203</v>
       </c>
-      <c r="H67" s="12" t="s">
+      <c r="H73" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="I67" s="13">
+      <c r="I73" s="13">
         <v>100100100100100</v>
       </c>
-      <c r="J67" s="6">
+      <c r="J73" s="6">
         <v>5</v>
       </c>
-      <c r="K67" s="6"/>
-      <c r="L67" s="4" t="s">
+      <c r="K73" s="6"/>
+      <c r="L73" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="68" spans="2:12" ht="20.100000000000001" customHeight="1"/>
+    <row r="74" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/RobotConfig.xlsx
+++ b/Excel/RobotConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3C742C-EEF0-4F1B-8CAD-A8C14C2723E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B054C75-E4CD-406B-BE26-8EECB44C0DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,7 +78,8 @@
 2   组队副本机器人
 3   战场机器人
 4   世界boos机器人
-5   角斗场机器人</t>
+5   角斗场机器人
+6   solo场机器人</t>
         </r>
       </text>
     </comment>
@@ -139,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="59">
   <si>
     <t>cs</t>
   </si>
@@ -348,6 +349,10 @@
   </si>
   <si>
     <t>角斗场</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solo机器人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -355,7 +360,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -789,11 +794,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:XFD74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="9.625" style="1" customWidth="1"/>
@@ -808,7 +813,7 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -824,7 +829,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -840,7 +845,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="8" t="s">
@@ -874,7 +879,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="8" t="s">
@@ -908,7 +913,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="8" t="s">
@@ -942,7 +947,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="9"/>
       <c r="C6" s="6">
         <v>1001</v>
@@ -969,7 +974,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="9"/>
       <c r="C7" s="6">
         <v>2101</v>
@@ -1002,7 +1007,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="9"/>
       <c r="C8" s="6">
         <v>2102</v>
@@ -1035,7 +1040,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="9"/>
       <c r="C9" s="6">
         <v>2103</v>
@@ -1068,7 +1073,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="9"/>
       <c r="C10" s="6">
         <v>2104</v>
@@ -1101,7 +1106,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="9"/>
       <c r="C11" s="6">
         <v>2105</v>
@@ -1134,7 +1139,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="9"/>
       <c r="C12" s="6">
         <v>2106</v>
@@ -1167,7 +1172,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="9"/>
       <c r="C13" s="6">
         <f>C7+100</f>
@@ -1201,7 +1206,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="9"/>
       <c r="C14" s="6">
         <f t="shared" ref="C14:C36" si="0">C8+100</f>
@@ -1235,7 +1240,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="6">
         <f t="shared" si="0"/>
@@ -1269,7 +1274,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="9"/>
       <c r="C16" s="6">
         <f t="shared" si="0"/>
@@ -1303,7 +1308,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="9"/>
       <c r="C17" s="6">
         <f t="shared" si="0"/>
@@ -1337,7 +1342,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="9"/>
       <c r="C18" s="6">
         <f t="shared" si="0"/>
@@ -1371,7 +1376,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="9"/>
       <c r="C19" s="6">
         <f t="shared" si="0"/>
@@ -1405,7 +1410,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="9"/>
       <c r="C20" s="6">
         <f t="shared" si="0"/>
@@ -1439,7 +1444,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="9"/>
       <c r="C21" s="6">
         <f t="shared" si="0"/>
@@ -1473,7 +1478,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="9"/>
       <c r="C22" s="6">
         <f t="shared" si="0"/>
@@ -1507,7 +1512,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="9"/>
       <c r="C23" s="6">
         <f t="shared" si="0"/>
@@ -1541,7 +1546,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="9"/>
       <c r="C24" s="6">
         <f t="shared" si="0"/>
@@ -1575,7 +1580,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="9"/>
       <c r="C25" s="6">
         <f t="shared" si="0"/>
@@ -1609,7 +1614,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B26" s="9"/>
       <c r="C26" s="6">
         <f t="shared" si="0"/>
@@ -1643,7 +1648,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="9"/>
       <c r="C27" s="6">
         <f t="shared" si="0"/>
@@ -1677,7 +1682,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B28" s="9"/>
       <c r="C28" s="6">
         <f t="shared" si="0"/>
@@ -1711,7 +1716,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B29" s="9"/>
       <c r="C29" s="6">
         <f t="shared" si="0"/>
@@ -1745,7 +1750,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B30" s="9"/>
       <c r="C30" s="6">
         <f t="shared" si="0"/>
@@ -1779,7 +1784,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B31" s="9"/>
       <c r="C31" s="6">
         <f t="shared" si="0"/>
@@ -1813,7 +1818,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B32" s="9"/>
       <c r="C32" s="6">
         <f t="shared" si="0"/>
@@ -1847,7 +1852,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B33" s="9"/>
       <c r="C33" s="6">
         <f t="shared" si="0"/>
@@ -1881,7 +1886,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B34" s="9"/>
       <c r="C34" s="6">
         <f t="shared" si="0"/>
@@ -1915,7 +1920,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B35" s="9"/>
       <c r="C35" s="6">
         <f t="shared" si="0"/>
@@ -1949,7 +1954,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B36" s="9"/>
       <c r="C36" s="6">
         <f t="shared" si="0"/>
@@ -1983,7 +1988,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B37" s="9"/>
       <c r="C37" s="6">
         <v>3001</v>
@@ -2014,7 +2019,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B38" s="9"/>
       <c r="C38" s="6">
         <v>3002</v>
@@ -2045,7 +2050,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B39" s="9"/>
       <c r="C39" s="6">
         <v>3003</v>
@@ -2076,7 +2081,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B40" s="9"/>
       <c r="C40" s="6">
         <v>3004</v>
@@ -2107,7 +2112,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B41" s="9"/>
       <c r="C41" s="6">
         <v>3005</v>
@@ -2138,7 +2143,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B42" s="9"/>
       <c r="C42" s="6">
         <v>3006</v>
@@ -2169,7 +2174,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B43" s="9"/>
       <c r="C43" s="6">
         <v>3051</v>
@@ -2200,7 +2205,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B44" s="9"/>
       <c r="C44" s="6">
         <v>3052</v>
@@ -2231,7 +2236,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B45" s="9"/>
       <c r="C45" s="6">
         <v>3053</v>
@@ -2262,7 +2267,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B46" s="9"/>
       <c r="C46" s="6">
         <v>3054</v>
@@ -2293,7 +2298,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B47" s="9"/>
       <c r="C47" s="6">
         <v>3055</v>
@@ -2324,7 +2329,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B48" s="9"/>
       <c r="C48" s="6">
         <v>3056</v>
@@ -2355,7 +2360,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B49" s="9"/>
       <c r="C49" s="6">
         <v>5101</v>
@@ -2386,7 +2391,7 @@
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B50" s="9"/>
       <c r="C50" s="6">
         <v>5102</v>
@@ -2417,7 +2422,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B51" s="9"/>
       <c r="C51" s="6">
         <v>5103</v>
@@ -2448,7 +2453,7 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B52" s="9"/>
       <c r="C52" s="6">
         <v>5104</v>
@@ -2479,7 +2484,7 @@
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B53" s="9"/>
       <c r="C53" s="6">
         <v>5105</v>
@@ -2510,7 +2515,7 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B54" s="9"/>
       <c r="C54" s="6">
         <v>5106</v>
@@ -2541,7 +2546,7 @@
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B55" s="9"/>
       <c r="C55" s="6">
         <v>5201</v>
@@ -2572,7 +2577,7 @@
       </c>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B56" s="9"/>
       <c r="C56" s="6">
         <v>5202</v>
@@ -2603,7 +2608,7 @@
       </c>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B57" s="9"/>
       <c r="C57" s="6">
         <v>5203</v>
@@ -2634,7 +2639,7 @@
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B58" s="9"/>
       <c r="C58" s="6">
         <v>5204</v>
@@ -2665,7 +2670,7 @@
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B59" s="9"/>
       <c r="C59" s="6">
         <v>5205</v>
@@ -2696,7 +2701,7 @@
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B60" s="9"/>
       <c r="C60" s="6">
         <v>5206</v>
@@ -2727,7 +2732,7 @@
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B61" s="9"/>
       <c r="C61" s="6">
         <v>5301</v>
@@ -2758,7 +2763,7 @@
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B62" s="9"/>
       <c r="C62" s="6">
         <v>5302</v>
@@ -2789,7 +2794,7 @@
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B63" s="9"/>
       <c r="C63" s="6">
         <v>5303</v>
@@ -2820,7 +2825,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B64" s="9"/>
       <c r="C64" s="6">
         <v>5304</v>
@@ -2851,7 +2856,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B65" s="9"/>
       <c r="C65" s="6">
         <v>5305</v>
@@ -2882,7 +2887,7 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B66" s="9"/>
       <c r="C66" s="6">
         <v>5306</v>
@@ -2913,7 +2918,7 @@
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B67" s="9"/>
       <c r="C67" s="6">
         <v>5401</v>
@@ -2944,7 +2949,7 @@
       </c>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B68" s="9"/>
       <c r="C68" s="6">
         <v>5402</v>
@@ -2975,7 +2980,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B69" s="9"/>
       <c r="C69" s="6">
         <v>5403</v>
@@ -3006,7 +3011,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B70" s="9"/>
       <c r="C70" s="6">
         <v>5404</v>
@@ -3037,7 +3042,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B71" s="9"/>
       <c r="C71" s="6">
         <v>5405</v>
@@ -3068,7 +3073,7 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B72" s="9"/>
       <c r="C72" s="6">
         <v>5406</v>
@@ -3099,7 +3104,7 @@
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B73" s="9"/>
       <c r="C73" s="6">
         <v>5001</v>
@@ -3130,7 +3135,32 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="C74" s="6">
+        <v>6001</v>
+      </c>
+      <c r="D74" s="6">
+        <v>40</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F74" s="2">
+        <v>2</v>
+      </c>
+      <c r="G74" s="2">
+        <v>203</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I74" s="13">
+        <v>200200200200200</v>
+      </c>
+      <c r="J74" s="2">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/RobotConfig.xlsx
+++ b/Excel/RobotConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B054C75-E4CD-406B-BE26-8EECB44C0DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F24089-054E-4BDF-9926-7D1B11D96E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RobotConfig" sheetId="6" r:id="rId1"/>
@@ -794,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:XFD74"/>
+    <sheetView tabSelected="1" topLeftCell="F67" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Excel/RobotConfig.xlsx
+++ b/Excel/RobotConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3F24089-054E-4BDF-9926-7D1B11D96E27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF908E08-A32D-4EBB-8127-D7AA97C562AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RobotConfig" sheetId="6" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="60">
   <si>
     <t>cs</t>
   </si>
@@ -353,6 +353,10 @@
   </si>
   <si>
     <t>Solo机器人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,1000,1000,1000,1000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -360,7 +364,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -475,7 +479,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -513,6 +517,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -794,11 +801,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F67" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="9.625" style="1" customWidth="1"/>
@@ -813,7 +820,7 @@
     <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -829,7 +836,7 @@
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
     </row>
-    <row r="2" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="2" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -845,7 +852,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="8" t="s">
@@ -879,7 +886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="6"/>
       <c r="C4" s="8" t="s">
@@ -913,7 +920,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="8" t="s">
@@ -947,7 +954,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="6" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="9"/>
       <c r="C6" s="6">
         <v>1001</v>
@@ -974,7 +981,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="11"/>
     </row>
-    <row r="7" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="7" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9"/>
       <c r="C7" s="6">
         <v>2101</v>
@@ -994,8 +1001,8 @@
       <c r="H7" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>23</v>
+      <c r="I7" s="13">
+        <v>200200200200200</v>
       </c>
       <c r="J7" s="10">
         <v>2</v>
@@ -1007,7 +1014,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="8" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="9"/>
       <c r="C8" s="6">
         <v>2102</v>
@@ -1027,8 +1034,8 @@
       <c r="H8" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>23</v>
+      <c r="I8" s="13">
+        <v>200200200200200</v>
       </c>
       <c r="J8" s="10">
         <v>2</v>
@@ -1040,7 +1047,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="9" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9"/>
       <c r="C9" s="6">
         <v>2103</v>
@@ -1060,8 +1067,8 @@
       <c r="H9" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="I9" s="6" t="s">
-        <v>23</v>
+      <c r="I9" s="13">
+        <v>200200200200200</v>
       </c>
       <c r="J9" s="10">
         <v>2</v>
@@ -1073,7 +1080,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="10" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9"/>
       <c r="C10" s="6">
         <v>2104</v>
@@ -1093,8 +1100,8 @@
       <c r="H10" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>23</v>
+      <c r="I10" s="13">
+        <v>200200200200200</v>
       </c>
       <c r="J10" s="10">
         <v>2</v>
@@ -1106,7 +1113,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="11" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9"/>
       <c r="C11" s="6">
         <v>2105</v>
@@ -1126,8 +1133,8 @@
       <c r="H11" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I11" s="6" t="s">
-        <v>23</v>
+      <c r="I11" s="13">
+        <v>200200200200200</v>
       </c>
       <c r="J11" s="10">
         <v>2</v>
@@ -1139,7 +1146,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="12" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9"/>
       <c r="C12" s="6">
         <v>2106</v>
@@ -1159,8 +1166,8 @@
       <c r="H12" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="6" t="s">
-        <v>23</v>
+      <c r="I12" s="13">
+        <v>200200200200200</v>
       </c>
       <c r="J12" s="10">
         <v>2</v>
@@ -1172,7 +1179,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="13" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="9"/>
       <c r="C13" s="6">
         <f>C7+100</f>
@@ -1194,7 +1201,7 @@
         <v>48</v>
       </c>
       <c r="I13" s="13">
-        <v>100100100100100</v>
+        <v>400400400400400</v>
       </c>
       <c r="J13" s="10">
         <v>2</v>
@@ -1206,7 +1213,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="14" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="9"/>
       <c r="C14" s="6">
         <f t="shared" ref="C14:C36" si="0">C8+100</f>
@@ -1228,7 +1235,7 @@
         <v>48</v>
       </c>
       <c r="I14" s="13">
-        <v>100100100100100</v>
+        <v>400400400400400</v>
       </c>
       <c r="J14" s="10">
         <v>2</v>
@@ -1240,7 +1247,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="9"/>
       <c r="C15" s="6">
         <f t="shared" si="0"/>
@@ -1262,7 +1269,7 @@
         <v>49</v>
       </c>
       <c r="I15" s="13">
-        <v>100100100100100</v>
+        <v>400400400400400</v>
       </c>
       <c r="J15" s="10">
         <v>2</v>
@@ -1274,7 +1281,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="16" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="9"/>
       <c r="C16" s="6">
         <f t="shared" si="0"/>
@@ -1296,7 +1303,7 @@
         <v>39</v>
       </c>
       <c r="I16" s="13">
-        <v>100100100100100</v>
+        <v>400400400400400</v>
       </c>
       <c r="J16" s="10">
         <v>2</v>
@@ -1308,7 +1315,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="17" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="9"/>
       <c r="C17" s="6">
         <f t="shared" si="0"/>
@@ -1330,7 +1337,7 @@
         <v>39</v>
       </c>
       <c r="I17" s="13">
-        <v>100100100100100</v>
+        <v>400400400400400</v>
       </c>
       <c r="J17" s="10">
         <v>2</v>
@@ -1342,7 +1349,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="18" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="9"/>
       <c r="C18" s="6">
         <f t="shared" si="0"/>
@@ -1364,7 +1371,7 @@
         <v>38</v>
       </c>
       <c r="I18" s="13">
-        <v>100100100100100</v>
+        <v>400400400400400</v>
       </c>
       <c r="J18" s="10">
         <v>2</v>
@@ -1376,7 +1383,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="19" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="9"/>
       <c r="C19" s="6">
         <f t="shared" si="0"/>
@@ -1398,7 +1405,7 @@
         <v>50</v>
       </c>
       <c r="I19" s="13">
-        <v>150150150150150</v>
+        <v>600600600600600</v>
       </c>
       <c r="J19" s="10">
         <v>2</v>
@@ -1410,7 +1417,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="20" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="9"/>
       <c r="C20" s="6">
         <f t="shared" si="0"/>
@@ -1432,7 +1439,7 @@
         <v>50</v>
       </c>
       <c r="I20" s="13">
-        <v>150150150150150</v>
+        <v>600600600600600</v>
       </c>
       <c r="J20" s="10">
         <v>2</v>
@@ -1444,7 +1451,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="9"/>
       <c r="C21" s="6">
         <f t="shared" si="0"/>
@@ -1466,7 +1473,7 @@
         <v>51</v>
       </c>
       <c r="I21" s="13">
-        <v>150150150150150</v>
+        <v>600600600600600</v>
       </c>
       <c r="J21" s="10">
         <v>2</v>
@@ -1478,7 +1485,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="22" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="9"/>
       <c r="C22" s="6">
         <f t="shared" si="0"/>
@@ -1500,7 +1507,7 @@
         <v>41</v>
       </c>
       <c r="I22" s="13">
-        <v>150150150150150</v>
+        <v>600600600600600</v>
       </c>
       <c r="J22" s="10">
         <v>2</v>
@@ -1512,7 +1519,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="23" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="9"/>
       <c r="C23" s="6">
         <f t="shared" si="0"/>
@@ -1534,7 +1541,7 @@
         <v>41</v>
       </c>
       <c r="I23" s="13">
-        <v>150150150150150</v>
+        <v>600600600600600</v>
       </c>
       <c r="J23" s="10">
         <v>2</v>
@@ -1546,7 +1553,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="24" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="9"/>
       <c r="C24" s="6">
         <f t="shared" si="0"/>
@@ -1568,7 +1575,7 @@
         <v>40</v>
       </c>
       <c r="I24" s="13">
-        <v>150150150150150</v>
+        <v>600600600600600</v>
       </c>
       <c r="J24" s="10">
         <v>2</v>
@@ -1580,7 +1587,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="25" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="9"/>
       <c r="C25" s="6">
         <f t="shared" si="0"/>
@@ -1602,7 +1609,7 @@
         <v>52</v>
       </c>
       <c r="I25" s="13">
-        <v>200200200200200</v>
+        <v>800800800800800</v>
       </c>
       <c r="J25" s="10">
         <v>2</v>
@@ -1614,7 +1621,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="26" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="9"/>
       <c r="C26" s="6">
         <f t="shared" si="0"/>
@@ -1636,7 +1643,7 @@
         <v>52</v>
       </c>
       <c r="I26" s="13">
-        <v>200200200200200</v>
+        <v>800800800800800</v>
       </c>
       <c r="J26" s="10">
         <v>2</v>
@@ -1648,7 +1655,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="27" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="9"/>
       <c r="C27" s="6">
         <f t="shared" si="0"/>
@@ -1670,7 +1677,7 @@
         <v>53</v>
       </c>
       <c r="I27" s="13">
-        <v>200200200200200</v>
+        <v>800800800800800</v>
       </c>
       <c r="J27" s="10">
         <v>2</v>
@@ -1682,7 +1689,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="28" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="9"/>
       <c r="C28" s="6">
         <f t="shared" si="0"/>
@@ -1704,7 +1711,7 @@
         <v>43</v>
       </c>
       <c r="I28" s="13">
-        <v>200200200200200</v>
+        <v>800800800800800</v>
       </c>
       <c r="J28" s="10">
         <v>2</v>
@@ -1716,7 +1723,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="29" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="9"/>
       <c r="C29" s="6">
         <f t="shared" si="0"/>
@@ -1738,7 +1745,7 @@
         <v>43</v>
       </c>
       <c r="I29" s="13">
-        <v>200200200200200</v>
+        <v>800800800800800</v>
       </c>
       <c r="J29" s="10">
         <v>2</v>
@@ -1750,7 +1757,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="30" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="9"/>
       <c r="C30" s="6">
         <f t="shared" si="0"/>
@@ -1772,7 +1779,7 @@
         <v>42</v>
       </c>
       <c r="I30" s="13">
-        <v>200200200200200</v>
+        <v>800800800800800</v>
       </c>
       <c r="J30" s="10">
         <v>2</v>
@@ -1784,7 +1791,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="31" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="9"/>
       <c r="C31" s="6">
         <f t="shared" si="0"/>
@@ -1805,8 +1812,8 @@
       <c r="H31" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="I31" s="13">
-        <v>200200200200200</v>
+      <c r="I31" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="J31" s="10">
         <v>2</v>
@@ -1818,7 +1825,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="32" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="9"/>
       <c r="C32" s="6">
         <f t="shared" si="0"/>
@@ -1839,8 +1846,8 @@
       <c r="H32" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="I32" s="13">
-        <v>200200200200200</v>
+      <c r="I32" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="J32" s="10">
         <v>2</v>
@@ -1852,7 +1859,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="33" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="9"/>
       <c r="C33" s="6">
         <f t="shared" si="0"/>
@@ -1873,8 +1880,8 @@
       <c r="H33" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="I33" s="13">
-        <v>200200200200200</v>
+      <c r="I33" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="J33" s="10">
         <v>2</v>
@@ -1886,7 +1893,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="34" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="9"/>
       <c r="C34" s="6">
         <f t="shared" si="0"/>
@@ -1907,8 +1914,8 @@
       <c r="H34" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="I34" s="13">
-        <v>200200200200200</v>
+      <c r="I34" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="J34" s="10">
         <v>2</v>
@@ -1920,7 +1927,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="35" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="9"/>
       <c r="C35" s="6">
         <f t="shared" si="0"/>
@@ -1941,8 +1948,8 @@
       <c r="H35" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="I35" s="13">
-        <v>200200200200200</v>
+      <c r="I35" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="J35" s="10">
         <v>2</v>
@@ -1954,7 +1961,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="36" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="9"/>
       <c r="C36" s="6">
         <f t="shared" si="0"/>
@@ -1975,8 +1982,8 @@
       <c r="H36" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="I36" s="13">
-        <v>200200200200200</v>
+      <c r="I36" s="15" t="s">
+        <v>59</v>
       </c>
       <c r="J36" s="10">
         <v>2</v>
@@ -1988,7 +1995,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="37" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="9"/>
       <c r="C37" s="6">
         <v>3001</v>
@@ -2008,8 +2015,8 @@
       <c r="H37" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="I37" s="6" t="s">
-        <v>23</v>
+      <c r="I37" s="13">
+        <v>300300300300300</v>
       </c>
       <c r="J37" s="6">
         <v>3</v>
@@ -2019,7 +2026,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="38" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="9"/>
       <c r="C38" s="6">
         <v>3002</v>
@@ -2039,8 +2046,8 @@
       <c r="H38" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="I38" s="6" t="s">
-        <v>23</v>
+      <c r="I38" s="13">
+        <v>300300300300300</v>
       </c>
       <c r="J38" s="6">
         <v>3</v>
@@ -2050,7 +2057,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="39" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="9"/>
       <c r="C39" s="6">
         <v>3003</v>
@@ -2070,8 +2077,8 @@
       <c r="H39" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="I39" s="6" t="s">
-        <v>23</v>
+      <c r="I39" s="13">
+        <v>300300300300300</v>
       </c>
       <c r="J39" s="6">
         <v>3</v>
@@ -2081,7 +2088,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="40" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="9"/>
       <c r="C40" s="6">
         <v>3004</v>
@@ -2101,8 +2108,8 @@
       <c r="H40" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I40" s="6" t="s">
-        <v>23</v>
+      <c r="I40" s="13">
+        <v>300300300300300</v>
       </c>
       <c r="J40" s="6">
         <v>3</v>
@@ -2112,7 +2119,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="41" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="9"/>
       <c r="C41" s="6">
         <v>3005</v>
@@ -2132,8 +2139,8 @@
       <c r="H41" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="I41" s="6" t="s">
-        <v>23</v>
+      <c r="I41" s="13">
+        <v>300300300300300</v>
       </c>
       <c r="J41" s="6">
         <v>3</v>
@@ -2143,7 +2150,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="42" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="9"/>
       <c r="C42" s="6">
         <v>3006</v>
@@ -2163,8 +2170,8 @@
       <c r="H42" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="I42" s="6" t="s">
-        <v>23</v>
+      <c r="I42" s="13">
+        <v>300300300300300</v>
       </c>
       <c r="J42" s="6">
         <v>3</v>
@@ -2174,7 +2181,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="43" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="9"/>
       <c r="C43" s="6">
         <v>3051</v>
@@ -2195,7 +2202,7 @@
         <v>48</v>
       </c>
       <c r="I43" s="13">
-        <v>100100100100100</v>
+        <v>600600600600600</v>
       </c>
       <c r="J43" s="6">
         <v>3</v>
@@ -2205,7 +2212,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="44" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="9"/>
       <c r="C44" s="6">
         <v>3052</v>
@@ -2226,7 +2233,7 @@
         <v>48</v>
       </c>
       <c r="I44" s="13">
-        <v>100100100100100</v>
+        <v>600600600600600</v>
       </c>
       <c r="J44" s="6">
         <v>3</v>
@@ -2236,7 +2243,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="45" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="45" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="9"/>
       <c r="C45" s="6">
         <v>3053</v>
@@ -2257,7 +2264,7 @@
         <v>49</v>
       </c>
       <c r="I45" s="13">
-        <v>100100100100100</v>
+        <v>600600600600600</v>
       </c>
       <c r="J45" s="6">
         <v>3</v>
@@ -2267,7 +2274,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="46" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="9"/>
       <c r="C46" s="6">
         <v>3054</v>
@@ -2288,7 +2295,7 @@
         <v>39</v>
       </c>
       <c r="I46" s="13">
-        <v>100100100100100</v>
+        <v>600600600600600</v>
       </c>
       <c r="J46" s="6">
         <v>3</v>
@@ -2298,7 +2305,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="47" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="9"/>
       <c r="C47" s="6">
         <v>3055</v>
@@ -2319,7 +2326,7 @@
         <v>39</v>
       </c>
       <c r="I47" s="13">
-        <v>100100100100100</v>
+        <v>600600600600600</v>
       </c>
       <c r="J47" s="6">
         <v>3</v>
@@ -2329,7 +2336,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="48" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="9"/>
       <c r="C48" s="6">
         <v>3056</v>
@@ -2350,7 +2357,7 @@
         <v>38</v>
       </c>
       <c r="I48" s="13">
-        <v>100100100100100</v>
+        <v>600600600600600</v>
       </c>
       <c r="J48" s="6">
         <v>3</v>
@@ -2360,7 +2367,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="49" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="9"/>
       <c r="C49" s="6">
         <v>5101</v>
@@ -2391,7 +2398,7 @@
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="50" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="9"/>
       <c r="C50" s="6">
         <v>5102</v>
@@ -2422,7 +2429,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="51" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="9"/>
       <c r="C51" s="6">
         <v>5103</v>
@@ -2453,7 +2460,7 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="52" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="9"/>
       <c r="C52" s="6">
         <v>5104</v>
@@ -2484,7 +2491,7 @@
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="53" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="9"/>
       <c r="C53" s="6">
         <v>5105</v>
@@ -2515,7 +2522,7 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="54" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="9"/>
       <c r="C54" s="6">
         <v>5106</v>
@@ -2546,7 +2553,7 @@
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="55" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="9"/>
       <c r="C55" s="6">
         <v>5201</v>
@@ -2577,7 +2584,7 @@
       </c>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="56" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="9"/>
       <c r="C56" s="6">
         <v>5202</v>
@@ -2608,7 +2615,7 @@
       </c>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="57" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="9"/>
       <c r="C57" s="6">
         <v>5203</v>
@@ -2639,7 +2646,7 @@
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="58" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="9"/>
       <c r="C58" s="6">
         <v>5204</v>
@@ -2670,7 +2677,7 @@
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="59" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="9"/>
       <c r="C59" s="6">
         <v>5205</v>
@@ -2701,7 +2708,7 @@
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="60" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="9"/>
       <c r="C60" s="6">
         <v>5206</v>
@@ -2732,7 +2739,7 @@
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="61" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="9"/>
       <c r="C61" s="6">
         <v>5301</v>
@@ -2763,7 +2770,7 @@
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="62" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="9"/>
       <c r="C62" s="6">
         <v>5302</v>
@@ -2794,7 +2801,7 @@
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="63" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="9"/>
       <c r="C63" s="6">
         <v>5303</v>
@@ -2825,7 +2832,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="64" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="9"/>
       <c r="C64" s="6">
         <v>5304</v>
@@ -2856,7 +2863,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="65" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="9"/>
       <c r="C65" s="6">
         <v>5305</v>
@@ -2887,7 +2894,7 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="66" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="9"/>
       <c r="C66" s="6">
         <v>5306</v>
@@ -2918,7 +2925,7 @@
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="67" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="9"/>
       <c r="C67" s="6">
         <v>5401</v>
@@ -2949,7 +2956,7 @@
       </c>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="68" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="9"/>
       <c r="C68" s="6">
         <v>5402</v>
@@ -2980,7 +2987,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="69" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="9"/>
       <c r="C69" s="6">
         <v>5403</v>
@@ -3011,7 +3018,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="70" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="9"/>
       <c r="C70" s="6">
         <v>5404</v>
@@ -3042,7 +3049,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="71" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="9"/>
       <c r="C71" s="6">
         <v>5405</v>
@@ -3073,7 +3080,7 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="72" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="9"/>
       <c r="C72" s="6">
         <v>5406</v>
@@ -3104,7 +3111,7 @@
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="73" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="9"/>
       <c r="C73" s="6">
         <v>5001</v>
@@ -3135,7 +3142,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="2:12" ht="20.100000000000001" customHeight="1">
+    <row r="74" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C74" s="6">
         <v>6001</v>
       </c>

--- a/Excel/RobotConfig.xlsx
+++ b/Excel/RobotConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF908E08-A32D-4EBB-8127-D7AA97C562AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052739F0-44C5-4422-A56D-1ADEBCA6E468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RobotConfig" sheetId="6" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="62">
   <si>
     <t>cs</t>
   </si>
@@ -340,10 +340,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>15201004,15202004,15203004,15203004,15204004,15205004,15206002,15207002,15208002,15209002,15211004</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>世界BOSS机器人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -357,6 +353,18 @@
   </si>
   <si>
     <t>1000,1000,1000,1000,1000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>布甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>重甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>轻甲</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -801,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="I70" sqref="I70"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -813,8 +821,9 @@
     <col min="5" max="5" width="17.875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.625" style="2" customWidth="1"/>
     <col min="7" max="7" width="23.5" style="2" customWidth="1"/>
-    <col min="8" max="9" width="31.375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="49.875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="111.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17.875" style="1" customWidth="1"/>
     <col min="12" max="12" width="31.375" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9" style="1"/>
@@ -982,7 +991,9 @@
       <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="9"/>
+      <c r="B7" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="C7" s="6">
         <v>2101</v>
       </c>
@@ -999,7 +1010,7 @@
         <v>101</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="I7" s="13">
         <v>200200200200200</v>
@@ -1015,7 +1026,9 @@
       </c>
     </row>
     <row r="8" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="9"/>
+      <c r="B8" s="9" t="s">
+        <v>61</v>
+      </c>
       <c r="C8" s="6">
         <v>2102</v>
       </c>
@@ -1032,7 +1045,7 @@
         <v>102</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I8" s="13">
         <v>200200200200200</v>
@@ -1048,7 +1061,9 @@
       </c>
     </row>
     <row r="9" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="9"/>
+      <c r="B9" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="C9" s="6">
         <v>2103</v>
       </c>
@@ -1081,7 +1096,9 @@
       </c>
     </row>
     <row r="10" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="C10" s="6">
         <v>2104</v>
       </c>
@@ -1098,7 +1115,7 @@
         <v>201</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I10" s="13">
         <v>200200200200200</v>
@@ -1114,7 +1131,9 @@
       </c>
     </row>
     <row r="11" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="9"/>
+      <c r="B11" s="9" t="s">
+        <v>59</v>
+      </c>
       <c r="C11" s="6">
         <v>2105</v>
       </c>
@@ -1131,7 +1150,7 @@
         <v>202</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I11" s="13">
         <v>200200200200200</v>
@@ -1147,7 +1166,9 @@
       </c>
     </row>
     <row r="12" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="9"/>
+      <c r="B12" s="9" t="s">
+        <v>60</v>
+      </c>
       <c r="C12" s="6">
         <v>2106</v>
       </c>
@@ -1198,7 +1219,7 @@
         <v>101</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I13" s="13">
         <v>400400400400400</v>
@@ -1232,7 +1253,7 @@
         <v>102</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I14" s="13">
         <v>400400400400400</v>
@@ -1300,7 +1321,7 @@
         <v>201</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I16" s="13">
         <v>400400400400400</v>
@@ -1334,7 +1355,7 @@
         <v>202</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I17" s="13">
         <v>400400400400400</v>
@@ -1402,7 +1423,7 @@
         <v>101</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I19" s="13">
         <v>600600600600600</v>
@@ -1436,7 +1457,7 @@
         <v>102</v>
       </c>
       <c r="H20" s="12" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I20" s="13">
         <v>600600600600600</v>
@@ -1504,7 +1525,7 @@
         <v>201</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I22" s="13">
         <v>600600600600600</v>
@@ -1538,7 +1559,7 @@
         <v>202</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I23" s="13">
         <v>600600600600600</v>
@@ -1606,7 +1627,7 @@
         <v>101</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I25" s="13">
         <v>800800800800800</v>
@@ -1640,7 +1661,7 @@
         <v>102</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I26" s="13">
         <v>800800800800800</v>
@@ -1708,7 +1729,7 @@
         <v>201</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I28" s="13">
         <v>800800800800800</v>
@@ -1742,7 +1763,7 @@
         <v>202</v>
       </c>
       <c r="H29" s="12" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I29" s="13">
         <v>800800800800800</v>
@@ -1810,10 +1831,10 @@
         <v>101</v>
       </c>
       <c r="H31" s="12" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I31" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J31" s="10">
         <v>2</v>
@@ -1844,10 +1865,10 @@
         <v>102</v>
       </c>
       <c r="H32" s="12" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I32" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J32" s="10">
         <v>2</v>
@@ -1881,7 +1902,7 @@
         <v>53</v>
       </c>
       <c r="I33" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J33" s="10">
         <v>2</v>
@@ -1912,10 +1933,10 @@
         <v>201</v>
       </c>
       <c r="H34" s="12" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I34" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J34" s="10">
         <v>2</v>
@@ -1946,10 +1967,10 @@
         <v>202</v>
       </c>
       <c r="H35" s="12" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I35" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J35" s="10">
         <v>2</v>
@@ -1983,7 +2004,7 @@
         <v>42</v>
       </c>
       <c r="I36" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J36" s="10">
         <v>2</v>
@@ -2013,7 +2034,7 @@
         <v>101</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I37" s="13">
         <v>300300300300300</v>
@@ -2044,7 +2065,7 @@
         <v>102</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I38" s="13">
         <v>300300300300300</v>
@@ -2106,7 +2127,7 @@
         <v>201</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I40" s="13">
         <v>300300300300300</v>
@@ -2137,7 +2158,7 @@
         <v>202</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I41" s="13">
         <v>300300300300300</v>
@@ -2199,7 +2220,7 @@
         <v>101</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I43" s="13">
         <v>600600600600600</v>
@@ -2230,7 +2251,7 @@
         <v>102</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I44" s="13">
         <v>600600600600600</v>
@@ -2292,7 +2313,7 @@
         <v>201</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I46" s="13">
         <v>600600600600600</v>
@@ -2323,7 +2344,7 @@
         <v>202</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I47" s="13">
         <v>600600600600600</v>
@@ -2376,7 +2397,7 @@
         <v>20</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F49" s="6">
         <v>1</v>
@@ -2385,7 +2406,7 @@
         <v>101</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="I49" s="6" t="s">
         <v>23</v>
@@ -2407,7 +2428,7 @@
         <v>20</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F50" s="6">
         <v>1</v>
@@ -2416,7 +2437,7 @@
         <v>102</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I50" s="6" t="s">
         <v>23</v>
@@ -2438,7 +2459,7 @@
         <v>20</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F51" s="6">
         <v>1</v>
@@ -2469,7 +2490,7 @@
         <v>20</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F52" s="6">
         <v>2</v>
@@ -2478,7 +2499,7 @@
         <v>201</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I52" s="6" t="s">
         <v>23</v>
@@ -2500,7 +2521,7 @@
         <v>20</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F53" s="6">
         <v>2</v>
@@ -2509,7 +2530,7 @@
         <v>202</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="I53" s="6" t="s">
         <v>23</v>
@@ -2531,7 +2552,7 @@
         <v>20</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F54" s="6">
         <v>2</v>
@@ -2562,7 +2583,7 @@
         <v>35</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F55" s="6">
         <v>1</v>
@@ -2571,7 +2592,7 @@
         <v>101</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I55" s="13">
         <v>100100100100100</v>
@@ -2593,7 +2614,7 @@
         <v>35</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F56" s="6">
         <v>1</v>
@@ -2602,7 +2623,7 @@
         <v>102</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="I56" s="13">
         <v>100100100100100</v>
@@ -2624,7 +2645,7 @@
         <v>35</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F57" s="6">
         <v>1</v>
@@ -2655,7 +2676,7 @@
         <v>35</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F58" s="6">
         <v>2</v>
@@ -2664,7 +2685,7 @@
         <v>201</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I58" s="13">
         <v>100100100100100</v>
@@ -2686,7 +2707,7 @@
         <v>35</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F59" s="6">
         <v>2</v>
@@ -2695,7 +2716,7 @@
         <v>202</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I59" s="13">
         <v>100100100100100</v>
@@ -2717,7 +2738,7 @@
         <v>35</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F60" s="6">
         <v>2</v>
@@ -2748,7 +2769,7 @@
         <v>45</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F61" s="6">
         <v>1</v>
@@ -2757,7 +2778,7 @@
         <v>101</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I61" s="13">
         <v>150150150150150</v>
@@ -2779,7 +2800,7 @@
         <v>45</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F62" s="6">
         <v>1</v>
@@ -2788,7 +2809,7 @@
         <v>102</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="I62" s="13">
         <v>150150150150150</v>
@@ -2810,7 +2831,7 @@
         <v>45</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F63" s="6">
         <v>1</v>
@@ -2841,7 +2862,7 @@
         <v>45</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F64" s="6">
         <v>2</v>
@@ -2850,7 +2871,7 @@
         <v>201</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I64" s="13">
         <v>150150150150150</v>
@@ -2872,7 +2893,7 @@
         <v>45</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F65" s="6">
         <v>2</v>
@@ -2881,7 +2902,7 @@
         <v>202</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I65" s="13">
         <v>150150150150150</v>
@@ -2903,7 +2924,7 @@
         <v>45</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F66" s="6">
         <v>2</v>
@@ -2934,7 +2955,7 @@
         <v>55</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F67" s="6">
         <v>1</v>
@@ -2943,7 +2964,7 @@
         <v>101</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I67" s="13">
         <v>200200200200200</v>
@@ -2965,7 +2986,7 @@
         <v>55</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F68" s="6">
         <v>1</v>
@@ -2974,7 +2995,7 @@
         <v>102</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I68" s="13">
         <v>200200200200200</v>
@@ -2996,7 +3017,7 @@
         <v>55</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F69" s="6">
         <v>1</v>
@@ -3027,7 +3048,7 @@
         <v>55</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F70" s="6">
         <v>2</v>
@@ -3036,7 +3057,7 @@
         <v>201</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I70" s="13">
         <v>200200200200200</v>
@@ -3058,7 +3079,7 @@
         <v>55</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F71" s="6">
         <v>2</v>
@@ -3067,7 +3088,7 @@
         <v>202</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I71" s="13">
         <v>200200200200200</v>
@@ -3089,7 +3110,7 @@
         <v>55</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F72" s="6">
         <v>2</v>
@@ -3120,7 +3141,7 @@
         <v>30</v>
       </c>
       <c r="E73" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F73" s="6">
         <v>2</v>
@@ -3150,7 +3171,7 @@
         <v>40</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F74" s="2">
         <v>2</v>

--- a/Excel/RobotConfig.xlsx
+++ b/Excel/RobotConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052739F0-44C5-4422-A56D-1ADEBCA6E468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6ED8190-84C6-41E1-B58F-89FAB84B1D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30375" yWindow="570" windowWidth="24000" windowHeight="14535" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RobotConfig" sheetId="6" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="59">
   <si>
     <t>cs</t>
   </si>
@@ -353,18 +353,6 @@
   </si>
   <si>
     <t>1000,1000,1000,1000,1000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>布甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>重甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>轻甲</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -810,7 +798,7 @@
   <dimension ref="A1:L74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -991,9 +979,7 @@
       <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="B7" s="9"/>
       <c r="C7" s="6">
         <v>2101</v>
       </c>
@@ -1026,9 +1012,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="9" t="s">
-        <v>61</v>
-      </c>
+      <c r="B8" s="9"/>
       <c r="C8" s="6">
         <v>2102</v>
       </c>
@@ -1061,9 +1045,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="B9" s="9"/>
       <c r="C9" s="6">
         <v>2103</v>
       </c>
@@ -1096,9 +1078,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="B10" s="9"/>
       <c r="C10" s="6">
         <v>2104</v>
       </c>
@@ -1131,9 +1111,7 @@
       </c>
     </row>
     <row r="11" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="9" t="s">
-        <v>59</v>
-      </c>
+      <c r="B11" s="9"/>
       <c r="C11" s="6">
         <v>2105</v>
       </c>
@@ -1166,9 +1144,7 @@
       </c>
     </row>
     <row r="12" spans="1:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="B12" s="9"/>
       <c r="C12" s="6">
         <v>2106</v>
       </c>

--- a/Excel/RobotConfig.xlsx
+++ b/Excel/RobotConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6ED8190-84C6-41E1-B58F-89FAB84B1D27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACE7B1C-2D2F-40A0-BD64-1587C74F7A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30375" yWindow="570" windowWidth="24000" windowHeight="14535" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RobotConfig" sheetId="6" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="61">
   <si>
     <t>cs</t>
   </si>
@@ -354,6 +354,13 @@
   <si>
     <t>1000,1000,1000,1000,1000</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>15401002,15402002,15403002,15403002,15404002,15405002,15406002,15407002,15408002,15409002,15410102,15411002</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-87.50,0.00,-27.62</t>
   </si>
 </sst>
 </file>
@@ -797,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1399,7 +1406,7 @@
         <v>101</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="I19" s="13">
         <v>600600600600600</v>
@@ -1819,7 +1826,7 @@
         <v>110005</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1853,7 +1860,7 @@
         <v>110005</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1887,7 +1894,7 @@
         <v>110005</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1921,7 +1928,7 @@
         <v>110005</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1955,7 +1962,7 @@
         <v>110005</v>
       </c>
       <c r="L35" s="3" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -1989,7 +1996,7 @@
         <v>110005</v>
       </c>
       <c r="L36" s="3" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="2:12" s="7" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">

--- a/Excel/RobotConfig.xlsx
+++ b/Excel/RobotConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACE7B1C-2D2F-40A0-BD64-1587C74F7A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1439809-870F-48AB-804F-7B5F7D3F24CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -804,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="E28" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2206,7 +2206,7 @@
         <v>39</v>
       </c>
       <c r="I43" s="13">
-        <v>600600600600600</v>
+        <v>900900900900900</v>
       </c>
       <c r="J43" s="6">
         <v>3</v>
@@ -2237,7 +2237,7 @@
         <v>39</v>
       </c>
       <c r="I44" s="13">
-        <v>600600600600600</v>
+        <v>900900900900900</v>
       </c>
       <c r="J44" s="6">
         <v>3</v>
@@ -2268,7 +2268,7 @@
         <v>49</v>
       </c>
       <c r="I45" s="13">
-        <v>600600600600600</v>
+        <v>900900900900900</v>
       </c>
       <c r="J45" s="6">
         <v>3</v>
@@ -2299,7 +2299,7 @@
         <v>48</v>
       </c>
       <c r="I46" s="13">
-        <v>600600600600600</v>
+        <v>900900900900900</v>
       </c>
       <c r="J46" s="6">
         <v>3</v>
@@ -2330,7 +2330,7 @@
         <v>48</v>
       </c>
       <c r="I47" s="13">
-        <v>600600600600600</v>
+        <v>900900900900900</v>
       </c>
       <c r="J47" s="6">
         <v>3</v>
@@ -2361,7 +2361,7 @@
         <v>38</v>
       </c>
       <c r="I48" s="13">
-        <v>600600600600600</v>
+        <v>900900900900900</v>
       </c>
       <c r="J48" s="6">
         <v>3</v>

--- a/Excel/RobotConfig.xlsx
+++ b/Excel/RobotConfig.xlsx
@@ -1,32 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D45066D-FAF7-405F-BCB8-F1D9FD3B4AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14085" tabRatio="809"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RobotConfig" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Administrator</author>
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -35,6 +42,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -44,19 +52,21 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>跟显示一样的数据</t>
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="1">
+    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -65,6 +75,38 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1   任务机器人
+2   组队副本机器人
+3   战场机器人
+4   世界boos机器人
+5   角斗场机器人
+6   solo场机器人
+7   剧情机器人
+8   塔防机器人</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -74,72 +116,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">1   任务机器人
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">2   组队副本机器人
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">3   战场机器人
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">4   世界boos机器人
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">5   角斗场机器人
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>6   solo场机器人</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K3" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -149,6 +126,30 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>组队机器人： 副本ID</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -158,36 +159,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>组队机器人： 副本ID</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L3" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Administrator:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>跟显示一样的数据</t>
@@ -199,7 +171,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="58">
   <si>
     <t>cs</t>
   </si>
@@ -273,113 +245,116 @@
     <t>int[]</t>
   </si>
   <si>
+    <t>10,10,0,0,0</t>
+  </si>
+  <si>
+    <t>组队副本机器人</t>
+  </si>
+  <si>
+    <t>15201002,15202002,15203002,15203002,15204002,15205002,15206002,15207002,15208002,15209002,15210102,15211002</t>
+  </si>
+  <si>
+    <t>90.81;0;66.18;1</t>
+  </si>
+  <si>
+    <t>15201006,15202006,15203006,15203006,15204006,15205006,15206002,15207002,15208002,15209002,15210002,15211006</t>
+  </si>
+  <si>
+    <t>15201004,15202004,15203004,15203004,15204004,15205004,15206002,15207002,15208002,15209002,15210004,15211004</t>
+  </si>
+  <si>
+    <t>15201006,15202006,15203006,15203006,15204006,15205006,15206002,15207002,15208002,15209002,15210102,15211006</t>
+  </si>
+  <si>
+    <t>15301002,15302002,15303002,15303002,15304002,15305002,15306002,15307002,15308002,15309002,15310102,15311002</t>
+  </si>
+  <si>
+    <t>69.33;0.3;61.19;1</t>
+  </si>
+  <si>
+    <t>15301006,15302006,15303006,15303006,15304006,15305006,15306002,15307002,15308002,15309002,15310002,15311006</t>
+  </si>
+  <si>
+    <t>15301004,15302004,15303004,15303004,15304004,15305004,15306002,15307002,15308002,15309002,15310004,15311004</t>
+  </si>
+  <si>
+    <t>15301006,15302006,15303006,15303006,15304006,15305006,15306002,15307002,15308002,15309002,15310102,15311006</t>
+  </si>
+  <si>
+    <t>15401002,15402002,15403002,15403002,15404002,15405002,15406002,15407002,15408002,15409002,15410102,15411002</t>
+  </si>
+  <si>
+    <t>108.93;0;178.8;1</t>
+  </si>
+  <si>
+    <t>15401006,15402006,15403006,15403006,15404006,15405006,15406002,15407002,15408002,15409002,15410002,15411006</t>
+  </si>
+  <si>
+    <t>15401004,15402004,15403004,15403004,15404004,15405004,15406002,15407002,15408002,15409002,15410004,15411004</t>
+  </si>
+  <si>
+    <t>15401006,15402006,15403006,15403006,15404006,15405006,15406002,15407002,15408002,15409002,15410102,15411006</t>
+  </si>
+  <si>
+    <t>15501002,15502002,15503002,15503002,15504002,15505002,15506002,15507002,15508002,15509002,15510102,15511002</t>
+  </si>
+  <si>
+    <t>72.48;0;0.34;1</t>
+  </si>
+  <si>
+    <t>15501006,15502006,15503006,15503006,15504006,15505006,15506002,15507002,15508002,15509002,15510002,15511006</t>
+  </si>
+  <si>
+    <t>15501004,15502004,15503004,15503004,15504004,15505004,15506002,15507002,15508002,15509002,15510004,15511004</t>
+  </si>
+  <si>
+    <t>15501006,15502006,15503006,15503006,15504006,15505006,15506002,15507002,15508002,15509002,15510102,15511006</t>
+  </si>
+  <si>
+    <t>1000,1000,1000,1000,1000</t>
+  </si>
+  <si>
+    <t>-87.50,0.00,-27.62;1</t>
+  </si>
+  <si>
+    <t>1-30级战场机器人</t>
+  </si>
+  <si>
+    <t>-9.96;0.34;-1.8;2@10.03;0.34;43.8;3@9.67;0.34;-43.9;3@9.67;0.34;-43.9;3@-23.1;0.34;-38.1;3@-31.5;0.34;30.7;3@49.2;0.34;31.9;3@50.96;0.34;-34.8;3</t>
+  </si>
+  <si>
+    <t>30-60级战场机器人</t>
+  </si>
+  <si>
+    <t>世界BOSS机器人</t>
+  </si>
+  <si>
+    <t>50,50,50,50,50</t>
+  </si>
+  <si>
+    <t>角斗场</t>
+  </si>
+  <si>
+    <t>Solo机器人</t>
+  </si>
+  <si>
     <t>任务机器人</t>
-  </si>
-  <si>
-    <t>10,10,0,0,0</t>
-  </si>
-  <si>
-    <t>组队副本机器人</t>
-  </si>
-  <si>
-    <t>15201002,15202002,15203002,15203002,15204002,15205002,15206002,15207002,15208002,15209002,15210102,15211002</t>
-  </si>
-  <si>
-    <t>90.81;0;66.18;1</t>
-  </si>
-  <si>
-    <t>15201006,15202006,15203006,15203006,15204006,15205006,15206002,15207002,15208002,15209002,15210002,15211006</t>
-  </si>
-  <si>
-    <t>15201004,15202004,15203004,15203004,15204004,15205004,15206002,15207002,15208002,15209002,15210004,15211004</t>
-  </si>
-  <si>
-    <t>15201006,15202006,15203006,15203006,15204006,15205006,15206002,15207002,15208002,15209002,15210102,15211006</t>
-  </si>
-  <si>
-    <t>15301002,15302002,15303002,15303002,15304002,15305002,15306002,15307002,15308002,15309002,15310102,15311002</t>
-  </si>
-  <si>
-    <t>69.33;0.3;61.19;1</t>
-  </si>
-  <si>
-    <t>15301006,15302006,15303006,15303006,15304006,15305006,15306002,15307002,15308002,15309002,15310002,15311006</t>
-  </si>
-  <si>
-    <t>15301004,15302004,15303004,15303004,15304004,15305004,15306002,15307002,15308002,15309002,15310004,15311004</t>
-  </si>
-  <si>
-    <t>15301006,15302006,15303006,15303006,15304006,15305006,15306002,15307002,15308002,15309002,15310102,15311006</t>
-  </si>
-  <si>
-    <t>15401002,15402002,15403002,15403002,15404002,15405002,15406002,15407002,15408002,15409002,15410102,15411002</t>
-  </si>
-  <si>
-    <t>108.93;0;178.8;1</t>
-  </si>
-  <si>
-    <t>15401006,15402006,15403006,15403006,15404006,15405006,15406002,15407002,15408002,15409002,15410002,15411006</t>
-  </si>
-  <si>
-    <t>15401004,15402004,15403004,15403004,15404004,15405004,15406002,15407002,15408002,15409002,15410004,15411004</t>
-  </si>
-  <si>
-    <t>15401006,15402006,15403006,15403006,15404006,15405006,15406002,15407002,15408002,15409002,15410102,15411006</t>
-  </si>
-  <si>
-    <t>15501002,15502002,15503002,15503002,15504002,15505002,15506002,15507002,15508002,15509002,15510102,15511002</t>
-  </si>
-  <si>
-    <t>72.48;0;0.34;1</t>
-  </si>
-  <si>
-    <t>15501006,15502006,15503006,15503006,15504006,15505006,15506002,15507002,15508002,15509002,15510002,15511006</t>
-  </si>
-  <si>
-    <t>15501004,15502004,15503004,15503004,15504004,15505004,15506002,15507002,15508002,15509002,15510004,15511004</t>
-  </si>
-  <si>
-    <t>15501006,15502006,15503006,15503006,15504006,15505006,15506002,15507002,15508002,15509002,15510102,15511006</t>
-  </si>
-  <si>
-    <t>1000,1000,1000,1000,1000</t>
-  </si>
-  <si>
-    <t>-87.50,0.00,-27.62;1</t>
-  </si>
-  <si>
-    <t>1-30级战场机器人</t>
-  </si>
-  <si>
-    <t>-9.96;0.34;-1.8;2@10.03;0.34;43.8;3@9.67;0.34;-43.9;3@9.67;0.34;-43.9;3@-23.1;0.34;-38.1;3@-31.5;0.34;30.7;3@49.2;0.34;31.9;3@50.96;0.34;-34.8;3</t>
-  </si>
-  <si>
-    <t>30-60级战场机器人</t>
-  </si>
-  <si>
-    <t>世界BOSS机器人</t>
-  </si>
-  <si>
-    <t>50,50,50,50,50</t>
-  </si>
-  <si>
-    <t>角斗场</t>
-  </si>
-  <si>
-    <t>Solo机器人</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试机器人1</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试机器人2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,6 +366,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -398,6 +374,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -405,166 +382,45 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -583,194 +439,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -791,357 +461,73 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="常规 6" xfId="13"/>
-    <cellStyle name="注释" xfId="14" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="16" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="17" builtinId="11"/>
-    <cellStyle name="标题" xfId="18" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="19" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="20" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="21" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="22" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="23" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="24" builtinId="44"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="计算" xfId="26" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="27" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="28" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="30" builtinId="24"/>
-    <cellStyle name="汇总" xfId="31" builtinId="25"/>
-    <cellStyle name="好" xfId="32" builtinId="26"/>
-    <cellStyle name="适中" xfId="33" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="34" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="35" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="36" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="37" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="38" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="39" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="40" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="41" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="42" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="43" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="44" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="50"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="常规 6" xfId="1" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1397,19 +783,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:L74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H17" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="G82" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9.625" style="2" customWidth="1"/>
@@ -1425,7 +811,7 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1441,7 +827,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1457,7 +843,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
@@ -1491,7 +877,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
@@ -1525,7 +911,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6" t="s">
@@ -1559,7 +945,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="7"/>
       <c r="C6" s="5">
         <v>1001</v>
@@ -1568,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -1578,7 +964,7 @@
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J6" s="8">
         <v>1</v>
@@ -1586,7 +972,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="7"/>
       <c r="C7" s="5">
         <v>2101</v>
@@ -1595,7 +981,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
@@ -1603,8 +989,8 @@
       <c r="G7" s="5">
         <v>101</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>27</v>
+      <c r="H7" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="I7" s="10">
         <v>200200200200200</v>
@@ -1615,11 +1001,11 @@
       <c r="K7" s="5">
         <v>110001</v>
       </c>
-      <c r="L7" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L7" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="7"/>
       <c r="C8" s="5">
         <v>2102</v>
@@ -1628,7 +1014,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -1636,8 +1022,8 @@
       <c r="G8" s="5">
         <v>102</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>27</v>
+      <c r="H8" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="I8" s="10">
         <v>200200200200200</v>
@@ -1648,11 +1034,11 @@
       <c r="K8" s="5">
         <v>110001</v>
       </c>
-      <c r="L8" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L8" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="7"/>
       <c r="C9" s="5">
         <v>2103</v>
@@ -1661,7 +1047,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -1669,8 +1055,8 @@
       <c r="G9" s="5">
         <v>103</v>
       </c>
-      <c r="H9" s="13" t="s">
-        <v>29</v>
+      <c r="H9" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="I9" s="10">
         <v>200200200200200</v>
@@ -1681,11 +1067,11 @@
       <c r="K9" s="5">
         <v>110001</v>
       </c>
-      <c r="L9" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L9" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="7"/>
       <c r="C10" s="5">
         <v>2104</v>
@@ -1694,7 +1080,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="5">
         <v>2</v>
@@ -1702,8 +1088,8 @@
       <c r="G10" s="5">
         <v>201</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>30</v>
+      <c r="H10" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="I10" s="10">
         <v>200200200200200</v>
@@ -1714,11 +1100,11 @@
       <c r="K10" s="5">
         <v>110001</v>
       </c>
-      <c r="L10" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L10" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="7"/>
       <c r="C11" s="5">
         <v>2105</v>
@@ -1727,7 +1113,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="5">
         <v>2</v>
@@ -1735,8 +1121,8 @@
       <c r="G11" s="5">
         <v>202</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>30</v>
+      <c r="H11" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="I11" s="10">
         <v>200200200200200</v>
@@ -1747,11 +1133,11 @@
       <c r="K11" s="5">
         <v>110001</v>
       </c>
-      <c r="L11" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L11" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="7"/>
       <c r="C12" s="5">
         <v>2106</v>
@@ -1760,7 +1146,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F12" s="5">
         <v>2</v>
@@ -1768,8 +1154,8 @@
       <c r="G12" s="5">
         <v>203</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>31</v>
+      <c r="H12" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="I12" s="10">
         <v>200200200200200</v>
@@ -1780,11 +1166,11 @@
       <c r="K12" s="5">
         <v>110001</v>
       </c>
-      <c r="L12" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L12" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="7"/>
       <c r="C13" s="5">
         <f>C7+100</f>
@@ -1794,7 +1180,7 @@
         <v>35</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
@@ -1802,8 +1188,8 @@
       <c r="G13" s="5">
         <v>101</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>32</v>
+      <c r="H13" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="I13" s="10">
         <v>400400400400400</v>
@@ -1814,11 +1200,11 @@
       <c r="K13" s="5">
         <v>110002</v>
       </c>
-      <c r="L13" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L13" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="7"/>
       <c r="C14" s="5">
         <f t="shared" ref="C14:C36" si="0">C8+100</f>
@@ -1828,7 +1214,7 @@
         <v>35</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
@@ -1836,8 +1222,8 @@
       <c r="G14" s="5">
         <v>102</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>32</v>
+      <c r="H14" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="I14" s="10">
         <v>400400400400400</v>
@@ -1848,11 +1234,11 @@
       <c r="K14" s="5">
         <v>110002</v>
       </c>
-      <c r="L14" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L14" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="7"/>
       <c r="C15" s="5">
         <f t="shared" si="0"/>
@@ -1862,7 +1248,7 @@
         <v>35</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15" s="5">
         <v>1</v>
@@ -1870,8 +1256,8 @@
       <c r="G15" s="5">
         <v>103</v>
       </c>
-      <c r="H15" s="13" t="s">
-        <v>34</v>
+      <c r="H15" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="I15" s="10">
         <v>400400400400400</v>
@@ -1882,11 +1268,11 @@
       <c r="K15" s="5">
         <v>110002</v>
       </c>
-      <c r="L15" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L15" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="7"/>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
@@ -1896,7 +1282,7 @@
         <v>35</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F16" s="5">
         <v>2</v>
@@ -1904,8 +1290,8 @@
       <c r="G16" s="5">
         <v>201</v>
       </c>
-      <c r="H16" s="13" t="s">
-        <v>35</v>
+      <c r="H16" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="I16" s="10">
         <v>400400400400400</v>
@@ -1916,11 +1302,11 @@
       <c r="K16" s="5">
         <v>110002</v>
       </c>
-      <c r="L16" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L16" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="7"/>
       <c r="C17" s="5">
         <f t="shared" si="0"/>
@@ -1930,7 +1316,7 @@
         <v>35</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F17" s="5">
         <v>2</v>
@@ -1938,8 +1324,8 @@
       <c r="G17" s="5">
         <v>202</v>
       </c>
-      <c r="H17" s="13" t="s">
-        <v>35</v>
+      <c r="H17" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="I17" s="10">
         <v>400400400400400</v>
@@ -1950,11 +1336,11 @@
       <c r="K17" s="5">
         <v>110002</v>
       </c>
-      <c r="L17" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L17" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="7"/>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
@@ -1964,7 +1350,7 @@
         <v>35</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F18" s="5">
         <v>2</v>
@@ -1972,8 +1358,8 @@
       <c r="G18" s="5">
         <v>203</v>
       </c>
-      <c r="H18" s="13" t="s">
-        <v>36</v>
+      <c r="H18" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="I18" s="10">
         <v>400400400400400</v>
@@ -1984,11 +1370,11 @@
       <c r="K18" s="5">
         <v>110002</v>
       </c>
-      <c r="L18" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L18" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="7"/>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
@@ -1998,7 +1384,7 @@
         <v>45</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F19" s="5">
         <v>1</v>
@@ -2006,8 +1392,8 @@
       <c r="G19" s="5">
         <v>101</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>37</v>
+      <c r="H19" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="I19" s="10">
         <v>600600600600600</v>
@@ -2018,11 +1404,11 @@
       <c r="K19" s="5">
         <v>110003</v>
       </c>
-      <c r="L19" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L19" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="7"/>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
@@ -2032,7 +1418,7 @@
         <v>45</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F20" s="5">
         <v>1</v>
@@ -2040,8 +1426,8 @@
       <c r="G20" s="5">
         <v>102</v>
       </c>
-      <c r="H20" s="13" t="s">
-        <v>37</v>
+      <c r="H20" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="I20" s="10">
         <v>600600600600600</v>
@@ -2052,11 +1438,11 @@
       <c r="K20" s="5">
         <v>110003</v>
       </c>
-      <c r="L20" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L20" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="7"/>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
@@ -2066,7 +1452,7 @@
         <v>45</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F21" s="5">
         <v>1</v>
@@ -2074,8 +1460,8 @@
       <c r="G21" s="5">
         <v>103</v>
       </c>
-      <c r="H21" s="13" t="s">
-        <v>39</v>
+      <c r="H21" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="I21" s="10">
         <v>600600600600600</v>
@@ -2086,11 +1472,11 @@
       <c r="K21" s="5">
         <v>110003</v>
       </c>
-      <c r="L21" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L21" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="7"/>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
@@ -2100,7 +1486,7 @@
         <v>45</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F22" s="5">
         <v>2</v>
@@ -2108,8 +1494,8 @@
       <c r="G22" s="5">
         <v>201</v>
       </c>
-      <c r="H22" s="13" t="s">
-        <v>40</v>
+      <c r="H22" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="I22" s="10">
         <v>600600600600600</v>
@@ -2120,11 +1506,11 @@
       <c r="K22" s="5">
         <v>110003</v>
       </c>
-      <c r="L22" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L22" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="7"/>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
@@ -2134,7 +1520,7 @@
         <v>45</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F23" s="5">
         <v>2</v>
@@ -2142,8 +1528,8 @@
       <c r="G23" s="5">
         <v>202</v>
       </c>
-      <c r="H23" s="13" t="s">
-        <v>40</v>
+      <c r="H23" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="I23" s="10">
         <v>600600600600600</v>
@@ -2154,11 +1540,11 @@
       <c r="K23" s="5">
         <v>110003</v>
       </c>
-      <c r="L23" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L23" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="7"/>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
@@ -2168,7 +1554,7 @@
         <v>45</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F24" s="5">
         <v>2</v>
@@ -2176,8 +1562,8 @@
       <c r="G24" s="5">
         <v>203</v>
       </c>
-      <c r="H24" s="13" t="s">
-        <v>41</v>
+      <c r="H24" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="I24" s="10">
         <v>600600600600600</v>
@@ -2188,11 +1574,11 @@
       <c r="K24" s="5">
         <v>110003</v>
       </c>
-      <c r="L24" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L24" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="7"/>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
@@ -2202,7 +1588,7 @@
         <v>55</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F25" s="5">
         <v>1</v>
@@ -2210,8 +1596,8 @@
       <c r="G25" s="5">
         <v>101</v>
       </c>
-      <c r="H25" s="13" t="s">
-        <v>42</v>
+      <c r="H25" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="I25" s="10">
         <v>800800800800800</v>
@@ -2222,11 +1608,11 @@
       <c r="K25" s="5">
         <v>110004</v>
       </c>
-      <c r="L25" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L25" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="7"/>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
@@ -2236,7 +1622,7 @@
         <v>55</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F26" s="5">
         <v>1</v>
@@ -2244,8 +1630,8 @@
       <c r="G26" s="5">
         <v>102</v>
       </c>
-      <c r="H26" s="13" t="s">
-        <v>42</v>
+      <c r="H26" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="I26" s="10">
         <v>800800800800800</v>
@@ -2256,11 +1642,11 @@
       <c r="K26" s="5">
         <v>110004</v>
       </c>
-      <c r="L26" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L26" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="7"/>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
@@ -2270,7 +1656,7 @@
         <v>55</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F27" s="5">
         <v>1</v>
@@ -2278,8 +1664,8 @@
       <c r="G27" s="5">
         <v>103</v>
       </c>
-      <c r="H27" s="13" t="s">
-        <v>44</v>
+      <c r="H27" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="I27" s="10">
         <v>800800800800800</v>
@@ -2290,11 +1676,11 @@
       <c r="K27" s="5">
         <v>110004</v>
       </c>
-      <c r="L27" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L27" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="7"/>
       <c r="C28" s="5">
         <f t="shared" si="0"/>
@@ -2304,7 +1690,7 @@
         <v>55</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F28" s="5">
         <v>2</v>
@@ -2312,8 +1698,8 @@
       <c r="G28" s="5">
         <v>201</v>
       </c>
-      <c r="H28" s="13" t="s">
-        <v>45</v>
+      <c r="H28" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="I28" s="10">
         <v>800800800800800</v>
@@ -2324,11 +1710,11 @@
       <c r="K28" s="5">
         <v>110004</v>
       </c>
-      <c r="L28" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L28" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="7"/>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
@@ -2338,7 +1724,7 @@
         <v>55</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F29" s="5">
         <v>2</v>
@@ -2346,8 +1732,8 @@
       <c r="G29" s="5">
         <v>202</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>45</v>
+      <c r="H29" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="I29" s="10">
         <v>800800800800800</v>
@@ -2358,11 +1744,11 @@
       <c r="K29" s="5">
         <v>110004</v>
       </c>
-      <c r="L29" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L29" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="7"/>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
@@ -2372,7 +1758,7 @@
         <v>55</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F30" s="5">
         <v>2</v>
@@ -2380,8 +1766,8 @@
       <c r="G30" s="5">
         <v>203</v>
       </c>
-      <c r="H30" s="13" t="s">
-        <v>46</v>
+      <c r="H30" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="I30" s="10">
         <v>800800800800800</v>
@@ -2392,11 +1778,11 @@
       <c r="K30" s="5">
         <v>110004</v>
       </c>
-      <c r="L30" s="14" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L30" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="7"/>
       <c r="C31" s="5">
         <f t="shared" si="0"/>
@@ -2406,7 +1792,7 @@
         <v>60</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F31" s="5">
         <v>1</v>
@@ -2414,11 +1800,11 @@
       <c r="G31" s="5">
         <v>101</v>
       </c>
-      <c r="H31" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>47</v>
+      <c r="H31" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I31" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="J31" s="8">
         <v>2</v>
@@ -2426,11 +1812,11 @@
       <c r="K31" s="5">
         <v>110005</v>
       </c>
-      <c r="L31" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L31" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="7"/>
       <c r="C32" s="5">
         <f t="shared" si="0"/>
@@ -2440,7 +1826,7 @@
         <v>60</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F32" s="5">
         <v>1</v>
@@ -2448,11 +1834,11 @@
       <c r="G32" s="5">
         <v>102</v>
       </c>
-      <c r="H32" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>47</v>
+      <c r="H32" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I32" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="J32" s="8">
         <v>2</v>
@@ -2460,11 +1846,11 @@
       <c r="K32" s="5">
         <v>110005</v>
       </c>
-      <c r="L32" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L32" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="7"/>
       <c r="C33" s="5">
         <f t="shared" si="0"/>
@@ -2474,7 +1860,7 @@
         <v>60</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F33" s="5">
         <v>1</v>
@@ -2482,11 +1868,11 @@
       <c r="G33" s="5">
         <v>103</v>
       </c>
-      <c r="H33" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>47</v>
+      <c r="H33" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I33" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="J33" s="8">
         <v>2</v>
@@ -2494,11 +1880,11 @@
       <c r="K33" s="5">
         <v>110005</v>
       </c>
-      <c r="L33" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L33" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="7"/>
       <c r="C34" s="5">
         <f t="shared" si="0"/>
@@ -2508,7 +1894,7 @@
         <v>60</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F34" s="5">
         <v>2</v>
@@ -2516,11 +1902,11 @@
       <c r="G34" s="5">
         <v>201</v>
       </c>
-      <c r="H34" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I34" s="15" t="s">
-        <v>47</v>
+      <c r="H34" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I34" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="J34" s="8">
         <v>2</v>
@@ -2528,11 +1914,11 @@
       <c r="K34" s="5">
         <v>110005</v>
       </c>
-      <c r="L34" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L34" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="7"/>
       <c r="C35" s="5">
         <f t="shared" si="0"/>
@@ -2542,7 +1928,7 @@
         <v>60</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F35" s="5">
         <v>2</v>
@@ -2550,11 +1936,11 @@
       <c r="G35" s="5">
         <v>202</v>
       </c>
-      <c r="H35" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>47</v>
+      <c r="H35" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I35" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="J35" s="8">
         <v>2</v>
@@ -2562,11 +1948,11 @@
       <c r="K35" s="5">
         <v>110005</v>
       </c>
-      <c r="L35" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L35" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="7"/>
       <c r="C36" s="5">
         <f t="shared" si="0"/>
@@ -2576,7 +1962,7 @@
         <v>60</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F36" s="5">
         <v>2</v>
@@ -2584,11 +1970,11 @@
       <c r="G36" s="5">
         <v>203</v>
       </c>
-      <c r="H36" s="13" t="s">
+      <c r="H36" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I36" s="14" t="s">
         <v>46</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>47</v>
       </c>
       <c r="J36" s="8">
         <v>2</v>
@@ -2596,11 +1982,11 @@
       <c r="K36" s="5">
         <v>110005</v>
       </c>
-      <c r="L36" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L36" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="7"/>
       <c r="C37" s="5">
         <v>3001</v>
@@ -2609,7 +1995,7 @@
         <v>20</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F37" s="5">
         <v>1</v>
@@ -2617,8 +2003,8 @@
       <c r="G37" s="5">
         <v>101</v>
       </c>
-      <c r="H37" s="13" t="s">
-        <v>27</v>
+      <c r="H37" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="I37" s="10">
         <v>300300300300300</v>
@@ -2627,11 +2013,11 @@
         <v>3</v>
       </c>
       <c r="K37" s="5"/>
-      <c r="L37" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L37" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="7"/>
       <c r="C38" s="5">
         <v>3002</v>
@@ -2640,7 +2026,7 @@
         <v>20</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F38" s="5">
         <v>1</v>
@@ -2648,8 +2034,8 @@
       <c r="G38" s="5">
         <v>102</v>
       </c>
-      <c r="H38" s="13" t="s">
-        <v>27</v>
+      <c r="H38" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="I38" s="10">
         <v>300300300300300</v>
@@ -2658,11 +2044,11 @@
         <v>3</v>
       </c>
       <c r="K38" s="5"/>
-      <c r="L38" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L38" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="7"/>
       <c r="C39" s="5">
         <v>3003</v>
@@ -2671,7 +2057,7 @@
         <v>20</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F39" s="5">
         <v>1</v>
@@ -2679,8 +2065,8 @@
       <c r="G39" s="5">
         <v>103</v>
       </c>
-      <c r="H39" s="13" t="s">
-        <v>29</v>
+      <c r="H39" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="I39" s="10">
         <v>300300300300300</v>
@@ -2689,11 +2075,11 @@
         <v>3</v>
       </c>
       <c r="K39" s="5"/>
-      <c r="L39" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L39" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="7"/>
       <c r="C40" s="5">
         <v>3004</v>
@@ -2702,7 +2088,7 @@
         <v>20</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F40" s="5">
         <v>2</v>
@@ -2710,8 +2096,8 @@
       <c r="G40" s="5">
         <v>201</v>
       </c>
-      <c r="H40" s="13" t="s">
-        <v>30</v>
+      <c r="H40" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="I40" s="10">
         <v>300300300300300</v>
@@ -2720,11 +2106,11 @@
         <v>3</v>
       </c>
       <c r="K40" s="5"/>
-      <c r="L40" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L40" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="7"/>
       <c r="C41" s="5">
         <v>3005</v>
@@ -2733,7 +2119,7 @@
         <v>20</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F41" s="5">
         <v>2</v>
@@ -2741,8 +2127,8 @@
       <c r="G41" s="5">
         <v>202</v>
       </c>
-      <c r="H41" s="13" t="s">
-        <v>30</v>
+      <c r="H41" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="I41" s="10">
         <v>300300300300300</v>
@@ -2751,11 +2137,11 @@
         <v>3</v>
       </c>
       <c r="K41" s="5"/>
-      <c r="L41" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L41" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="7"/>
       <c r="C42" s="5">
         <v>3006</v>
@@ -2764,7 +2150,7 @@
         <v>20</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F42" s="5">
         <v>2</v>
@@ -2772,8 +2158,8 @@
       <c r="G42" s="5">
         <v>203</v>
       </c>
-      <c r="H42" s="13" t="s">
-        <v>31</v>
+      <c r="H42" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="I42" s="10">
         <v>300300300300300</v>
@@ -2782,11 +2168,11 @@
         <v>3</v>
       </c>
       <c r="K42" s="5"/>
-      <c r="L42" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L42" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="7"/>
       <c r="C43" s="5">
         <v>3051</v>
@@ -2795,7 +2181,7 @@
         <v>30</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F43" s="5">
         <v>1</v>
@@ -2803,8 +2189,8 @@
       <c r="G43" s="5">
         <v>101</v>
       </c>
-      <c r="H43" s="13" t="s">
-        <v>32</v>
+      <c r="H43" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="I43" s="10">
         <v>900900900900900</v>
@@ -2813,11 +2199,11 @@
         <v>3</v>
       </c>
       <c r="K43" s="5"/>
-      <c r="L43" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L43" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="7"/>
       <c r="C44" s="5">
         <v>3052</v>
@@ -2826,7 +2212,7 @@
         <v>30</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F44" s="5">
         <v>1</v>
@@ -2834,8 +2220,8 @@
       <c r="G44" s="5">
         <v>102</v>
       </c>
-      <c r="H44" s="13" t="s">
-        <v>32</v>
+      <c r="H44" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="I44" s="10">
         <v>900900900900900</v>
@@ -2844,11 +2230,11 @@
         <v>3</v>
       </c>
       <c r="K44" s="5"/>
-      <c r="L44" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L44" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="7"/>
       <c r="C45" s="5">
         <v>3053</v>
@@ -2857,7 +2243,7 @@
         <v>30</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F45" s="5">
         <v>1</v>
@@ -2865,8 +2251,8 @@
       <c r="G45" s="5">
         <v>103</v>
       </c>
-      <c r="H45" s="13" t="s">
-        <v>34</v>
+      <c r="H45" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="I45" s="10">
         <v>900900900900900</v>
@@ -2875,11 +2261,11 @@
         <v>3</v>
       </c>
       <c r="K45" s="5"/>
-      <c r="L45" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L45" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="7"/>
       <c r="C46" s="5">
         <v>3054</v>
@@ -2888,7 +2274,7 @@
         <v>30</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F46" s="5">
         <v>2</v>
@@ -2896,8 +2282,8 @@
       <c r="G46" s="5">
         <v>201</v>
       </c>
-      <c r="H46" s="13" t="s">
-        <v>35</v>
+      <c r="H46" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="I46" s="10">
         <v>900900900900900</v>
@@ -2906,11 +2292,11 @@
         <v>3</v>
       </c>
       <c r="K46" s="5"/>
-      <c r="L46" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L46" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="7"/>
       <c r="C47" s="5">
         <v>3055</v>
@@ -2919,7 +2305,7 @@
         <v>30</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F47" s="5">
         <v>2</v>
@@ -2927,8 +2313,8 @@
       <c r="G47" s="5">
         <v>202</v>
       </c>
-      <c r="H47" s="13" t="s">
-        <v>35</v>
+      <c r="H47" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="I47" s="10">
         <v>900900900900900</v>
@@ -2937,11 +2323,11 @@
         <v>3</v>
       </c>
       <c r="K47" s="5"/>
-      <c r="L47" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L47" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="7"/>
       <c r="C48" s="5">
         <v>3056</v>
@@ -2950,7 +2336,7 @@
         <v>30</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F48" s="5">
         <v>2</v>
@@ -2958,8 +2344,8 @@
       <c r="G48" s="5">
         <v>203</v>
       </c>
-      <c r="H48" s="13" t="s">
-        <v>36</v>
+      <c r="H48" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="I48" s="10">
         <v>900900900900900</v>
@@ -2968,11 +2354,11 @@
         <v>3</v>
       </c>
       <c r="K48" s="5"/>
-      <c r="L48" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="L48" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="7"/>
       <c r="C49" s="5">
         <v>5101</v>
@@ -2981,7 +2367,7 @@
         <v>20</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F49" s="5">
         <v>1</v>
@@ -2989,11 +2375,11 @@
       <c r="G49" s="5">
         <v>101</v>
       </c>
-      <c r="H49" s="13" t="s">
-        <v>27</v>
+      <c r="H49" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J49" s="5">
         <v>4</v>
@@ -3003,7 +2389,7 @@
       </c>
       <c r="L49" s="11"/>
     </row>
-    <row r="50" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="50" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="7"/>
       <c r="C50" s="5">
         <v>5102</v>
@@ -3012,7 +2398,7 @@
         <v>20</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F50" s="5">
         <v>1</v>
@@ -3020,11 +2406,11 @@
       <c r="G50" s="5">
         <v>102</v>
       </c>
-      <c r="H50" s="13" t="s">
-        <v>27</v>
+      <c r="H50" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J50" s="5">
         <v>4</v>
@@ -3034,7 +2420,7 @@
       </c>
       <c r="L50" s="11"/>
     </row>
-    <row r="51" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="51" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="7"/>
       <c r="C51" s="5">
         <v>5103</v>
@@ -3043,7 +2429,7 @@
         <v>20</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F51" s="5">
         <v>1</v>
@@ -3051,11 +2437,11 @@
       <c r="G51" s="5">
         <v>103</v>
       </c>
-      <c r="H51" s="13" t="s">
-        <v>29</v>
+      <c r="H51" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J51" s="5">
         <v>4</v>
@@ -3065,7 +2451,7 @@
       </c>
       <c r="L51" s="11"/>
     </row>
-    <row r="52" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="52" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="7"/>
       <c r="C52" s="5">
         <v>5104</v>
@@ -3074,7 +2460,7 @@
         <v>20</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F52" s="5">
         <v>2</v>
@@ -3082,11 +2468,11 @@
       <c r="G52" s="5">
         <v>201</v>
       </c>
-      <c r="H52" s="13" t="s">
-        <v>30</v>
+      <c r="H52" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J52" s="5">
         <v>4</v>
@@ -3096,7 +2482,7 @@
       </c>
       <c r="L52" s="11"/>
     </row>
-    <row r="53" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="53" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="7"/>
       <c r="C53" s="5">
         <v>5105</v>
@@ -3105,7 +2491,7 @@
         <v>20</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F53" s="5">
         <v>2</v>
@@ -3113,11 +2499,11 @@
       <c r="G53" s="5">
         <v>202</v>
       </c>
-      <c r="H53" s="13" t="s">
-        <v>30</v>
+      <c r="H53" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J53" s="5">
         <v>4</v>
@@ -3127,7 +2513,7 @@
       </c>
       <c r="L53" s="11"/>
     </row>
-    <row r="54" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="54" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="7"/>
       <c r="C54" s="5">
         <v>5106</v>
@@ -3136,7 +2522,7 @@
         <v>20</v>
       </c>
       <c r="E54" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F54" s="5">
         <v>2</v>
@@ -3144,11 +2530,11 @@
       <c r="G54" s="5">
         <v>203</v>
       </c>
-      <c r="H54" s="13" t="s">
-        <v>31</v>
+      <c r="H54" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J54" s="5">
         <v>4</v>
@@ -3158,7 +2544,7 @@
       </c>
       <c r="L54" s="11"/>
     </row>
-    <row r="55" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="55" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="7"/>
       <c r="C55" s="5">
         <v>5201</v>
@@ -3167,7 +2553,7 @@
         <v>35</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F55" s="5">
         <v>1</v>
@@ -3175,8 +2561,8 @@
       <c r="G55" s="5">
         <v>101</v>
       </c>
-      <c r="H55" s="13" t="s">
-        <v>32</v>
+      <c r="H55" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="I55" s="10">
         <v>100100100100100</v>
@@ -3189,7 +2575,7 @@
       </c>
       <c r="L55" s="11"/>
     </row>
-    <row r="56" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="56" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="7"/>
       <c r="C56" s="5">
         <v>5202</v>
@@ -3198,7 +2584,7 @@
         <v>35</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F56" s="5">
         <v>1</v>
@@ -3206,8 +2592,8 @@
       <c r="G56" s="5">
         <v>102</v>
       </c>
-      <c r="H56" s="13" t="s">
-        <v>32</v>
+      <c r="H56" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="I56" s="10">
         <v>100100100100100</v>
@@ -3220,7 +2606,7 @@
       </c>
       <c r="L56" s="11"/>
     </row>
-    <row r="57" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="57" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="7"/>
       <c r="C57" s="5">
         <v>5203</v>
@@ -3229,7 +2615,7 @@
         <v>35</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F57" s="5">
         <v>1</v>
@@ -3237,8 +2623,8 @@
       <c r="G57" s="5">
         <v>103</v>
       </c>
-      <c r="H57" s="13" t="s">
-        <v>34</v>
+      <c r="H57" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="I57" s="10">
         <v>100100100100100</v>
@@ -3251,7 +2637,7 @@
       </c>
       <c r="L57" s="11"/>
     </row>
-    <row r="58" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="58" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="7"/>
       <c r="C58" s="5">
         <v>5204</v>
@@ -3260,7 +2646,7 @@
         <v>35</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F58" s="5">
         <v>2</v>
@@ -3268,8 +2654,8 @@
       <c r="G58" s="5">
         <v>201</v>
       </c>
-      <c r="H58" s="13" t="s">
-        <v>35</v>
+      <c r="H58" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="I58" s="10">
         <v>100100100100100</v>
@@ -3282,7 +2668,7 @@
       </c>
       <c r="L58" s="11"/>
     </row>
-    <row r="59" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="59" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B59" s="7"/>
       <c r="C59" s="5">
         <v>5205</v>
@@ -3291,7 +2677,7 @@
         <v>35</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F59" s="5">
         <v>2</v>
@@ -3299,8 +2685,8 @@
       <c r="G59" s="5">
         <v>202</v>
       </c>
-      <c r="H59" s="13" t="s">
-        <v>35</v>
+      <c r="H59" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="I59" s="10">
         <v>100100100100100</v>
@@ -3313,7 +2699,7 @@
       </c>
       <c r="L59" s="11"/>
     </row>
-    <row r="60" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="60" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="7"/>
       <c r="C60" s="5">
         <v>5206</v>
@@ -3322,7 +2708,7 @@
         <v>35</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F60" s="5">
         <v>2</v>
@@ -3330,8 +2716,8 @@
       <c r="G60" s="5">
         <v>203</v>
       </c>
-      <c r="H60" s="13" t="s">
-        <v>36</v>
+      <c r="H60" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="I60" s="10">
         <v>100100100100100</v>
@@ -3344,7 +2730,7 @@
       </c>
       <c r="L60" s="11"/>
     </row>
-    <row r="61" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="61" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B61" s="7"/>
       <c r="C61" s="5">
         <v>5301</v>
@@ -3353,7 +2739,7 @@
         <v>45</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F61" s="5">
         <v>1</v>
@@ -3361,8 +2747,8 @@
       <c r="G61" s="5">
         <v>101</v>
       </c>
-      <c r="H61" s="13" t="s">
-        <v>37</v>
+      <c r="H61" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="I61" s="10">
         <v>150150150150150</v>
@@ -3375,7 +2761,7 @@
       </c>
       <c r="L61" s="11"/>
     </row>
-    <row r="62" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="62" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="7"/>
       <c r="C62" s="5">
         <v>5302</v>
@@ -3384,7 +2770,7 @@
         <v>45</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F62" s="5">
         <v>1</v>
@@ -3392,8 +2778,8 @@
       <c r="G62" s="5">
         <v>102</v>
       </c>
-      <c r="H62" s="13" t="s">
-        <v>37</v>
+      <c r="H62" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="I62" s="10">
         <v>150150150150150</v>
@@ -3406,7 +2792,7 @@
       </c>
       <c r="L62" s="11"/>
     </row>
-    <row r="63" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="63" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="7"/>
       <c r="C63" s="5">
         <v>5303</v>
@@ -3415,7 +2801,7 @@
         <v>45</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F63" s="5">
         <v>1</v>
@@ -3423,8 +2809,8 @@
       <c r="G63" s="5">
         <v>103</v>
       </c>
-      <c r="H63" s="13" t="s">
-        <v>39</v>
+      <c r="H63" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="I63" s="10">
         <v>150150150150150</v>
@@ -3437,7 +2823,7 @@
       </c>
       <c r="L63" s="11"/>
     </row>
-    <row r="64" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="64" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="7"/>
       <c r="C64" s="5">
         <v>5304</v>
@@ -3446,7 +2832,7 @@
         <v>45</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F64" s="5">
         <v>2</v>
@@ -3454,8 +2840,8 @@
       <c r="G64" s="5">
         <v>201</v>
       </c>
-      <c r="H64" s="13" t="s">
-        <v>40</v>
+      <c r="H64" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="I64" s="10">
         <v>150150150150150</v>
@@ -3468,7 +2854,7 @@
       </c>
       <c r="L64" s="11"/>
     </row>
-    <row r="65" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="65" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="7"/>
       <c r="C65" s="5">
         <v>5305</v>
@@ -3477,7 +2863,7 @@
         <v>45</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F65" s="5">
         <v>2</v>
@@ -3485,8 +2871,8 @@
       <c r="G65" s="5">
         <v>202</v>
       </c>
-      <c r="H65" s="13" t="s">
-        <v>40</v>
+      <c r="H65" s="12" t="s">
+        <v>39</v>
       </c>
       <c r="I65" s="10">
         <v>150150150150150</v>
@@ -3499,7 +2885,7 @@
       </c>
       <c r="L65" s="11"/>
     </row>
-    <row r="66" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="66" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="7"/>
       <c r="C66" s="5">
         <v>5306</v>
@@ -3508,7 +2894,7 @@
         <v>45</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F66" s="5">
         <v>2</v>
@@ -3516,8 +2902,8 @@
       <c r="G66" s="5">
         <v>203</v>
       </c>
-      <c r="H66" s="13" t="s">
-        <v>41</v>
+      <c r="H66" s="12" t="s">
+        <v>40</v>
       </c>
       <c r="I66" s="10">
         <v>150150150150150</v>
@@ -3530,7 +2916,7 @@
       </c>
       <c r="L66" s="11"/>
     </row>
-    <row r="67" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="67" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B67" s="7"/>
       <c r="C67" s="5">
         <v>5401</v>
@@ -3539,7 +2925,7 @@
         <v>55</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F67" s="5">
         <v>1</v>
@@ -3547,8 +2933,8 @@
       <c r="G67" s="5">
         <v>101</v>
       </c>
-      <c r="H67" s="13" t="s">
-        <v>42</v>
+      <c r="H67" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="I67" s="10">
         <v>200200200200200</v>
@@ -3561,7 +2947,7 @@
       </c>
       <c r="L67" s="11"/>
     </row>
-    <row r="68" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="68" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B68" s="7"/>
       <c r="C68" s="5">
         <v>5402</v>
@@ -3570,7 +2956,7 @@
         <v>55</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F68" s="5">
         <v>1</v>
@@ -3578,8 +2964,8 @@
       <c r="G68" s="5">
         <v>102</v>
       </c>
-      <c r="H68" s="13" t="s">
-        <v>42</v>
+      <c r="H68" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="I68" s="10">
         <v>200200200200200</v>
@@ -3592,7 +2978,7 @@
       </c>
       <c r="L68" s="11"/>
     </row>
-    <row r="69" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="69" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="7"/>
       <c r="C69" s="5">
         <v>5403</v>
@@ -3601,7 +2987,7 @@
         <v>55</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F69" s="5">
         <v>1</v>
@@ -3609,8 +2995,8 @@
       <c r="G69" s="5">
         <v>103</v>
       </c>
-      <c r="H69" s="13" t="s">
-        <v>44</v>
+      <c r="H69" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="I69" s="10">
         <v>200200200200200</v>
@@ -3623,7 +3009,7 @@
       </c>
       <c r="L69" s="11"/>
     </row>
-    <row r="70" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="70" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="7"/>
       <c r="C70" s="5">
         <v>5404</v>
@@ -3632,7 +3018,7 @@
         <v>55</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F70" s="5">
         <v>2</v>
@@ -3640,8 +3026,8 @@
       <c r="G70" s="5">
         <v>201</v>
       </c>
-      <c r="H70" s="13" t="s">
-        <v>45</v>
+      <c r="H70" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="I70" s="10">
         <v>200200200200200</v>
@@ -3654,7 +3040,7 @@
       </c>
       <c r="L70" s="11"/>
     </row>
-    <row r="71" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="71" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B71" s="7"/>
       <c r="C71" s="5">
         <v>5405</v>
@@ -3663,7 +3049,7 @@
         <v>55</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F71" s="5">
         <v>2</v>
@@ -3671,8 +3057,8 @@
       <c r="G71" s="5">
         <v>202</v>
       </c>
-      <c r="H71" s="13" t="s">
-        <v>45</v>
+      <c r="H71" s="12" t="s">
+        <v>44</v>
       </c>
       <c r="I71" s="10">
         <v>200200200200200</v>
@@ -3685,7 +3071,7 @@
       </c>
       <c r="L71" s="11"/>
     </row>
-    <row r="72" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="72" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B72" s="7"/>
       <c r="C72" s="5">
         <v>5406</v>
@@ -3694,7 +3080,7 @@
         <v>55</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F72" s="5">
         <v>2</v>
@@ -3702,8 +3088,8 @@
       <c r="G72" s="5">
         <v>203</v>
       </c>
-      <c r="H72" s="13" t="s">
-        <v>46</v>
+      <c r="H72" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="I72" s="10">
         <v>200200200200200</v>
@@ -3716,7 +3102,7 @@
       </c>
       <c r="L72" s="11"/>
     </row>
-    <row r="73" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+    <row r="73" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B73" s="7"/>
       <c r="C73" s="5">
         <v>5001</v>
@@ -3725,7 +3111,7 @@
         <v>30</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F73" s="5">
         <v>2</v>
@@ -3733,8 +3119,8 @@
       <c r="G73" s="5">
         <v>203</v>
       </c>
-      <c r="H73" s="13" t="s">
-        <v>36</v>
+      <c r="H73" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="I73" s="10">
         <v>100100100100100</v>
@@ -3743,11 +3129,11 @@
         <v>5</v>
       </c>
       <c r="K73" s="5"/>
-      <c r="L73" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="74" ht="20.1" customHeight="1" spans="3:10">
+      <c r="L73" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C74" s="5">
         <v>6001</v>
       </c>
@@ -3755,7 +3141,7 @@
         <v>40</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F74" s="3">
         <v>2</v>
@@ -3763,8 +3149,8 @@
       <c r="G74" s="3">
         <v>203</v>
       </c>
-      <c r="H74" s="13" t="s">
-        <v>36</v>
+      <c r="H74" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="I74" s="10">
         <v>200200200200200</v>
@@ -3773,10 +3159,64 @@
         <v>6</v>
       </c>
     </row>
+    <row r="75" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="7"/>
+      <c r="C75" s="5">
+        <v>7001</v>
+      </c>
+      <c r="D75" s="5">
+        <v>1</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F75" s="5">
+        <v>1</v>
+      </c>
+      <c r="G75" s="5">
+        <v>0</v>
+      </c>
+      <c r="H75" s="5"/>
+      <c r="I75" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J75" s="8">
+        <v>7</v>
+      </c>
+      <c r="K75" s="5"/>
+      <c r="L75" s="9"/>
+    </row>
+    <row r="76" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="7"/>
+      <c r="C76" s="5">
+        <v>8001</v>
+      </c>
+      <c r="D76" s="5">
+        <v>1</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F76" s="5">
+        <v>1</v>
+      </c>
+      <c r="G76" s="5">
+        <v>0</v>
+      </c>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J76" s="8">
+        <v>8</v>
+      </c>
+      <c r="K76" s="5"/>
+      <c r="L76" s="9"/>
+    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/RobotConfig.xlsx
+++ b/Excel/RobotConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D45066D-FAF7-405F-BCB8-F1D9FD3B4AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35F8C6D-684E-426D-A05E-F7437DFA5F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -791,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G82" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A75" sqref="A75:XFD76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3165,7 +3165,7 @@
         <v>7001</v>
       </c>
       <c r="D75" s="5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>56</v>
@@ -3192,7 +3192,7 @@
         <v>8001</v>
       </c>
       <c r="D76" s="5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>57</v>

--- a/Excel/RobotConfig.xlsx
+++ b/Excel/RobotConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35F8C6D-684E-426D-A05E-F7437DFA5F34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16E6666-7650-4366-BD5D-DCB0D358A027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,7 +86,8 @@
 5   角斗场机器人
 6   solo场机器人
 7   剧情机器人
-8   塔防机器人</t>
+8   塔防机器人
+9   恶魔活动机器人</t>
         </r>
       </text>
     </comment>
@@ -171,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="60">
   <si>
     <t>cs</t>
   </si>
@@ -347,6 +348,14 @@
   </si>
   <si>
     <t>测试机器人2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>恶魔活动机器人</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.70,0.98,-44.76</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -789,10 +798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L76"/>
+  <dimension ref="A1:L77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:XFD76"/>
+    <sheetView tabSelected="1" topLeftCell="G67" workbookViewId="0">
+      <selection activeCell="L77" sqref="L77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3213,6 +3222,37 @@
       <c r="K76" s="5"/>
       <c r="L76" s="9"/>
     </row>
+    <row r="77" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B77" s="7"/>
+      <c r="C77" s="5">
+        <v>9001</v>
+      </c>
+      <c r="D77" s="5">
+        <v>55</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F77" s="5">
+        <v>1</v>
+      </c>
+      <c r="G77" s="5">
+        <v>0</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J77" s="8">
+        <v>9</v>
+      </c>
+      <c r="K77" s="5"/>
+      <c r="L77" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/RobotConfig.xlsx
+++ b/Excel/RobotConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16E6666-7650-4366-BD5D-DCB0D358A027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9B1426-9CE3-45DD-9624-E3E42AA169AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -87,7 +87,8 @@
 6   solo场机器人
 7   剧情机器人
 8   塔防机器人
-9   恶魔活动机器人</t>
+9   奔跑大赛机器人
+10  恶魔活动机器人</t>
         </r>
       </text>
     </comment>
@@ -172,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="62">
   <si>
     <t>cs</t>
   </si>
@@ -355,7 +356,15 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>12.70,0.98,-44.76</t>
+    <t>12.70;0.98;-44.76;2</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>奔跑大赛机器人</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>-11.36;0.98;45.02;2</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -798,9 +807,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L77"/>
+  <dimension ref="A1:L78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G67" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
       <selection activeCell="L77" sqref="L77"/>
     </sheetView>
   </sheetViews>
@@ -3231,7 +3240,7 @@
         <v>55</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F77" s="5">
         <v>1</v>
@@ -3250,6 +3259,37 @@
       </c>
       <c r="K77" s="5"/>
       <c r="L77" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B78" s="7"/>
+      <c r="C78" s="5">
+        <v>10001</v>
+      </c>
+      <c r="D78" s="5">
+        <v>55</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F78" s="5">
+        <v>1</v>
+      </c>
+      <c r="G78" s="5">
+        <v>0</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J78" s="8">
+        <v>10</v>
+      </c>
+      <c r="K78" s="5"/>
+      <c r="L78" s="13" t="s">
         <v>59</v>
       </c>
     </row>

--- a/Excel/RobotConfig.xlsx
+++ b/Excel/RobotConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9B1426-9CE3-45DD-9624-E3E42AA169AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D7BD0A-E0B3-421B-8B49-D9925A96873A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RobotConfig" sheetId="1" r:id="rId1"/>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="63">
   <si>
     <t>cs</t>
   </si>
@@ -366,13 +366,16 @@
   <si>
     <t>-11.36;0.98;45.02;2</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1250,1250,1250,1250,1250</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -807,13 +810,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L78"/>
+  <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="L77" sqref="L77"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37:D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="2" width="9" style="2"/>
     <col min="3" max="3" width="9.625" style="2" customWidth="1"/>
@@ -829,7 +832,7 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -845,7 +848,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -861,7 +864,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
@@ -895,7 +898,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
@@ -929,7 +932,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6" t="s">
@@ -963,7 +966,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="7"/>
       <c r="C6" s="5">
         <v>1001</v>
@@ -990,7 +993,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="7"/>
       <c r="C7" s="5">
         <v>2101</v>
@@ -1023,7 +1026,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="7"/>
       <c r="C8" s="5">
         <v>2102</v>
@@ -1056,7 +1059,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="7"/>
       <c r="C9" s="5">
         <v>2103</v>
@@ -1089,7 +1092,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="7"/>
       <c r="C10" s="5">
         <v>2104</v>
@@ -1122,7 +1125,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="7"/>
       <c r="C11" s="5">
         <v>2105</v>
@@ -1155,7 +1158,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="7"/>
       <c r="C12" s="5">
         <v>2106</v>
@@ -1188,7 +1191,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="7"/>
       <c r="C13" s="5">
         <f>C7+100</f>
@@ -1222,10 +1225,10 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="7"/>
       <c r="C14" s="5">
-        <f t="shared" ref="C14:C36" si="0">C8+100</f>
+        <f t="shared" ref="C14:C42" si="0">C8+100</f>
         <v>2202</v>
       </c>
       <c r="D14" s="5">
@@ -1256,7 +1259,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="7"/>
       <c r="C15" s="5">
         <f t="shared" si="0"/>
@@ -1290,7 +1293,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="7"/>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
@@ -1324,7 +1327,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="7"/>
       <c r="C17" s="5">
         <f t="shared" si="0"/>
@@ -1358,7 +1361,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="7"/>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
@@ -1392,7 +1395,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="7"/>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
@@ -1426,7 +1429,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="7"/>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
@@ -1460,7 +1463,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="7"/>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
@@ -1494,7 +1497,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="7"/>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
@@ -1528,7 +1531,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="7"/>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
@@ -1562,7 +1565,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B24" s="7"/>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
@@ -1596,7 +1599,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B25" s="7"/>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
@@ -1630,7 +1633,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B26" s="7"/>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
@@ -1664,7 +1667,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B27" s="7"/>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
@@ -1698,7 +1701,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B28" s="7"/>
       <c r="C28" s="5">
         <f t="shared" si="0"/>
@@ -1732,7 +1735,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B29" s="7"/>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
@@ -1766,7 +1769,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B30" s="7"/>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
@@ -1800,7 +1803,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B31" s="7"/>
       <c r="C31" s="5">
         <f t="shared" si="0"/>
@@ -1834,7 +1837,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B32" s="7"/>
       <c r="C32" s="5">
         <f t="shared" si="0"/>
@@ -1868,7 +1871,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="33" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B33" s="7"/>
       <c r="C33" s="5">
         <f t="shared" si="0"/>
@@ -1902,7 +1905,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B34" s="7"/>
       <c r="C34" s="5">
         <f t="shared" si="0"/>
@@ -1936,7 +1939,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B35" s="7"/>
       <c r="C35" s="5">
         <f t="shared" si="0"/>
@@ -1970,7 +1973,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B36" s="7"/>
       <c r="C36" s="5">
         <f t="shared" si="0"/>
@@ -2004,16 +2007,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B37" s="7"/>
       <c r="C37" s="5">
-        <v>3001</v>
+        <f t="shared" si="0"/>
+        <v>2601</v>
       </c>
       <c r="D37" s="5">
-        <v>20</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>48</v>
+        <v>65</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F37" s="5">
         <v>1</v>
@@ -2022,29 +2026,32 @@
         <v>101</v>
       </c>
       <c r="H37" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I37" s="10">
-        <v>300300300300300</v>
-      </c>
-      <c r="J37" s="5">
-        <v>3</v>
-      </c>
-      <c r="K37" s="5"/>
-      <c r="L37" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+      <c r="I37" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J37" s="8">
+        <v>2</v>
+      </c>
+      <c r="K37" s="5">
+        <v>110006</v>
+      </c>
+      <c r="L37" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B38" s="7"/>
       <c r="C38" s="5">
-        <v>3002</v>
+        <f t="shared" si="0"/>
+        <v>2602</v>
       </c>
       <c r="D38" s="5">
-        <v>20</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>48</v>
+        <v>65</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F38" s="5">
         <v>1</v>
@@ -2053,29 +2060,32 @@
         <v>102</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I38" s="10">
-        <v>300300300300300</v>
-      </c>
-      <c r="J38" s="5">
-        <v>3</v>
-      </c>
-      <c r="K38" s="5"/>
-      <c r="L38" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+      <c r="I38" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J38" s="8">
+        <v>2</v>
+      </c>
+      <c r="K38" s="5">
+        <v>110006</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B39" s="7"/>
       <c r="C39" s="5">
-        <v>3003</v>
+        <f t="shared" si="0"/>
+        <v>2603</v>
       </c>
       <c r="D39" s="5">
-        <v>20</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>48</v>
+        <v>65</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F39" s="5">
         <v>1</v>
@@ -2084,29 +2094,32 @@
         <v>103</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I39" s="10">
-        <v>300300300300300</v>
-      </c>
-      <c r="J39" s="5">
-        <v>3</v>
-      </c>
-      <c r="K39" s="5"/>
-      <c r="L39" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+      <c r="I39" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J39" s="8">
+        <v>2</v>
+      </c>
+      <c r="K39" s="5">
+        <v>110006</v>
+      </c>
+      <c r="L39" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B40" s="7"/>
       <c r="C40" s="5">
-        <v>3004</v>
+        <f t="shared" si="0"/>
+        <v>2604</v>
       </c>
       <c r="D40" s="5">
-        <v>20</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>48</v>
+        <v>65</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F40" s="5">
         <v>2</v>
@@ -2115,29 +2128,32 @@
         <v>201</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I40" s="10">
-        <v>300300300300300</v>
-      </c>
-      <c r="J40" s="5">
-        <v>3</v>
-      </c>
-      <c r="K40" s="5"/>
-      <c r="L40" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="I40" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J40" s="8">
+        <v>2</v>
+      </c>
+      <c r="K40" s="5">
+        <v>110006</v>
+      </c>
+      <c r="L40" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B41" s="7"/>
       <c r="C41" s="5">
-        <v>3005</v>
+        <f t="shared" si="0"/>
+        <v>2605</v>
       </c>
       <c r="D41" s="5">
-        <v>20</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>48</v>
+        <v>65</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F41" s="5">
         <v>2</v>
@@ -2146,29 +2162,32 @@
         <v>202</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I41" s="10">
-        <v>300300300300300</v>
-      </c>
-      <c r="J41" s="5">
-        <v>3</v>
-      </c>
-      <c r="K41" s="5"/>
-      <c r="L41" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+      <c r="I41" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J41" s="8">
+        <v>2</v>
+      </c>
+      <c r="K41" s="5">
+        <v>110006</v>
+      </c>
+      <c r="L41" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B42" s="7"/>
       <c r="C42" s="5">
-        <v>3006</v>
+        <f t="shared" si="0"/>
+        <v>2606</v>
       </c>
       <c r="D42" s="5">
-        <v>20</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>48</v>
+        <v>65</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="F42" s="5">
         <v>2</v>
@@ -2177,29 +2196,31 @@
         <v>203</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I42" s="10">
-        <v>300300300300300</v>
-      </c>
-      <c r="J42" s="5">
-        <v>3</v>
-      </c>
-      <c r="K42" s="5"/>
-      <c r="L42" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+      <c r="I42" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J42" s="8">
+        <v>2</v>
+      </c>
+      <c r="K42" s="5">
+        <v>110006</v>
+      </c>
+      <c r="L42" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B43" s="7"/>
       <c r="C43" s="5">
-        <v>3051</v>
+        <v>3001</v>
       </c>
       <c r="D43" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F43" s="5">
         <v>1</v>
@@ -2208,10 +2229,10 @@
         <v>101</v>
       </c>
       <c r="H43" s="12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I43" s="10">
-        <v>900900900900900</v>
+        <v>300300300300300</v>
       </c>
       <c r="J43" s="5">
         <v>3</v>
@@ -2221,16 +2242,16 @@
         <v>49</v>
       </c>
     </row>
-    <row r="44" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B44" s="7"/>
       <c r="C44" s="5">
-        <v>3052</v>
+        <v>3002</v>
       </c>
       <c r="D44" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F44" s="5">
         <v>1</v>
@@ -2239,10 +2260,10 @@
         <v>102</v>
       </c>
       <c r="H44" s="12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I44" s="10">
-        <v>900900900900900</v>
+        <v>300300300300300</v>
       </c>
       <c r="J44" s="5">
         <v>3</v>
@@ -2252,16 +2273,16 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B45" s="7"/>
       <c r="C45" s="5">
-        <v>3053</v>
+        <v>3003</v>
       </c>
       <c r="D45" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F45" s="5">
         <v>1</v>
@@ -2270,10 +2291,10 @@
         <v>103</v>
       </c>
       <c r="H45" s="12" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I45" s="10">
-        <v>900900900900900</v>
+        <v>300300300300300</v>
       </c>
       <c r="J45" s="5">
         <v>3</v>
@@ -2283,16 +2304,16 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B46" s="7"/>
       <c r="C46" s="5">
-        <v>3054</v>
+        <v>3004</v>
       </c>
       <c r="D46" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F46" s="5">
         <v>2</v>
@@ -2301,10 +2322,10 @@
         <v>201</v>
       </c>
       <c r="H46" s="12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I46" s="10">
-        <v>900900900900900</v>
+        <v>300300300300300</v>
       </c>
       <c r="J46" s="5">
         <v>3</v>
@@ -2314,16 +2335,16 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B47" s="7"/>
       <c r="C47" s="5">
-        <v>3055</v>
+        <v>3005</v>
       </c>
       <c r="D47" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F47" s="5">
         <v>2</v>
@@ -2332,10 +2353,10 @@
         <v>202</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="I47" s="10">
-        <v>900900900900900</v>
+        <v>300300300300300</v>
       </c>
       <c r="J47" s="5">
         <v>3</v>
@@ -2345,16 +2366,16 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B48" s="7"/>
       <c r="C48" s="5">
-        <v>3056</v>
+        <v>3006</v>
       </c>
       <c r="D48" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F48" s="5">
         <v>2</v>
@@ -2363,10 +2384,10 @@
         <v>203</v>
       </c>
       <c r="H48" s="12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I48" s="10">
-        <v>900900900900900</v>
+        <v>300300300300300</v>
       </c>
       <c r="J48" s="5">
         <v>3</v>
@@ -2376,16 +2397,16 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B49" s="7"/>
       <c r="C49" s="5">
-        <v>5101</v>
+        <v>3051</v>
       </c>
       <c r="D49" s="5">
-        <v>20</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>51</v>
+        <v>30</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="F49" s="5">
         <v>1</v>
@@ -2394,29 +2415,29 @@
         <v>101</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>52</v>
+        <v>31</v>
+      </c>
+      <c r="I49" s="10">
+        <v>900900900900900</v>
       </c>
       <c r="J49" s="5">
-        <v>4</v>
-      </c>
-      <c r="K49" s="11">
-        <v>72000002</v>
-      </c>
-      <c r="L49" s="11"/>
-    </row>
-    <row r="50" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K49" s="5"/>
+      <c r="L49" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B50" s="7"/>
       <c r="C50" s="5">
-        <v>5102</v>
+        <v>3052</v>
       </c>
       <c r="D50" s="5">
-        <v>20</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>51</v>
+        <v>30</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="F50" s="5">
         <v>1</v>
@@ -2425,29 +2446,29 @@
         <v>102</v>
       </c>
       <c r="H50" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I50" s="5" t="s">
-        <v>52</v>
+        <v>31</v>
+      </c>
+      <c r="I50" s="10">
+        <v>900900900900900</v>
       </c>
       <c r="J50" s="5">
-        <v>4</v>
-      </c>
-      <c r="K50" s="11">
-        <v>72000002</v>
-      </c>
-      <c r="L50" s="11"/>
-    </row>
-    <row r="51" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K50" s="5"/>
+      <c r="L50" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B51" s="7"/>
       <c r="C51" s="5">
-        <v>5103</v>
+        <v>3053</v>
       </c>
       <c r="D51" s="5">
-        <v>20</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>51</v>
+        <v>30</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="F51" s="5">
         <v>1</v>
@@ -2456,29 +2477,29 @@
         <v>103</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I51" s="5" t="s">
-        <v>52</v>
+        <v>33</v>
+      </c>
+      <c r="I51" s="10">
+        <v>900900900900900</v>
       </c>
       <c r="J51" s="5">
-        <v>4</v>
-      </c>
-      <c r="K51" s="11">
-        <v>72000002</v>
-      </c>
-      <c r="L51" s="11"/>
-    </row>
-    <row r="52" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K51" s="5"/>
+      <c r="L51" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B52" s="7"/>
       <c r="C52" s="5">
-        <v>5104</v>
+        <v>3054</v>
       </c>
       <c r="D52" s="5">
-        <v>20</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>51</v>
+        <v>30</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="F52" s="5">
         <v>2</v>
@@ -2487,29 +2508,29 @@
         <v>201</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I52" s="5" t="s">
-        <v>52</v>
+        <v>34</v>
+      </c>
+      <c r="I52" s="10">
+        <v>900900900900900</v>
       </c>
       <c r="J52" s="5">
-        <v>4</v>
-      </c>
-      <c r="K52" s="11">
-        <v>72000002</v>
-      </c>
-      <c r="L52" s="11"/>
-    </row>
-    <row r="53" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K52" s="5"/>
+      <c r="L52" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B53" s="7"/>
       <c r="C53" s="5">
-        <v>5105</v>
+        <v>3055</v>
       </c>
       <c r="D53" s="5">
-        <v>20</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>51</v>
+        <v>30</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="F53" s="5">
         <v>2</v>
@@ -2518,29 +2539,29 @@
         <v>202</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I53" s="5" t="s">
-        <v>52</v>
+        <v>34</v>
+      </c>
+      <c r="I53" s="10">
+        <v>900900900900900</v>
       </c>
       <c r="J53" s="5">
-        <v>4</v>
-      </c>
-      <c r="K53" s="11">
-        <v>72000002</v>
-      </c>
-      <c r="L53" s="11"/>
-    </row>
-    <row r="54" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K53" s="5"/>
+      <c r="L53" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B54" s="7"/>
       <c r="C54" s="5">
-        <v>5106</v>
+        <v>3056</v>
       </c>
       <c r="D54" s="5">
-        <v>20</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>51</v>
+        <v>30</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="F54" s="5">
         <v>2</v>
@@ -2549,26 +2570,26 @@
         <v>203</v>
       </c>
       <c r="H54" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I54" s="5" t="s">
-        <v>52</v>
+        <v>35</v>
+      </c>
+      <c r="I54" s="10">
+        <v>900900900900900</v>
       </c>
       <c r="J54" s="5">
-        <v>4</v>
-      </c>
-      <c r="K54" s="11">
-        <v>72000002</v>
-      </c>
-      <c r="L54" s="11"/>
-    </row>
-    <row r="55" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="K54" s="5"/>
+      <c r="L54" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B55" s="7"/>
       <c r="C55" s="5">
-        <v>5201</v>
+        <v>5101</v>
       </c>
       <c r="D55" s="5">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>51</v>
@@ -2580,26 +2601,26 @@
         <v>101</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I55" s="10">
-        <v>100100100100100</v>
+        <v>26</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="J55" s="5">
         <v>4</v>
       </c>
       <c r="K55" s="11">
-        <v>72000003</v>
+        <v>72000002</v>
       </c>
       <c r="L55" s="11"/>
     </row>
-    <row r="56" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B56" s="7"/>
       <c r="C56" s="5">
-        <v>5202</v>
+        <v>5102</v>
       </c>
       <c r="D56" s="5">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>51</v>
@@ -2611,26 +2632,26 @@
         <v>102</v>
       </c>
       <c r="H56" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I56" s="10">
-        <v>100100100100100</v>
+        <v>26</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="J56" s="5">
         <v>4</v>
       </c>
       <c r="K56" s="11">
-        <v>72000003</v>
+        <v>72000002</v>
       </c>
       <c r="L56" s="11"/>
     </row>
-    <row r="57" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B57" s="7"/>
       <c r="C57" s="5">
-        <v>5203</v>
+        <v>5103</v>
       </c>
       <c r="D57" s="5">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E57" s="8" t="s">
         <v>51</v>
@@ -2642,26 +2663,26 @@
         <v>103</v>
       </c>
       <c r="H57" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I57" s="10">
-        <v>100100100100100</v>
+        <v>28</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="J57" s="5">
         <v>4</v>
       </c>
       <c r="K57" s="11">
-        <v>72000003</v>
+        <v>72000002</v>
       </c>
       <c r="L57" s="11"/>
     </row>
-    <row r="58" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B58" s="7"/>
       <c r="C58" s="5">
-        <v>5204</v>
+        <v>5104</v>
       </c>
       <c r="D58" s="5">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>51</v>
@@ -2673,26 +2694,26 @@
         <v>201</v>
       </c>
       <c r="H58" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I58" s="10">
-        <v>100100100100100</v>
+        <v>29</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="J58" s="5">
         <v>4</v>
       </c>
       <c r="K58" s="11">
-        <v>72000003</v>
+        <v>72000002</v>
       </c>
       <c r="L58" s="11"/>
     </row>
-    <row r="59" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B59" s="7"/>
       <c r="C59" s="5">
-        <v>5205</v>
+        <v>5105</v>
       </c>
       <c r="D59" s="5">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>51</v>
@@ -2704,26 +2725,26 @@
         <v>202</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I59" s="10">
-        <v>100100100100100</v>
+        <v>29</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="J59" s="5">
         <v>4</v>
       </c>
       <c r="K59" s="11">
-        <v>72000003</v>
+        <v>72000002</v>
       </c>
       <c r="L59" s="11"/>
     </row>
-    <row r="60" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B60" s="7"/>
       <c r="C60" s="5">
-        <v>5206</v>
+        <v>5106</v>
       </c>
       <c r="D60" s="5">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>51</v>
@@ -2735,26 +2756,26 @@
         <v>203</v>
       </c>
       <c r="H60" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I60" s="10">
-        <v>100100100100100</v>
+        <v>30</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="J60" s="5">
         <v>4</v>
       </c>
       <c r="K60" s="11">
-        <v>72000003</v>
+        <v>72000002</v>
       </c>
       <c r="L60" s="11"/>
     </row>
-    <row r="61" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B61" s="7"/>
       <c r="C61" s="5">
-        <v>5301</v>
+        <v>5201</v>
       </c>
       <c r="D61" s="5">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>51</v>
@@ -2766,26 +2787,26 @@
         <v>101</v>
       </c>
       <c r="H61" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I61" s="10">
-        <v>150150150150150</v>
+        <v>100100100100100</v>
       </c>
       <c r="J61" s="5">
         <v>4</v>
       </c>
       <c r="K61" s="11">
-        <v>72000004</v>
+        <v>72000003</v>
       </c>
       <c r="L61" s="11"/>
     </row>
-    <row r="62" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B62" s="7"/>
       <c r="C62" s="5">
-        <v>5302</v>
+        <v>5202</v>
       </c>
       <c r="D62" s="5">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>51</v>
@@ -2797,26 +2818,26 @@
         <v>102</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I62" s="10">
-        <v>150150150150150</v>
+        <v>100100100100100</v>
       </c>
       <c r="J62" s="5">
         <v>4</v>
       </c>
       <c r="K62" s="11">
-        <v>72000004</v>
+        <v>72000003</v>
       </c>
       <c r="L62" s="11"/>
     </row>
-    <row r="63" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B63" s="7"/>
       <c r="C63" s="5">
-        <v>5303</v>
+        <v>5203</v>
       </c>
       <c r="D63" s="5">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E63" s="8" t="s">
         <v>51</v>
@@ -2828,26 +2849,26 @@
         <v>103</v>
       </c>
       <c r="H63" s="12" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I63" s="10">
-        <v>150150150150150</v>
+        <v>100100100100100</v>
       </c>
       <c r="J63" s="5">
         <v>4</v>
       </c>
       <c r="K63" s="11">
-        <v>72000004</v>
+        <v>72000003</v>
       </c>
       <c r="L63" s="11"/>
     </row>
-    <row r="64" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B64" s="7"/>
       <c r="C64" s="5">
-        <v>5304</v>
+        <v>5204</v>
       </c>
       <c r="D64" s="5">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E64" s="8" t="s">
         <v>51</v>
@@ -2859,26 +2880,26 @@
         <v>201</v>
       </c>
       <c r="H64" s="12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I64" s="10">
-        <v>150150150150150</v>
+        <v>100100100100100</v>
       </c>
       <c r="J64" s="5">
         <v>4</v>
       </c>
       <c r="K64" s="11">
-        <v>72000004</v>
+        <v>72000003</v>
       </c>
       <c r="L64" s="11"/>
     </row>
-    <row r="65" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B65" s="7"/>
       <c r="C65" s="5">
-        <v>5305</v>
+        <v>5205</v>
       </c>
       <c r="D65" s="5">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E65" s="8" t="s">
         <v>51</v>
@@ -2890,26 +2911,26 @@
         <v>202</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="I65" s="10">
-        <v>150150150150150</v>
+        <v>100100100100100</v>
       </c>
       <c r="J65" s="5">
         <v>4</v>
       </c>
       <c r="K65" s="11">
-        <v>72000004</v>
+        <v>72000003</v>
       </c>
       <c r="L65" s="11"/>
     </row>
-    <row r="66" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B66" s="7"/>
       <c r="C66" s="5">
-        <v>5306</v>
+        <v>5206</v>
       </c>
       <c r="D66" s="5">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E66" s="8" t="s">
         <v>51</v>
@@ -2921,26 +2942,26 @@
         <v>203</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="I66" s="10">
-        <v>150150150150150</v>
+        <v>100100100100100</v>
       </c>
       <c r="J66" s="5">
         <v>4</v>
       </c>
       <c r="K66" s="11">
-        <v>72000004</v>
+        <v>72000003</v>
       </c>
       <c r="L66" s="11"/>
     </row>
-    <row r="67" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B67" s="7"/>
       <c r="C67" s="5">
-        <v>5401</v>
+        <v>5301</v>
       </c>
       <c r="D67" s="5">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E67" s="8" t="s">
         <v>51</v>
@@ -2952,26 +2973,26 @@
         <v>101</v>
       </c>
       <c r="H67" s="12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I67" s="10">
-        <v>200200200200200</v>
+        <v>150150150150150</v>
       </c>
       <c r="J67" s="5">
         <v>4</v>
       </c>
       <c r="K67" s="11">
-        <v>72000005</v>
+        <v>72000004</v>
       </c>
       <c r="L67" s="11"/>
     </row>
-    <row r="68" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B68" s="7"/>
       <c r="C68" s="5">
-        <v>5402</v>
+        <v>5302</v>
       </c>
       <c r="D68" s="5">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>51</v>
@@ -2983,26 +3004,26 @@
         <v>102</v>
       </c>
       <c r="H68" s="12" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I68" s="10">
-        <v>200200200200200</v>
+        <v>150150150150150</v>
       </c>
       <c r="J68" s="5">
         <v>4</v>
       </c>
       <c r="K68" s="11">
-        <v>72000005</v>
+        <v>72000004</v>
       </c>
       <c r="L68" s="11"/>
     </row>
-    <row r="69" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B69" s="7"/>
       <c r="C69" s="5">
-        <v>5403</v>
+        <v>5303</v>
       </c>
       <c r="D69" s="5">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>51</v>
@@ -3014,26 +3035,26 @@
         <v>103</v>
       </c>
       <c r="H69" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="I69" s="10">
-        <v>200200200200200</v>
+        <v>150150150150150</v>
       </c>
       <c r="J69" s="5">
         <v>4</v>
       </c>
       <c r="K69" s="11">
-        <v>72000005</v>
+        <v>72000004</v>
       </c>
       <c r="L69" s="11"/>
     </row>
-    <row r="70" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B70" s="7"/>
       <c r="C70" s="5">
-        <v>5404</v>
+        <v>5304</v>
       </c>
       <c r="D70" s="5">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>51</v>
@@ -3045,26 +3066,26 @@
         <v>201</v>
       </c>
       <c r="H70" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I70" s="10">
-        <v>200200200200200</v>
+        <v>150150150150150</v>
       </c>
       <c r="J70" s="5">
         <v>4</v>
       </c>
       <c r="K70" s="11">
-        <v>72000005</v>
+        <v>72000004</v>
       </c>
       <c r="L70" s="11"/>
     </row>
-    <row r="71" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B71" s="7"/>
       <c r="C71" s="5">
-        <v>5405</v>
+        <v>5305</v>
       </c>
       <c r="D71" s="5">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>51</v>
@@ -3076,26 +3097,26 @@
         <v>202</v>
       </c>
       <c r="H71" s="12" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I71" s="10">
-        <v>200200200200200</v>
+        <v>150150150150150</v>
       </c>
       <c r="J71" s="5">
         <v>4</v>
       </c>
       <c r="K71" s="11">
-        <v>72000005</v>
+        <v>72000004</v>
       </c>
       <c r="L71" s="11"/>
     </row>
-    <row r="72" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B72" s="7"/>
       <c r="C72" s="5">
-        <v>5406</v>
+        <v>5306</v>
       </c>
       <c r="D72" s="5">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>51</v>
@@ -3107,189 +3128,375 @@
         <v>203</v>
       </c>
       <c r="H72" s="12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="I72" s="10">
-        <v>200200200200200</v>
+        <v>150150150150150</v>
       </c>
       <c r="J72" s="5">
         <v>4</v>
       </c>
       <c r="K72" s="11">
-        <v>72000005</v>
+        <v>72000004</v>
       </c>
       <c r="L72" s="11"/>
     </row>
-    <row r="73" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B73" s="7"/>
       <c r="C73" s="5">
-        <v>5001</v>
+        <v>5401</v>
       </c>
       <c r="D73" s="5">
-        <v>30</v>
-      </c>
-      <c r="E73" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="F73" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G73" s="5">
-        <v>203</v>
+        <v>101</v>
       </c>
       <c r="H73" s="12" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I73" s="10">
-        <v>100100100100100</v>
+        <v>200200200200200</v>
       </c>
       <c r="J73" s="5">
-        <v>5</v>
-      </c>
-      <c r="K73" s="5"/>
-      <c r="L73" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="74" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+      <c r="K73" s="11">
+        <v>72000005</v>
+      </c>
+      <c r="L73" s="11"/>
+    </row>
+    <row r="74" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B74" s="7"/>
       <c r="C74" s="5">
-        <v>6001</v>
+        <v>5402</v>
       </c>
       <c r="D74" s="5">
-        <v>40</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F74" s="3">
-        <v>2</v>
-      </c>
-      <c r="G74" s="3">
-        <v>203</v>
+        <v>55</v>
+      </c>
+      <c r="E74" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F74" s="5">
+        <v>1</v>
+      </c>
+      <c r="G74" s="5">
+        <v>102</v>
       </c>
       <c r="H74" s="12" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I74" s="10">
         <v>200200200200200</v>
       </c>
-      <c r="J74" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="75" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="J74" s="5">
+        <v>4</v>
+      </c>
+      <c r="K74" s="11">
+        <v>72000005</v>
+      </c>
+      <c r="L74" s="11"/>
+    </row>
+    <row r="75" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B75" s="7"/>
       <c r="C75" s="5">
-        <v>7001</v>
+        <v>5403</v>
       </c>
       <c r="D75" s="5">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F75" s="5">
         <v>1</v>
       </c>
       <c r="G75" s="5">
-        <v>0</v>
-      </c>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J75" s="8">
-        <v>7</v>
-      </c>
-      <c r="K75" s="5"/>
-      <c r="L75" s="9"/>
-    </row>
-    <row r="76" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>103</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="I75" s="10">
+        <v>200200200200200</v>
+      </c>
+      <c r="J75" s="5">
+        <v>4</v>
+      </c>
+      <c r="K75" s="11">
+        <v>72000005</v>
+      </c>
+      <c r="L75" s="11"/>
+    </row>
+    <row r="76" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B76" s="7"/>
       <c r="C76" s="5">
-        <v>8001</v>
+        <v>5404</v>
       </c>
       <c r="D76" s="5">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F76" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G76" s="5">
-        <v>0</v>
-      </c>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J76" s="8">
-        <v>8</v>
-      </c>
-      <c r="K76" s="5"/>
-      <c r="L76" s="9"/>
-    </row>
-    <row r="77" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+        <v>201</v>
+      </c>
+      <c r="H76" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I76" s="10">
+        <v>200200200200200</v>
+      </c>
+      <c r="J76" s="5">
+        <v>4</v>
+      </c>
+      <c r="K76" s="11">
+        <v>72000005</v>
+      </c>
+      <c r="L76" s="11"/>
+    </row>
+    <row r="77" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B77" s="7"/>
       <c r="C77" s="5">
-        <v>9001</v>
+        <v>5405</v>
       </c>
       <c r="D77" s="5">
         <v>55</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="F77" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G77" s="5">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="H77" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="I77" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J77" s="8">
-        <v>9</v>
-      </c>
-      <c r="K77" s="5"/>
-      <c r="L77" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="78" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I77" s="10">
+        <v>200200200200200</v>
+      </c>
+      <c r="J77" s="5">
+        <v>4</v>
+      </c>
+      <c r="K77" s="11">
+        <v>72000005</v>
+      </c>
+      <c r="L77" s="11"/>
+    </row>
+    <row r="78" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B78" s="7"/>
       <c r="C78" s="5">
-        <v>10001</v>
+        <v>5406</v>
       </c>
       <c r="D78" s="5">
         <v>55</v>
       </c>
       <c r="E78" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F78" s="5">
+        <v>2</v>
+      </c>
+      <c r="G78" s="5">
+        <v>203</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I78" s="10">
+        <v>200200200200200</v>
+      </c>
+      <c r="J78" s="5">
+        <v>4</v>
+      </c>
+      <c r="K78" s="11">
+        <v>72000005</v>
+      </c>
+      <c r="L78" s="11"/>
+    </row>
+    <row r="79" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B79" s="7"/>
+      <c r="C79" s="5">
+        <v>5001</v>
+      </c>
+      <c r="D79" s="5">
+        <v>30</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F79" s="5">
+        <v>2</v>
+      </c>
+      <c r="G79" s="5">
+        <v>203</v>
+      </c>
+      <c r="H79" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I79" s="10">
+        <v>100100100100100</v>
+      </c>
+      <c r="J79" s="5">
+        <v>5</v>
+      </c>
+      <c r="K79" s="5"/>
+      <c r="L79" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="C80" s="5">
+        <v>6001</v>
+      </c>
+      <c r="D80" s="5">
+        <v>40</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F80" s="3">
+        <v>2</v>
+      </c>
+      <c r="G80" s="3">
+        <v>203</v>
+      </c>
+      <c r="H80" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I80" s="10">
+        <v>200200200200200</v>
+      </c>
+      <c r="J80" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B81" s="7"/>
+      <c r="C81" s="5">
+        <v>7001</v>
+      </c>
+      <c r="D81" s="5">
+        <v>20</v>
+      </c>
+      <c r="E81" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F81" s="5">
+        <v>1</v>
+      </c>
+      <c r="G81" s="5">
+        <v>0</v>
+      </c>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J81" s="8">
+        <v>7</v>
+      </c>
+      <c r="K81" s="5"/>
+      <c r="L81" s="9"/>
+    </row>
+    <row r="82" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B82" s="7"/>
+      <c r="C82" s="5">
+        <v>8001</v>
+      </c>
+      <c r="D82" s="5">
+        <v>20</v>
+      </c>
+      <c r="E82" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F82" s="5">
+        <v>1</v>
+      </c>
+      <c r="G82" s="5">
+        <v>0</v>
+      </c>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J82" s="8">
+        <v>8</v>
+      </c>
+      <c r="K82" s="5"/>
+      <c r="L82" s="9"/>
+    </row>
+    <row r="83" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B83" s="7"/>
+      <c r="C83" s="5">
+        <v>9001</v>
+      </c>
+      <c r="D83" s="5">
+        <v>55</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F83" s="5">
+        <v>1</v>
+      </c>
+      <c r="G83" s="5">
+        <v>0</v>
+      </c>
+      <c r="H83" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J83" s="8">
+        <v>9</v>
+      </c>
+      <c r="K83" s="5"/>
+      <c r="L83" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B84" s="7"/>
+      <c r="C84" s="5">
+        <v>10001</v>
+      </c>
+      <c r="D84" s="5">
+        <v>55</v>
+      </c>
+      <c r="E84" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F78" s="5">
-        <v>1</v>
-      </c>
-      <c r="G78" s="5">
+      <c r="F84" s="5">
+        <v>1</v>
+      </c>
+      <c r="G84" s="5">
         <v>0</v>
       </c>
-      <c r="H78" s="12" t="s">
+      <c r="H84" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="I78" s="5" t="s">
+      <c r="I84" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J78" s="8">
+      <c r="J84" s="8">
         <v>10</v>
       </c>
-      <c r="K78" s="5"/>
-      <c r="L78" s="13" t="s">
+      <c r="K84" s="5"/>
+      <c r="L84" s="13" t="s">
         <v>59</v>
       </c>
     </row>

--- a/Excel/RobotConfig.xlsx
+++ b/Excel/RobotConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1D7BD0A-E0B3-421B-8B49-D9925A96873A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEA2E70-7708-4072-9C7E-621168192916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -812,8 +812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37:D42"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2014,7 +2014,7 @@
         <v>2601</v>
       </c>
       <c r="D37" s="5">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>25</v>
@@ -2048,7 +2048,7 @@
         <v>2602</v>
       </c>
       <c r="D38" s="5">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E38" s="8" t="s">
         <v>25</v>
@@ -2082,7 +2082,7 @@
         <v>2603</v>
       </c>
       <c r="D39" s="5">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>25</v>
@@ -2116,7 +2116,7 @@
         <v>2604</v>
       </c>
       <c r="D40" s="5">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>25</v>
@@ -2150,7 +2150,7 @@
         <v>2605</v>
       </c>
       <c r="D41" s="5">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>25</v>
@@ -2184,7 +2184,7 @@
         <v>2606</v>
       </c>
       <c r="D42" s="5">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>25</v>

--- a/Excel/RobotConfig.xlsx
+++ b/Excel/RobotConfig.xlsx
@@ -1,39 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitWeiJing\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DEA2E70-7708-4072-9C7E-621168192916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="809" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12375" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="RobotConfig" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="I3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -42,31 +48,20 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>跟显示一样的数据</t>
+跟显示一样的数据</t>
         </r>
       </text>
     </comment>
-    <comment ref="J3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="J3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -75,7 +70,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -92,14 +86,13 @@
         </r>
       </text>
     </comment>
-    <comment ref="K3" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="K3" authorId="1">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Admin:</t>
@@ -108,41 +101,20 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>组队机器人： 副本ID</t>
+组队机器人： 副本ID</t>
         </r>
       </text>
     </comment>
-    <comment ref="L3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="L3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>Administrator:</t>
@@ -151,20 +123,10 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>跟显示一样的数据</t>
+跟显示一样的数据</t>
         </r>
       </text>
     </comment>
@@ -173,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="64">
   <si>
     <t>cs</t>
   </si>
@@ -247,6 +209,9 @@
     <t>int[]</t>
   </si>
   <si>
+    <t>任务机器人</t>
+  </si>
+  <si>
     <t>10,10,0,0,0</t>
   </si>
   <si>
@@ -319,6 +284,9 @@
     <t>-87.50,0.00,-27.62;1</t>
   </si>
   <si>
+    <t>1250,1250,1250,1250,1250</t>
+  </si>
+  <si>
     <t>1-30级战场机器人</t>
   </si>
   <si>
@@ -340,42 +308,38 @@
     <t>Solo机器人</t>
   </si>
   <si>
-    <t>任务机器人</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>测试机器人1</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>测试机器人2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>奔跑大赛机器人</t>
+  </si>
+  <si>
+    <t>-11.36;0.98;45.02;2</t>
   </si>
   <si>
     <t>恶魔活动机器人</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>12.70;0.98;-44.76;2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>奔跑大赛机器人</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>-11.36;0.98;45.02;2</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>1250,1250,1250,1250,1250</t>
+  </si>
+  <si>
+    <t>宝藏之地机器人</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,7 +351,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -395,7 +358,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -403,45 +365,177 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,8 +554,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -482,71 +762,360 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="常规 6" xfId="1" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 6" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -804,16 +1373,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L84"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView tabSelected="1" topLeftCell="F71" workbookViewId="0">
+      <selection activeCell="F85" sqref="$A85:$XFD85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -832,7 +1401,7 @@
     <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="1" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -848,7 +1417,7 @@
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="2" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -864,7 +1433,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="3" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6" t="s">
@@ -898,7 +1467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="4" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6" t="s">
@@ -932,7 +1501,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="5" s="1" customFormat="1" ht="20.1" customHeight="1" spans="1:12">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6" t="s">
@@ -966,7 +1535,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="6" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B6" s="7"/>
       <c r="C6" s="5">
         <v>1001</v>
@@ -975,7 +1544,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
@@ -985,7 +1554,7 @@
       </c>
       <c r="H6" s="5"/>
       <c r="I6" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6" s="8">
         <v>1</v>
@@ -993,7 +1562,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="7" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B7" s="7"/>
       <c r="C7" s="5">
         <v>2101</v>
@@ -1002,7 +1571,7 @@
         <v>20</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
@@ -1010,8 +1579,8 @@
       <c r="G7" s="5">
         <v>101</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>26</v>
+      <c r="H7" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="I7" s="10">
         <v>200200200200200</v>
@@ -1022,11 +1591,11 @@
       <c r="K7" s="5">
         <v>110001</v>
       </c>
-      <c r="L7" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L7" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B8" s="7"/>
       <c r="C8" s="5">
         <v>2102</v>
@@ -1035,7 +1604,7 @@
         <v>20</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
@@ -1043,8 +1612,8 @@
       <c r="G8" s="5">
         <v>102</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>26</v>
+      <c r="H8" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="I8" s="10">
         <v>200200200200200</v>
@@ -1055,11 +1624,11 @@
       <c r="K8" s="5">
         <v>110001</v>
       </c>
-      <c r="L8" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L8" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B9" s="7"/>
       <c r="C9" s="5">
         <v>2103</v>
@@ -1068,7 +1637,7 @@
         <v>20</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F9" s="5">
         <v>1</v>
@@ -1076,8 +1645,8 @@
       <c r="G9" s="5">
         <v>103</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>28</v>
+      <c r="H9" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="I9" s="10">
         <v>200200200200200</v>
@@ -1088,11 +1657,11 @@
       <c r="K9" s="5">
         <v>110001</v>
       </c>
-      <c r="L9" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L9" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B10" s="7"/>
       <c r="C10" s="5">
         <v>2104</v>
@@ -1101,7 +1670,7 @@
         <v>20</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10" s="5">
         <v>2</v>
@@ -1109,8 +1678,8 @@
       <c r="G10" s="5">
         <v>201</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>29</v>
+      <c r="H10" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="I10" s="10">
         <v>200200200200200</v>
@@ -1121,11 +1690,11 @@
       <c r="K10" s="5">
         <v>110001</v>
       </c>
-      <c r="L10" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L10" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B11" s="7"/>
       <c r="C11" s="5">
         <v>2105</v>
@@ -1134,7 +1703,7 @@
         <v>20</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F11" s="5">
         <v>2</v>
@@ -1142,8 +1711,8 @@
       <c r="G11" s="5">
         <v>202</v>
       </c>
-      <c r="H11" s="12" t="s">
-        <v>29</v>
+      <c r="H11" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="I11" s="10">
         <v>200200200200200</v>
@@ -1154,11 +1723,11 @@
       <c r="K11" s="5">
         <v>110001</v>
       </c>
-      <c r="L11" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L11" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B12" s="7"/>
       <c r="C12" s="5">
         <v>2106</v>
@@ -1167,7 +1736,7 @@
         <v>20</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F12" s="5">
         <v>2</v>
@@ -1175,8 +1744,8 @@
       <c r="G12" s="5">
         <v>203</v>
       </c>
-      <c r="H12" s="12" t="s">
-        <v>30</v>
+      <c r="H12" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="I12" s="10">
         <v>200200200200200</v>
@@ -1187,11 +1756,11 @@
       <c r="K12" s="5">
         <v>110001</v>
       </c>
-      <c r="L12" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L12" s="14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B13" s="7"/>
       <c r="C13" s="5">
         <f>C7+100</f>
@@ -1201,7 +1770,7 @@
         <v>35</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
@@ -1209,8 +1778,8 @@
       <c r="G13" s="5">
         <v>101</v>
       </c>
-      <c r="H13" s="12" t="s">
-        <v>31</v>
+      <c r="H13" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="I13" s="10">
         <v>400400400400400</v>
@@ -1221,11 +1790,11 @@
       <c r="K13" s="5">
         <v>110002</v>
       </c>
-      <c r="L13" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L13" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B14" s="7"/>
       <c r="C14" s="5">
         <f t="shared" ref="C14:C42" si="0">C8+100</f>
@@ -1235,7 +1804,7 @@
         <v>35</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
@@ -1243,8 +1812,8 @@
       <c r="G14" s="5">
         <v>102</v>
       </c>
-      <c r="H14" s="12" t="s">
-        <v>31</v>
+      <c r="H14" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="I14" s="10">
         <v>400400400400400</v>
@@ -1255,11 +1824,11 @@
       <c r="K14" s="5">
         <v>110002</v>
       </c>
-      <c r="L14" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L14" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B15" s="7"/>
       <c r="C15" s="5">
         <f t="shared" si="0"/>
@@ -1269,7 +1838,7 @@
         <v>35</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F15" s="5">
         <v>1</v>
@@ -1277,8 +1846,8 @@
       <c r="G15" s="5">
         <v>103</v>
       </c>
-      <c r="H15" s="12" t="s">
-        <v>33</v>
+      <c r="H15" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="I15" s="10">
         <v>400400400400400</v>
@@ -1289,11 +1858,11 @@
       <c r="K15" s="5">
         <v>110002</v>
       </c>
-      <c r="L15" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L15" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B16" s="7"/>
       <c r="C16" s="5">
         <f t="shared" si="0"/>
@@ -1303,7 +1872,7 @@
         <v>35</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F16" s="5">
         <v>2</v>
@@ -1311,8 +1880,8 @@
       <c r="G16" s="5">
         <v>201</v>
       </c>
-      <c r="H16" s="12" t="s">
-        <v>34</v>
+      <c r="H16" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="I16" s="10">
         <v>400400400400400</v>
@@ -1323,11 +1892,11 @@
       <c r="K16" s="5">
         <v>110002</v>
       </c>
-      <c r="L16" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L16" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B17" s="7"/>
       <c r="C17" s="5">
         <f t="shared" si="0"/>
@@ -1337,7 +1906,7 @@
         <v>35</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F17" s="5">
         <v>2</v>
@@ -1345,8 +1914,8 @@
       <c r="G17" s="5">
         <v>202</v>
       </c>
-      <c r="H17" s="12" t="s">
-        <v>34</v>
+      <c r="H17" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="I17" s="10">
         <v>400400400400400</v>
@@ -1357,11 +1926,11 @@
       <c r="K17" s="5">
         <v>110002</v>
       </c>
-      <c r="L17" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L17" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B18" s="7"/>
       <c r="C18" s="5">
         <f t="shared" si="0"/>
@@ -1371,7 +1940,7 @@
         <v>35</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F18" s="5">
         <v>2</v>
@@ -1379,8 +1948,8 @@
       <c r="G18" s="5">
         <v>203</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>35</v>
+      <c r="H18" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="I18" s="10">
         <v>400400400400400</v>
@@ -1391,11 +1960,11 @@
       <c r="K18" s="5">
         <v>110002</v>
       </c>
-      <c r="L18" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L18" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B19" s="7"/>
       <c r="C19" s="5">
         <f t="shared" si="0"/>
@@ -1405,7 +1974,7 @@
         <v>45</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F19" s="5">
         <v>1</v>
@@ -1413,8 +1982,8 @@
       <c r="G19" s="5">
         <v>101</v>
       </c>
-      <c r="H19" s="12" t="s">
-        <v>36</v>
+      <c r="H19" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="I19" s="10">
         <v>600600600600600</v>
@@ -1425,11 +1994,11 @@
       <c r="K19" s="5">
         <v>110003</v>
       </c>
-      <c r="L19" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L19" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B20" s="7"/>
       <c r="C20" s="5">
         <f t="shared" si="0"/>
@@ -1439,7 +2008,7 @@
         <v>45</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F20" s="5">
         <v>1</v>
@@ -1447,8 +2016,8 @@
       <c r="G20" s="5">
         <v>102</v>
       </c>
-      <c r="H20" s="12" t="s">
-        <v>36</v>
+      <c r="H20" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="I20" s="10">
         <v>600600600600600</v>
@@ -1459,11 +2028,11 @@
       <c r="K20" s="5">
         <v>110003</v>
       </c>
-      <c r="L20" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L20" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B21" s="7"/>
       <c r="C21" s="5">
         <f t="shared" si="0"/>
@@ -1473,7 +2042,7 @@
         <v>45</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F21" s="5">
         <v>1</v>
@@ -1481,8 +2050,8 @@
       <c r="G21" s="5">
         <v>103</v>
       </c>
-      <c r="H21" s="12" t="s">
-        <v>38</v>
+      <c r="H21" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="I21" s="10">
         <v>600600600600600</v>
@@ -1493,11 +2062,11 @@
       <c r="K21" s="5">
         <v>110003</v>
       </c>
-      <c r="L21" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L21" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B22" s="7"/>
       <c r="C22" s="5">
         <f t="shared" si="0"/>
@@ -1507,7 +2076,7 @@
         <v>45</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F22" s="5">
         <v>2</v>
@@ -1515,8 +2084,8 @@
       <c r="G22" s="5">
         <v>201</v>
       </c>
-      <c r="H22" s="12" t="s">
-        <v>39</v>
+      <c r="H22" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="I22" s="10">
         <v>600600600600600</v>
@@ -1527,11 +2096,11 @@
       <c r="K22" s="5">
         <v>110003</v>
       </c>
-      <c r="L22" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L22" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B23" s="7"/>
       <c r="C23" s="5">
         <f t="shared" si="0"/>
@@ -1541,7 +2110,7 @@
         <v>45</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F23" s="5">
         <v>2</v>
@@ -1549,8 +2118,8 @@
       <c r="G23" s="5">
         <v>202</v>
       </c>
-      <c r="H23" s="12" t="s">
-        <v>39</v>
+      <c r="H23" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="I23" s="10">
         <v>600600600600600</v>
@@ -1561,11 +2130,11 @@
       <c r="K23" s="5">
         <v>110003</v>
       </c>
-      <c r="L23" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L23" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B24" s="7"/>
       <c r="C24" s="5">
         <f t="shared" si="0"/>
@@ -1575,7 +2144,7 @@
         <v>45</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F24" s="5">
         <v>2</v>
@@ -1583,8 +2152,8 @@
       <c r="G24" s="5">
         <v>203</v>
       </c>
-      <c r="H24" s="12" t="s">
-        <v>40</v>
+      <c r="H24" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="I24" s="10">
         <v>600600600600600</v>
@@ -1595,11 +2164,11 @@
       <c r="K24" s="5">
         <v>110003</v>
       </c>
-      <c r="L24" s="13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L24" s="14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B25" s="7"/>
       <c r="C25" s="5">
         <f t="shared" si="0"/>
@@ -1609,7 +2178,7 @@
         <v>55</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F25" s="5">
         <v>1</v>
@@ -1617,8 +2186,8 @@
       <c r="G25" s="5">
         <v>101</v>
       </c>
-      <c r="H25" s="12" t="s">
-        <v>41</v>
+      <c r="H25" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="I25" s="10">
         <v>800800800800800</v>
@@ -1629,11 +2198,11 @@
       <c r="K25" s="5">
         <v>110004</v>
       </c>
-      <c r="L25" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L25" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B26" s="7"/>
       <c r="C26" s="5">
         <f t="shared" si="0"/>
@@ -1643,7 +2212,7 @@
         <v>55</v>
       </c>
       <c r="E26" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F26" s="5">
         <v>1</v>
@@ -1651,8 +2220,8 @@
       <c r="G26" s="5">
         <v>102</v>
       </c>
-      <c r="H26" s="12" t="s">
-        <v>41</v>
+      <c r="H26" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="I26" s="10">
         <v>800800800800800</v>
@@ -1663,11 +2232,11 @@
       <c r="K26" s="5">
         <v>110004</v>
       </c>
-      <c r="L26" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L26" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B27" s="7"/>
       <c r="C27" s="5">
         <f t="shared" si="0"/>
@@ -1677,7 +2246,7 @@
         <v>55</v>
       </c>
       <c r="E27" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F27" s="5">
         <v>1</v>
@@ -1685,8 +2254,8 @@
       <c r="G27" s="5">
         <v>103</v>
       </c>
-      <c r="H27" s="12" t="s">
-        <v>43</v>
+      <c r="H27" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="I27" s="10">
         <v>800800800800800</v>
@@ -1697,11 +2266,11 @@
       <c r="K27" s="5">
         <v>110004</v>
       </c>
-      <c r="L27" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L27" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B28" s="7"/>
       <c r="C28" s="5">
         <f t="shared" si="0"/>
@@ -1711,7 +2280,7 @@
         <v>55</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F28" s="5">
         <v>2</v>
@@ -1719,8 +2288,8 @@
       <c r="G28" s="5">
         <v>201</v>
       </c>
-      <c r="H28" s="12" t="s">
-        <v>44</v>
+      <c r="H28" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="I28" s="10">
         <v>800800800800800</v>
@@ -1731,11 +2300,11 @@
       <c r="K28" s="5">
         <v>110004</v>
       </c>
-      <c r="L28" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L28" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B29" s="7"/>
       <c r="C29" s="5">
         <f t="shared" si="0"/>
@@ -1745,7 +2314,7 @@
         <v>55</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F29" s="5">
         <v>2</v>
@@ -1753,8 +2322,8 @@
       <c r="G29" s="5">
         <v>202</v>
       </c>
-      <c r="H29" s="12" t="s">
-        <v>44</v>
+      <c r="H29" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="I29" s="10">
         <v>800800800800800</v>
@@ -1765,11 +2334,11 @@
       <c r="K29" s="5">
         <v>110004</v>
       </c>
-      <c r="L29" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L29" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B30" s="7"/>
       <c r="C30" s="5">
         <f t="shared" si="0"/>
@@ -1779,7 +2348,7 @@
         <v>55</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F30" s="5">
         <v>2</v>
@@ -1787,8 +2356,8 @@
       <c r="G30" s="5">
         <v>203</v>
       </c>
-      <c r="H30" s="12" t="s">
-        <v>45</v>
+      <c r="H30" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="I30" s="10">
         <v>800800800800800</v>
@@ -1799,11 +2368,11 @@
       <c r="K30" s="5">
         <v>110004</v>
       </c>
-      <c r="L30" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L30" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B31" s="7"/>
       <c r="C31" s="5">
         <f t="shared" si="0"/>
@@ -1813,7 +2382,7 @@
         <v>60</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F31" s="5">
         <v>1</v>
@@ -1821,11 +2390,11 @@
       <c r="G31" s="5">
         <v>101</v>
       </c>
-      <c r="H31" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I31" s="14" t="s">
-        <v>46</v>
+      <c r="H31" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="J31" s="8">
         <v>2</v>
@@ -1833,11 +2402,11 @@
       <c r="K31" s="5">
         <v>110005</v>
       </c>
-      <c r="L31" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L31" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B32" s="7"/>
       <c r="C32" s="5">
         <f t="shared" si="0"/>
@@ -1847,7 +2416,7 @@
         <v>60</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F32" s="5">
         <v>1</v>
@@ -1855,11 +2424,11 @@
       <c r="G32" s="5">
         <v>102</v>
       </c>
-      <c r="H32" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I32" s="14" t="s">
-        <v>46</v>
+      <c r="H32" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="J32" s="8">
         <v>2</v>
@@ -1867,11 +2436,11 @@
       <c r="K32" s="5">
         <v>110005</v>
       </c>
-      <c r="L32" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L32" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B33" s="7"/>
       <c r="C33" s="5">
         <f t="shared" si="0"/>
@@ -1881,7 +2450,7 @@
         <v>60</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F33" s="5">
         <v>1</v>
@@ -1889,11 +2458,11 @@
       <c r="G33" s="5">
         <v>103</v>
       </c>
-      <c r="H33" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I33" s="14" t="s">
-        <v>46</v>
+      <c r="H33" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="J33" s="8">
         <v>2</v>
@@ -1901,11 +2470,11 @@
       <c r="K33" s="5">
         <v>110005</v>
       </c>
-      <c r="L33" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L33" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B34" s="7"/>
       <c r="C34" s="5">
         <f t="shared" si="0"/>
@@ -1915,7 +2484,7 @@
         <v>60</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F34" s="5">
         <v>2</v>
@@ -1923,11 +2492,11 @@
       <c r="G34" s="5">
         <v>201</v>
       </c>
-      <c r="H34" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I34" s="14" t="s">
-        <v>46</v>
+      <c r="H34" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="J34" s="8">
         <v>2</v>
@@ -1935,11 +2504,11 @@
       <c r="K34" s="5">
         <v>110005</v>
       </c>
-      <c r="L34" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L34" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B35" s="7"/>
       <c r="C35" s="5">
         <f t="shared" si="0"/>
@@ -1949,7 +2518,7 @@
         <v>60</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F35" s="5">
         <v>2</v>
@@ -1957,11 +2526,11 @@
       <c r="G35" s="5">
         <v>202</v>
       </c>
-      <c r="H35" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I35" s="14" t="s">
-        <v>46</v>
+      <c r="H35" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="J35" s="8">
         <v>2</v>
@@ -1969,11 +2538,11 @@
       <c r="K35" s="5">
         <v>110005</v>
       </c>
-      <c r="L35" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L35" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B36" s="7"/>
       <c r="C36" s="5">
         <f t="shared" si="0"/>
@@ -1983,7 +2552,7 @@
         <v>60</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F36" s="5">
         <v>2</v>
@@ -1991,11 +2560,11 @@
       <c r="G36" s="5">
         <v>203</v>
       </c>
-      <c r="H36" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I36" s="14" t="s">
+      <c r="H36" s="13" t="s">
         <v>46</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="J36" s="8">
         <v>2</v>
@@ -2003,11 +2572,11 @@
       <c r="K36" s="5">
         <v>110005</v>
       </c>
-      <c r="L36" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L36" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B37" s="7"/>
       <c r="C37" s="5">
         <f t="shared" si="0"/>
@@ -2017,7 +2586,7 @@
         <v>70</v>
       </c>
       <c r="E37" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F37" s="5">
         <v>1</v>
@@ -2025,11 +2594,11 @@
       <c r="G37" s="5">
         <v>101</v>
       </c>
-      <c r="H37" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I37" s="14" t="s">
-        <v>62</v>
+      <c r="H37" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="J37" s="8">
         <v>2</v>
@@ -2037,11 +2606,11 @@
       <c r="K37" s="5">
         <v>110006</v>
       </c>
-      <c r="L37" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L37" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B38" s="7"/>
       <c r="C38" s="5">
         <f t="shared" si="0"/>
@@ -2051,7 +2620,7 @@
         <v>70</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F38" s="5">
         <v>1</v>
@@ -2059,11 +2628,11 @@
       <c r="G38" s="5">
         <v>102</v>
       </c>
-      <c r="H38" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I38" s="14" t="s">
-        <v>62</v>
+      <c r="H38" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="J38" s="8">
         <v>2</v>
@@ -2071,11 +2640,11 @@
       <c r="K38" s="5">
         <v>110006</v>
       </c>
-      <c r="L38" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L38" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B39" s="7"/>
       <c r="C39" s="5">
         <f t="shared" si="0"/>
@@ -2085,7 +2654,7 @@
         <v>70</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F39" s="5">
         <v>1</v>
@@ -2093,11 +2662,11 @@
       <c r="G39" s="5">
         <v>103</v>
       </c>
-      <c r="H39" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I39" s="14" t="s">
-        <v>62</v>
+      <c r="H39" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I39" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="J39" s="8">
         <v>2</v>
@@ -2105,11 +2674,11 @@
       <c r="K39" s="5">
         <v>110006</v>
       </c>
-      <c r="L39" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="40" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L39" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B40" s="7"/>
       <c r="C40" s="5">
         <f t="shared" si="0"/>
@@ -2119,7 +2688,7 @@
         <v>70</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F40" s="5">
         <v>2</v>
@@ -2127,11 +2696,11 @@
       <c r="G40" s="5">
         <v>201</v>
       </c>
-      <c r="H40" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I40" s="14" t="s">
-        <v>62</v>
+      <c r="H40" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I40" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="J40" s="8">
         <v>2</v>
@@ -2139,11 +2708,11 @@
       <c r="K40" s="5">
         <v>110006</v>
       </c>
-      <c r="L40" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L40" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B41" s="7"/>
       <c r="C41" s="5">
         <f t="shared" si="0"/>
@@ -2153,7 +2722,7 @@
         <v>70</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F41" s="5">
         <v>2</v>
@@ -2161,11 +2730,11 @@
       <c r="G41" s="5">
         <v>202</v>
       </c>
-      <c r="H41" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="I41" s="14" t="s">
-        <v>62</v>
+      <c r="H41" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="J41" s="8">
         <v>2</v>
@@ -2173,11 +2742,11 @@
       <c r="K41" s="5">
         <v>110006</v>
       </c>
-      <c r="L41" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="42" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L41" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B42" s="7"/>
       <c r="C42" s="5">
         <f t="shared" si="0"/>
@@ -2187,7 +2756,7 @@
         <v>70</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F42" s="5">
         <v>2</v>
@@ -2195,11 +2764,11 @@
       <c r="G42" s="5">
         <v>203</v>
       </c>
-      <c r="H42" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I42" s="14" t="s">
-        <v>62</v>
+      <c r="H42" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>49</v>
       </c>
       <c r="J42" s="8">
         <v>2</v>
@@ -2207,11 +2776,11 @@
       <c r="K42" s="5">
         <v>110006</v>
       </c>
-      <c r="L42" s="13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="43" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L42" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B43" s="7"/>
       <c r="C43" s="5">
         <v>3001</v>
@@ -2220,7 +2789,7 @@
         <v>20</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F43" s="5">
         <v>1</v>
@@ -2228,8 +2797,8 @@
       <c r="G43" s="5">
         <v>101</v>
       </c>
-      <c r="H43" s="12" t="s">
-        <v>26</v>
+      <c r="H43" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="I43" s="10">
         <v>300300300300300</v>
@@ -2238,11 +2807,11 @@
         <v>3</v>
       </c>
       <c r="K43" s="5"/>
-      <c r="L43" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L43" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B44" s="7"/>
       <c r="C44" s="5">
         <v>3002</v>
@@ -2251,7 +2820,7 @@
         <v>20</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F44" s="5">
         <v>1</v>
@@ -2259,8 +2828,8 @@
       <c r="G44" s="5">
         <v>102</v>
       </c>
-      <c r="H44" s="12" t="s">
-        <v>26</v>
+      <c r="H44" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="I44" s="10">
         <v>300300300300300</v>
@@ -2269,11 +2838,11 @@
         <v>3</v>
       </c>
       <c r="K44" s="5"/>
-      <c r="L44" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L44" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B45" s="7"/>
       <c r="C45" s="5">
         <v>3003</v>
@@ -2282,7 +2851,7 @@
         <v>20</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F45" s="5">
         <v>1</v>
@@ -2290,8 +2859,8 @@
       <c r="G45" s="5">
         <v>103</v>
       </c>
-      <c r="H45" s="12" t="s">
-        <v>28</v>
+      <c r="H45" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="I45" s="10">
         <v>300300300300300</v>
@@ -2300,11 +2869,11 @@
         <v>3</v>
       </c>
       <c r="K45" s="5"/>
-      <c r="L45" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L45" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B46" s="7"/>
       <c r="C46" s="5">
         <v>3004</v>
@@ -2313,7 +2882,7 @@
         <v>20</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F46" s="5">
         <v>2</v>
@@ -2321,8 +2890,8 @@
       <c r="G46" s="5">
         <v>201</v>
       </c>
-      <c r="H46" s="12" t="s">
-        <v>29</v>
+      <c r="H46" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="I46" s="10">
         <v>300300300300300</v>
@@ -2331,11 +2900,11 @@
         <v>3</v>
       </c>
       <c r="K46" s="5"/>
-      <c r="L46" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L46" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B47" s="7"/>
       <c r="C47" s="5">
         <v>3005</v>
@@ -2344,7 +2913,7 @@
         <v>20</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F47" s="5">
         <v>2</v>
@@ -2352,8 +2921,8 @@
       <c r="G47" s="5">
         <v>202</v>
       </c>
-      <c r="H47" s="12" t="s">
-        <v>29</v>
+      <c r="H47" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="I47" s="10">
         <v>300300300300300</v>
@@ -2362,11 +2931,11 @@
         <v>3</v>
       </c>
       <c r="K47" s="5"/>
-      <c r="L47" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L47" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B48" s="7"/>
       <c r="C48" s="5">
         <v>3006</v>
@@ -2375,7 +2944,7 @@
         <v>20</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F48" s="5">
         <v>2</v>
@@ -2383,8 +2952,8 @@
       <c r="G48" s="5">
         <v>203</v>
       </c>
-      <c r="H48" s="12" t="s">
-        <v>30</v>
+      <c r="H48" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="I48" s="10">
         <v>300300300300300</v>
@@ -2393,11 +2962,11 @@
         <v>3</v>
       </c>
       <c r="K48" s="5"/>
-      <c r="L48" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L48" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B49" s="7"/>
       <c r="C49" s="5">
         <v>3051</v>
@@ -2406,7 +2975,7 @@
         <v>30</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F49" s="5">
         <v>1</v>
@@ -2414,8 +2983,8 @@
       <c r="G49" s="5">
         <v>101</v>
       </c>
-      <c r="H49" s="12" t="s">
-        <v>31</v>
+      <c r="H49" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="I49" s="10">
         <v>900900900900900</v>
@@ -2424,11 +2993,11 @@
         <v>3</v>
       </c>
       <c r="K49" s="5"/>
-      <c r="L49" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L49" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B50" s="7"/>
       <c r="C50" s="5">
         <v>3052</v>
@@ -2437,7 +3006,7 @@
         <v>30</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F50" s="5">
         <v>1</v>
@@ -2445,8 +3014,8 @@
       <c r="G50" s="5">
         <v>102</v>
       </c>
-      <c r="H50" s="12" t="s">
-        <v>31</v>
+      <c r="H50" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="I50" s="10">
         <v>900900900900900</v>
@@ -2455,11 +3024,11 @@
         <v>3</v>
       </c>
       <c r="K50" s="5"/>
-      <c r="L50" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L50" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B51" s="7"/>
       <c r="C51" s="5">
         <v>3053</v>
@@ -2468,7 +3037,7 @@
         <v>30</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F51" s="5">
         <v>1</v>
@@ -2476,8 +3045,8 @@
       <c r="G51" s="5">
         <v>103</v>
       </c>
-      <c r="H51" s="12" t="s">
-        <v>33</v>
+      <c r="H51" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="I51" s="10">
         <v>900900900900900</v>
@@ -2486,11 +3055,11 @@
         <v>3</v>
       </c>
       <c r="K51" s="5"/>
-      <c r="L51" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L51" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B52" s="7"/>
       <c r="C52" s="5">
         <v>3054</v>
@@ -2499,7 +3068,7 @@
         <v>30</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F52" s="5">
         <v>2</v>
@@ -2507,8 +3076,8 @@
       <c r="G52" s="5">
         <v>201</v>
       </c>
-      <c r="H52" s="12" t="s">
-        <v>34</v>
+      <c r="H52" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="I52" s="10">
         <v>900900900900900</v>
@@ -2517,11 +3086,11 @@
         <v>3</v>
       </c>
       <c r="K52" s="5"/>
-      <c r="L52" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L52" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B53" s="7"/>
       <c r="C53" s="5">
         <v>3055</v>
@@ -2530,7 +3099,7 @@
         <v>30</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F53" s="5">
         <v>2</v>
@@ -2538,8 +3107,8 @@
       <c r="G53" s="5">
         <v>202</v>
       </c>
-      <c r="H53" s="12" t="s">
-        <v>34</v>
+      <c r="H53" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="I53" s="10">
         <v>900900900900900</v>
@@ -2548,11 +3117,11 @@
         <v>3</v>
       </c>
       <c r="K53" s="5"/>
-      <c r="L53" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L53" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B54" s="7"/>
       <c r="C54" s="5">
         <v>3056</v>
@@ -2561,7 +3130,7 @@
         <v>30</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="F54" s="5">
         <v>2</v>
@@ -2569,8 +3138,8 @@
       <c r="G54" s="5">
         <v>203</v>
       </c>
-      <c r="H54" s="12" t="s">
-        <v>35</v>
+      <c r="H54" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="I54" s="10">
         <v>900900900900900</v>
@@ -2579,11 +3148,11 @@
         <v>3</v>
       </c>
       <c r="K54" s="5"/>
-      <c r="L54" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L54" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B55" s="7"/>
       <c r="C55" s="5">
         <v>5101</v>
@@ -2592,7 +3161,7 @@
         <v>20</v>
       </c>
       <c r="E55" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F55" s="5">
         <v>1</v>
@@ -2600,11 +3169,11 @@
       <c r="G55" s="5">
         <v>101</v>
       </c>
-      <c r="H55" s="12" t="s">
-        <v>26</v>
+      <c r="H55" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J55" s="5">
         <v>4</v>
@@ -2614,7 +3183,7 @@
       </c>
       <c r="L55" s="11"/>
     </row>
-    <row r="56" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="56" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B56" s="7"/>
       <c r="C56" s="5">
         <v>5102</v>
@@ -2623,7 +3192,7 @@
         <v>20</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F56" s="5">
         <v>1</v>
@@ -2631,11 +3200,11 @@
       <c r="G56" s="5">
         <v>102</v>
       </c>
-      <c r="H56" s="12" t="s">
-        <v>26</v>
+      <c r="H56" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J56" s="5">
         <v>4</v>
@@ -2645,7 +3214,7 @@
       </c>
       <c r="L56" s="11"/>
     </row>
-    <row r="57" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="57" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B57" s="7"/>
       <c r="C57" s="5">
         <v>5103</v>
@@ -2654,7 +3223,7 @@
         <v>20</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F57" s="5">
         <v>1</v>
@@ -2662,11 +3231,11 @@
       <c r="G57" s="5">
         <v>103</v>
       </c>
-      <c r="H57" s="12" t="s">
-        <v>28</v>
+      <c r="H57" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J57" s="5">
         <v>4</v>
@@ -2676,7 +3245,7 @@
       </c>
       <c r="L57" s="11"/>
     </row>
-    <row r="58" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="58" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B58" s="7"/>
       <c r="C58" s="5">
         <v>5104</v>
@@ -2685,7 +3254,7 @@
         <v>20</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F58" s="5">
         <v>2</v>
@@ -2693,11 +3262,11 @@
       <c r="G58" s="5">
         <v>201</v>
       </c>
-      <c r="H58" s="12" t="s">
-        <v>29</v>
+      <c r="H58" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J58" s="5">
         <v>4</v>
@@ -2707,7 +3276,7 @@
       </c>
       <c r="L58" s="11"/>
     </row>
-    <row r="59" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="59" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B59" s="7"/>
       <c r="C59" s="5">
         <v>5105</v>
@@ -2716,7 +3285,7 @@
         <v>20</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F59" s="5">
         <v>2</v>
@@ -2724,11 +3293,11 @@
       <c r="G59" s="5">
         <v>202</v>
       </c>
-      <c r="H59" s="12" t="s">
-        <v>29</v>
+      <c r="H59" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J59" s="5">
         <v>4</v>
@@ -2738,7 +3307,7 @@
       </c>
       <c r="L59" s="11"/>
     </row>
-    <row r="60" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="60" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B60" s="7"/>
       <c r="C60" s="5">
         <v>5106</v>
@@ -2747,7 +3316,7 @@
         <v>20</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F60" s="5">
         <v>2</v>
@@ -2755,11 +3324,11 @@
       <c r="G60" s="5">
         <v>203</v>
       </c>
-      <c r="H60" s="12" t="s">
-        <v>30</v>
+      <c r="H60" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J60" s="5">
         <v>4</v>
@@ -2769,7 +3338,7 @@
       </c>
       <c r="L60" s="11"/>
     </row>
-    <row r="61" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="61" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B61" s="7"/>
       <c r="C61" s="5">
         <v>5201</v>
@@ -2778,7 +3347,7 @@
         <v>35</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F61" s="5">
         <v>1</v>
@@ -2786,8 +3355,8 @@
       <c r="G61" s="5">
         <v>101</v>
       </c>
-      <c r="H61" s="12" t="s">
-        <v>31</v>
+      <c r="H61" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="I61" s="10">
         <v>100100100100100</v>
@@ -2800,7 +3369,7 @@
       </c>
       <c r="L61" s="11"/>
     </row>
-    <row r="62" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="62" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B62" s="7"/>
       <c r="C62" s="5">
         <v>5202</v>
@@ -2809,7 +3378,7 @@
         <v>35</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F62" s="5">
         <v>1</v>
@@ -2817,8 +3386,8 @@
       <c r="G62" s="5">
         <v>102</v>
       </c>
-      <c r="H62" s="12" t="s">
-        <v>31</v>
+      <c r="H62" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="I62" s="10">
         <v>100100100100100</v>
@@ -2831,7 +3400,7 @@
       </c>
       <c r="L62" s="11"/>
     </row>
-    <row r="63" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="63" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B63" s="7"/>
       <c r="C63" s="5">
         <v>5203</v>
@@ -2840,7 +3409,7 @@
         <v>35</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F63" s="5">
         <v>1</v>
@@ -2848,8 +3417,8 @@
       <c r="G63" s="5">
         <v>103</v>
       </c>
-      <c r="H63" s="12" t="s">
-        <v>33</v>
+      <c r="H63" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="I63" s="10">
         <v>100100100100100</v>
@@ -2862,7 +3431,7 @@
       </c>
       <c r="L63" s="11"/>
     </row>
-    <row r="64" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="64" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B64" s="7"/>
       <c r="C64" s="5">
         <v>5204</v>
@@ -2871,7 +3440,7 @@
         <v>35</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F64" s="5">
         <v>2</v>
@@ -2879,8 +3448,8 @@
       <c r="G64" s="5">
         <v>201</v>
       </c>
-      <c r="H64" s="12" t="s">
-        <v>34</v>
+      <c r="H64" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="I64" s="10">
         <v>100100100100100</v>
@@ -2893,7 +3462,7 @@
       </c>
       <c r="L64" s="11"/>
     </row>
-    <row r="65" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="65" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B65" s="7"/>
       <c r="C65" s="5">
         <v>5205</v>
@@ -2902,7 +3471,7 @@
         <v>35</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F65" s="5">
         <v>2</v>
@@ -2910,8 +3479,8 @@
       <c r="G65" s="5">
         <v>202</v>
       </c>
-      <c r="H65" s="12" t="s">
-        <v>34</v>
+      <c r="H65" s="13" t="s">
+        <v>35</v>
       </c>
       <c r="I65" s="10">
         <v>100100100100100</v>
@@ -2924,7 +3493,7 @@
       </c>
       <c r="L65" s="11"/>
     </row>
-    <row r="66" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="66" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B66" s="7"/>
       <c r="C66" s="5">
         <v>5206</v>
@@ -2933,7 +3502,7 @@
         <v>35</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F66" s="5">
         <v>2</v>
@@ -2941,8 +3510,8 @@
       <c r="G66" s="5">
         <v>203</v>
       </c>
-      <c r="H66" s="12" t="s">
-        <v>35</v>
+      <c r="H66" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="I66" s="10">
         <v>100100100100100</v>
@@ -2955,7 +3524,7 @@
       </c>
       <c r="L66" s="11"/>
     </row>
-    <row r="67" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="67" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B67" s="7"/>
       <c r="C67" s="5">
         <v>5301</v>
@@ -2964,7 +3533,7 @@
         <v>45</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F67" s="5">
         <v>1</v>
@@ -2972,8 +3541,8 @@
       <c r="G67" s="5">
         <v>101</v>
       </c>
-      <c r="H67" s="12" t="s">
-        <v>36</v>
+      <c r="H67" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="I67" s="10">
         <v>150150150150150</v>
@@ -2986,7 +3555,7 @@
       </c>
       <c r="L67" s="11"/>
     </row>
-    <row r="68" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="68" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B68" s="7"/>
       <c r="C68" s="5">
         <v>5302</v>
@@ -2995,7 +3564,7 @@
         <v>45</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F68" s="5">
         <v>1</v>
@@ -3003,8 +3572,8 @@
       <c r="G68" s="5">
         <v>102</v>
       </c>
-      <c r="H68" s="12" t="s">
-        <v>36</v>
+      <c r="H68" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="I68" s="10">
         <v>150150150150150</v>
@@ -3017,7 +3586,7 @@
       </c>
       <c r="L68" s="11"/>
     </row>
-    <row r="69" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="69" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B69" s="7"/>
       <c r="C69" s="5">
         <v>5303</v>
@@ -3026,7 +3595,7 @@
         <v>45</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F69" s="5">
         <v>1</v>
@@ -3034,8 +3603,8 @@
       <c r="G69" s="5">
         <v>103</v>
       </c>
-      <c r="H69" s="12" t="s">
-        <v>38</v>
+      <c r="H69" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="I69" s="10">
         <v>150150150150150</v>
@@ -3048,7 +3617,7 @@
       </c>
       <c r="L69" s="11"/>
     </row>
-    <row r="70" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="70" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B70" s="7"/>
       <c r="C70" s="5">
         <v>5304</v>
@@ -3057,7 +3626,7 @@
         <v>45</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F70" s="5">
         <v>2</v>
@@ -3065,8 +3634,8 @@
       <c r="G70" s="5">
         <v>201</v>
       </c>
-      <c r="H70" s="12" t="s">
-        <v>39</v>
+      <c r="H70" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="I70" s="10">
         <v>150150150150150</v>
@@ -3079,7 +3648,7 @@
       </c>
       <c r="L70" s="11"/>
     </row>
-    <row r="71" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="71" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B71" s="7"/>
       <c r="C71" s="5">
         <v>5305</v>
@@ -3088,7 +3657,7 @@
         <v>45</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F71" s="5">
         <v>2</v>
@@ -3096,8 +3665,8 @@
       <c r="G71" s="5">
         <v>202</v>
       </c>
-      <c r="H71" s="12" t="s">
-        <v>39</v>
+      <c r="H71" s="13" t="s">
+        <v>40</v>
       </c>
       <c r="I71" s="10">
         <v>150150150150150</v>
@@ -3110,7 +3679,7 @@
       </c>
       <c r="L71" s="11"/>
     </row>
-    <row r="72" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="72" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B72" s="7"/>
       <c r="C72" s="5">
         <v>5306</v>
@@ -3119,7 +3688,7 @@
         <v>45</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F72" s="5">
         <v>2</v>
@@ -3127,8 +3696,8 @@
       <c r="G72" s="5">
         <v>203</v>
       </c>
-      <c r="H72" s="12" t="s">
-        <v>40</v>
+      <c r="H72" s="13" t="s">
+        <v>41</v>
       </c>
       <c r="I72" s="10">
         <v>150150150150150</v>
@@ -3141,7 +3710,7 @@
       </c>
       <c r="L72" s="11"/>
     </row>
-    <row r="73" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="73" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B73" s="7"/>
       <c r="C73" s="5">
         <v>5401</v>
@@ -3150,7 +3719,7 @@
         <v>55</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F73" s="5">
         <v>1</v>
@@ -3158,8 +3727,8 @@
       <c r="G73" s="5">
         <v>101</v>
       </c>
-      <c r="H73" s="12" t="s">
-        <v>41</v>
+      <c r="H73" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="I73" s="10">
         <v>200200200200200</v>
@@ -3172,7 +3741,7 @@
       </c>
       <c r="L73" s="11"/>
     </row>
-    <row r="74" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="74" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B74" s="7"/>
       <c r="C74" s="5">
         <v>5402</v>
@@ -3181,7 +3750,7 @@
         <v>55</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F74" s="5">
         <v>1</v>
@@ -3189,8 +3758,8 @@
       <c r="G74" s="5">
         <v>102</v>
       </c>
-      <c r="H74" s="12" t="s">
-        <v>41</v>
+      <c r="H74" s="13" t="s">
+        <v>42</v>
       </c>
       <c r="I74" s="10">
         <v>200200200200200</v>
@@ -3203,7 +3772,7 @@
       </c>
       <c r="L74" s="11"/>
     </row>
-    <row r="75" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="75" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B75" s="7"/>
       <c r="C75" s="5">
         <v>5403</v>
@@ -3212,7 +3781,7 @@
         <v>55</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F75" s="5">
         <v>1</v>
@@ -3220,8 +3789,8 @@
       <c r="G75" s="5">
         <v>103</v>
       </c>
-      <c r="H75" s="12" t="s">
-        <v>43</v>
+      <c r="H75" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="I75" s="10">
         <v>200200200200200</v>
@@ -3234,7 +3803,7 @@
       </c>
       <c r="L75" s="11"/>
     </row>
-    <row r="76" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="76" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B76" s="7"/>
       <c r="C76" s="5">
         <v>5404</v>
@@ -3243,7 +3812,7 @@
         <v>55</v>
       </c>
       <c r="E76" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F76" s="5">
         <v>2</v>
@@ -3251,8 +3820,8 @@
       <c r="G76" s="5">
         <v>201</v>
       </c>
-      <c r="H76" s="12" t="s">
-        <v>44</v>
+      <c r="H76" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="I76" s="10">
         <v>200200200200200</v>
@@ -3265,7 +3834,7 @@
       </c>
       <c r="L76" s="11"/>
     </row>
-    <row r="77" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="77" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B77" s="7"/>
       <c r="C77" s="5">
         <v>5405</v>
@@ -3274,7 +3843,7 @@
         <v>55</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F77" s="5">
         <v>2</v>
@@ -3282,8 +3851,8 @@
       <c r="G77" s="5">
         <v>202</v>
       </c>
-      <c r="H77" s="12" t="s">
-        <v>44</v>
+      <c r="H77" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="I77" s="10">
         <v>200200200200200</v>
@@ -3296,7 +3865,7 @@
       </c>
       <c r="L77" s="11"/>
     </row>
-    <row r="78" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="78" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B78" s="7"/>
       <c r="C78" s="5">
         <v>5406</v>
@@ -3305,7 +3874,7 @@
         <v>55</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F78" s="5">
         <v>2</v>
@@ -3313,8 +3882,8 @@
       <c r="G78" s="5">
         <v>203</v>
       </c>
-      <c r="H78" s="12" t="s">
-        <v>45</v>
+      <c r="H78" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="I78" s="10">
         <v>200200200200200</v>
@@ -3327,7 +3896,7 @@
       </c>
       <c r="L78" s="11"/>
     </row>
-    <row r="79" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="79" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B79" s="7"/>
       <c r="C79" s="5">
         <v>5001</v>
@@ -3336,7 +3905,7 @@
         <v>30</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F79" s="5">
         <v>2</v>
@@ -3344,8 +3913,8 @@
       <c r="G79" s="5">
         <v>203</v>
       </c>
-      <c r="H79" s="12" t="s">
-        <v>35</v>
+      <c r="H79" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="I79" s="10">
         <v>100100100100100</v>
@@ -3354,11 +3923,11 @@
         <v>5</v>
       </c>
       <c r="K79" s="5"/>
-      <c r="L79" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="80" spans="2:12" ht="20.100000000000001" customHeight="1">
+      <c r="L79" s="16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" ht="20.1" customHeight="1" spans="3:10">
       <c r="C80" s="5">
         <v>6001</v>
       </c>
@@ -3366,7 +3935,7 @@
         <v>40</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F80" s="3">
         <v>2</v>
@@ -3374,8 +3943,8 @@
       <c r="G80" s="3">
         <v>203</v>
       </c>
-      <c r="H80" s="12" t="s">
-        <v>35</v>
+      <c r="H80" s="13" t="s">
+        <v>36</v>
       </c>
       <c r="I80" s="10">
         <v>200200200200200</v>
@@ -3384,7 +3953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="81" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B81" s="7"/>
       <c r="C81" s="5">
         <v>7001</v>
@@ -3393,7 +3962,7 @@
         <v>20</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F81" s="5">
         <v>1</v>
@@ -3403,7 +3972,7 @@
       </c>
       <c r="H81" s="5"/>
       <c r="I81" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J81" s="8">
         <v>7</v>
@@ -3411,7 +3980,7 @@
       <c r="K81" s="5"/>
       <c r="L81" s="9"/>
     </row>
-    <row r="82" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="82" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B82" s="7"/>
       <c r="C82" s="5">
         <v>8001</v>
@@ -3420,7 +3989,7 @@
         <v>20</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F82" s="5">
         <v>1</v>
@@ -3430,7 +3999,7 @@
       </c>
       <c r="H82" s="5"/>
       <c r="I82" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J82" s="8">
         <v>8</v>
@@ -3438,7 +4007,7 @@
       <c r="K82" s="5"/>
       <c r="L82" s="9"/>
     </row>
-    <row r="83" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+    <row r="83" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B83" s="7"/>
       <c r="C83" s="5">
         <v>9001</v>
@@ -3447,7 +4016,7 @@
         <v>55</v>
       </c>
       <c r="E83" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F83" s="5">
         <v>1</v>
@@ -3455,21 +4024,21 @@
       <c r="G83" s="5">
         <v>0</v>
       </c>
-      <c r="H83" s="12" t="s">
-        <v>44</v>
+      <c r="H83" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="I83" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J83" s="8">
         <v>9</v>
       </c>
       <c r="K83" s="5"/>
-      <c r="L83" s="13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="84" spans="2:12" s="1" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="L83" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
       <c r="B84" s="7"/>
       <c r="C84" s="5">
         <v>10001</v>
@@ -3478,7 +4047,7 @@
         <v>55</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F84" s="5">
         <v>1</v>
@@ -3486,24 +4055,55 @@
       <c r="G84" s="5">
         <v>0</v>
       </c>
-      <c r="H84" s="12" t="s">
-        <v>44</v>
+      <c r="H84" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="I84" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J84" s="8">
         <v>10</v>
       </c>
       <c r="K84" s="5"/>
-      <c r="L84" s="13" t="s">
-        <v>59</v>
+      <c r="L84" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="85" s="1" customFormat="1" ht="20.1" customHeight="1" spans="2:12">
+      <c r="B85" s="7"/>
+      <c r="C85" s="5">
+        <v>11001</v>
+      </c>
+      <c r="D85" s="5">
+        <v>1</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="F85" s="5">
+        <v>1</v>
+      </c>
+      <c r="G85" s="5">
+        <v>0</v>
+      </c>
+      <c r="H85" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J85" s="8">
+        <v>11</v>
+      </c>
+      <c r="K85" s="5"/>
+      <c r="L85" s="14" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>